--- a/Outputs/1. Budget/Grid Search/Output Files/100000/Output_2_29.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/100000/Output_2_29.xlsx
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1758340.833622923</v>
+        <v>1731997.530748381</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1151840.918742178</v>
+        <v>1151840.918742179</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>14661612.74404855</v>
+        <v>14661612.74404854</v>
       </c>
     </row>
     <row r="9">
@@ -668,7 +668,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>31.83109803682869</v>
       </c>
       <c r="G2" t="n">
         <v>15.30273751513505</v>
@@ -680,7 +680,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -701,7 +701,7 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -719,7 +719,7 @@
         <v>53.51252900994975</v>
       </c>
       <c r="W2" t="n">
-        <v>3.0150637259599</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -741,20 +741,20 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
+        <v>53.51252900994975</v>
+      </c>
+      <c r="E3" t="n">
+        <v>53.51252900994975</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="n">
         <v>47.13383555196375</v>
       </c>
-      <c r="E3" t="n">
-        <v>0</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>53.51252900994975</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>53.51252900994975</v>
@@ -804,7 +804,7 @@
         <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>53.51252900994975</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -814,34 +814,34 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>3.89241773958567</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>53.51252900994975</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>53.51252900994975</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -862,7 +862,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>26.16190956546853</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -893,19 +893,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>11.86372679529251</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>241.0142888776591</v>
+        <v>200.3360962888296</v>
       </c>
       <c r="G5" t="n">
         <v>241.0142888776591</v>
@@ -914,7 +914,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>11.94928935461252</v>
@@ -938,13 +938,13 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -978,7 +978,7 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
@@ -990,10 +990,10 @@
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,25 +1020,25 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>103.5611725900397</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
         <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>122.5043932734623</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
         <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
         <v>205.6826957773044</v>
@@ -1093,10 +1093,10 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1114,7 +1114,7 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>44.30348359856715</v>
+        <v>133.186967585368</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1130,19 +1130,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>218.9861682051759</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>241.0142888776591</v>
+        <v>37.12283097261258</v>
       </c>
       <c r="G8" t="n">
         <v>15.30273751513505</v>
@@ -1178,10 +1178,10 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S8" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1190,7 +1190,7 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -1199,7 +1199,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
     </row>
     <row r="9">
@@ -1212,7 +1212,7 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
@@ -1257,28 +1257,28 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U9" t="n">
-        <v>50.05769526855297</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V9" t="n">
-        <v>232.8005871494253</v>
+        <v>64.67263725582607</v>
       </c>
       <c r="W9" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X9" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -1288,7 +1288,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>47.02492433367365</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -1330,13 +1330,13 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q10" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>130.4655268502615</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1376,58 +1376,58 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>1.809496073036132</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
+        <v>0</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0</v>
+      </c>
+      <c r="O11" t="n">
+        <v>0</v>
+      </c>
+      <c r="P11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>9.990699214544804</v>
+      </c>
+      <c r="R11" t="n">
+        <v>149.8691179411497</v>
+      </c>
+      <c r="S11" t="n">
+        <v>209.0200695862453</v>
+      </c>
+      <c r="T11" t="n">
+        <v>223.0958495641314</v>
+      </c>
+      <c r="U11" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="G11" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="H11" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="I11" t="n">
-        <v>210.4758895704059</v>
-      </c>
-      <c r="J11" t="n">
-        <v>0</v>
-      </c>
-      <c r="K11" t="n">
-        <v>0</v>
-      </c>
-      <c r="L11" t="n">
-        <v>0</v>
-      </c>
-      <c r="M11" t="n">
-        <v>0</v>
-      </c>
-      <c r="N11" t="n">
-        <v>0</v>
-      </c>
-      <c r="O11" t="n">
-        <v>0</v>
-      </c>
-      <c r="P11" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>0</v>
-      </c>
-      <c r="R11" t="n">
-        <v>0</v>
-      </c>
-      <c r="S11" t="n">
-        <v>0</v>
-      </c>
-      <c r="T11" t="n">
-        <v>0</v>
-      </c>
-      <c r="U11" t="n">
-        <v>0</v>
-      </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>102.3382270926889</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -1449,28 +1449,28 @@
         <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>145.4467082856156</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -1494,22 +1494,22 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S12" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T12" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U12" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V12" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W12" t="n">
-        <v>0</v>
+        <v>4.580549094716531</v>
       </c>
       <c r="X12" t="n">
         <v>0</v>
@@ -1546,13 +1546,13 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>14.83685490770591</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -1570,10 +1570,10 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>44.30348359856715</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -1686,28 +1686,28 @@
         <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>145.4467082856156</v>
+        <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -1734,19 +1734,19 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>0</v>
+        <v>35.40726547353833</v>
       </c>
       <c r="T15" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U15" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V15" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W15" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X15" t="n">
         <v>0</v>
@@ -1789,7 +1789,7 @@
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R16" t="n">
-        <v>22.0339917726843</v>
+        <v>44.30348359856715</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -1853,55 +1853,55 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>230.8744955960827</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
+        <v>0</v>
+      </c>
+      <c r="H17" t="n">
+        <v>0</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0</v>
+      </c>
+      <c r="K17" t="n">
+        <v>0</v>
+      </c>
+      <c r="L17" t="n">
+        <v>0</v>
+      </c>
+      <c r="M17" t="n">
+        <v>0</v>
+      </c>
+      <c r="N17" t="n">
+        <v>0</v>
+      </c>
+      <c r="O17" t="n">
+        <v>0</v>
+      </c>
+      <c r="P17" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>9.990699214544804</v>
+      </c>
+      <c r="R17" t="n">
+        <v>149.8691179411497</v>
+      </c>
+      <c r="S17" t="n">
+        <v>209.0200695862453</v>
+      </c>
+      <c r="T17" t="n">
+        <v>223.0958495641314</v>
+      </c>
+      <c r="U17" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="H17" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="I17" t="n">
-        <v>210.4758895704059</v>
-      </c>
-      <c r="J17" t="n">
-        <v>11.94928935461252</v>
-      </c>
-      <c r="K17" t="n">
-        <v>0</v>
-      </c>
-      <c r="L17" t="n">
-        <v>0</v>
-      </c>
-      <c r="M17" t="n">
-        <v>0</v>
-      </c>
-      <c r="N17" t="n">
-        <v>0</v>
-      </c>
-      <c r="O17" t="n">
-        <v>0</v>
-      </c>
-      <c r="P17" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>0</v>
-      </c>
-      <c r="R17" t="n">
-        <v>0</v>
-      </c>
-      <c r="S17" t="n">
-        <v>0</v>
-      </c>
-      <c r="T17" t="n">
-        <v>0</v>
-      </c>
-      <c r="U17" t="n">
-        <v>0</v>
-      </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>102.3382270926889</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -1920,10 +1920,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>145.4467082856156</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D18" t="n">
         <v>147.4450655646388</v>
@@ -1938,10 +1938,10 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H18" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>89.39663285141508</v>
+        <v>7.83710273534405</v>
       </c>
       <c r="J18" t="n">
         <v>0.7465913262578567</v>
@@ -2047,10 +2047,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="S19" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -2078,28 +2078,28 @@
         </is>
       </c>
       <c r="B20" t="n">
+        <v>0</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0</v>
+      </c>
+      <c r="E20" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="C20" t="n">
-        <v>0</v>
-      </c>
-      <c r="D20" t="n">
-        <v>0</v>
-      </c>
-      <c r="E20" t="n">
-        <v>0</v>
-      </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>70.34400780127524</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,10 +2129,10 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S20" t="n">
-        <v>82.96396779500064</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
@@ -2144,7 +2144,7 @@
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -2160,22 +2160,22 @@
         <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E21" t="n">
         <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>145.0692123933839</v>
+        <v>143.1689537721621</v>
       </c>
       <c r="G21" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -2211,7 +2211,7 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T21" t="n">
-        <v>63.15637744954284</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U21" t="n">
         <v>0</v>
@@ -2226,7 +2226,7 @@
         <v>0</v>
       </c>
       <c r="Y21" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -2236,61 +2236,61 @@
         </is>
       </c>
       <c r="B22" t="n">
+        <v>0</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0</v>
+      </c>
+      <c r="D22" t="n">
+        <v>0</v>
+      </c>
+      <c r="E22" t="n">
+        <v>0</v>
+      </c>
+      <c r="F22" t="n">
+        <v>0</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0</v>
+      </c>
+      <c r="H22" t="n">
+        <v>0</v>
+      </c>
+      <c r="I22" t="n">
+        <v>0</v>
+      </c>
+      <c r="J22" t="n">
+        <v>0</v>
+      </c>
+      <c r="K22" t="n">
+        <v>0</v>
+      </c>
+      <c r="L22" t="n">
+        <v>0</v>
+      </c>
+      <c r="M22" t="n">
+        <v>0</v>
+      </c>
+      <c r="N22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O22" t="n">
+        <v>0</v>
+      </c>
+      <c r="P22" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>0</v>
+      </c>
+      <c r="R22" t="n">
+        <v>0</v>
+      </c>
+      <c r="S22" t="n">
+        <v>0</v>
+      </c>
+      <c r="T22" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="C22" t="n">
-        <v>0</v>
-      </c>
-      <c r="D22" t="n">
-        <v>0</v>
-      </c>
-      <c r="E22" t="n">
-        <v>0</v>
-      </c>
-      <c r="F22" t="n">
-        <v>0</v>
-      </c>
-      <c r="G22" t="n">
-        <v>0</v>
-      </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
-      <c r="I22" t="n">
-        <v>0</v>
-      </c>
-      <c r="J22" t="n">
-        <v>0</v>
-      </c>
-      <c r="K22" t="n">
-        <v>0</v>
-      </c>
-      <c r="L22" t="n">
-        <v>0</v>
-      </c>
-      <c r="M22" t="n">
-        <v>0</v>
-      </c>
-      <c r="N22" t="n">
-        <v>0</v>
-      </c>
-      <c r="O22" t="n">
-        <v>0</v>
-      </c>
-      <c r="P22" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q22" t="n">
-        <v>0</v>
-      </c>
-      <c r="R22" t="n">
-        <v>0</v>
-      </c>
-      <c r="S22" t="n">
-        <v>0</v>
-      </c>
-      <c r="T22" t="n">
-        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -2318,70 +2318,70 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
+        <v>0</v>
+      </c>
+      <c r="D23" t="n">
+        <v>0</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0</v>
+      </c>
+      <c r="H23" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="D23" t="n">
+      <c r="I23" t="n">
+        <v>210.4758895704059</v>
+      </c>
+      <c r="J23" t="n">
+        <v>11.94928935461252</v>
+      </c>
+      <c r="K23" t="n">
+        <v>0</v>
+      </c>
+      <c r="L23" t="n">
+        <v>0</v>
+      </c>
+      <c r="M23" t="n">
+        <v>0</v>
+      </c>
+      <c r="N23" t="n">
+        <v>0</v>
+      </c>
+      <c r="O23" t="n">
+        <v>0</v>
+      </c>
+      <c r="P23" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>0</v>
+      </c>
+      <c r="R23" t="n">
+        <v>0</v>
+      </c>
+      <c r="S23" t="n">
+        <v>0</v>
+      </c>
+      <c r="T23" t="n">
+        <v>0</v>
+      </c>
+      <c r="U23" t="n">
+        <v>0</v>
+      </c>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="n">
+        <v>230.8744955960827</v>
+      </c>
+      <c r="X23" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="E23" t="n">
-        <v>0</v>
-      </c>
-      <c r="F23" t="n">
-        <v>0</v>
-      </c>
-      <c r="G23" t="n">
-        <v>0</v>
-      </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="n">
-        <v>0</v>
-      </c>
-      <c r="K23" t="n">
-        <v>0</v>
-      </c>
-      <c r="L23" t="n">
-        <v>0</v>
-      </c>
-      <c r="M23" t="n">
-        <v>0</v>
-      </c>
-      <c r="N23" t="n">
-        <v>0</v>
-      </c>
-      <c r="O23" t="n">
-        <v>0</v>
-      </c>
-      <c r="P23" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q23" t="n">
-        <v>0</v>
-      </c>
-      <c r="R23" t="n">
-        <v>0</v>
-      </c>
-      <c r="S23" t="n">
-        <v>0</v>
-      </c>
-      <c r="T23" t="n">
-        <v>0</v>
-      </c>
-      <c r="U23" t="n">
-        <v>0</v>
-      </c>
-      <c r="V23" t="n">
-        <v>212.285385643442</v>
-      </c>
-      <c r="W23" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="X23" t="n">
-        <v>0</v>
       </c>
       <c r="Y23" t="n">
         <v>0</v>
@@ -2400,16 +2400,16 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E24" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F24" t="n">
-        <v>89.98138655216529</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -2451,19 +2451,19 @@
         <v>0</v>
       </c>
       <c r="U24" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
       </c>
       <c r="W24" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X24" t="n">
         <v>0</v>
       </c>
       <c r="Y24" t="n">
-        <v>205.6826957773044</v>
+        <v>175.1168777114693</v>
       </c>
     </row>
     <row r="25">
@@ -2524,16 +2524,16 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
+        <v>0</v>
+      </c>
+      <c r="T25" t="n">
+        <v>0</v>
+      </c>
+      <c r="U25" t="n">
+        <v>0</v>
+      </c>
+      <c r="V25" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="T25" t="n">
-        <v>0</v>
-      </c>
-      <c r="U25" t="n">
-        <v>0</v>
-      </c>
-      <c r="V25" t="n">
-        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -2552,65 +2552,65 @@
         </is>
       </c>
       <c r="B26" t="n">
+        <v>0</v>
+      </c>
+      <c r="C26" t="n">
+        <v>0</v>
+      </c>
+      <c r="D26" t="n">
+        <v>0</v>
+      </c>
+      <c r="E26" t="n">
+        <v>0</v>
+      </c>
+      <c r="F26" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="C26" t="n">
+      <c r="G26" t="n">
+        <v>220.2131257424249</v>
+      </c>
+      <c r="H26" t="n">
+        <v>0</v>
+      </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>0</v>
+      </c>
+      <c r="K26" t="n">
+        <v>0</v>
+      </c>
+      <c r="L26" t="n">
+        <v>0</v>
+      </c>
+      <c r="M26" t="n">
+        <v>0</v>
+      </c>
+      <c r="N26" t="n">
+        <v>0</v>
+      </c>
+      <c r="O26" t="n">
+        <v>0</v>
+      </c>
+      <c r="P26" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>9.990699214544804</v>
+      </c>
+      <c r="R26" t="n">
+        <v>0</v>
+      </c>
+      <c r="S26" t="n">
+        <v>0</v>
+      </c>
+      <c r="T26" t="n">
+        <v>223.0958495641314</v>
+      </c>
+      <c r="U26" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="D26" t="n">
-        <v>0</v>
-      </c>
-      <c r="E26" t="n">
-        <v>0</v>
-      </c>
-      <c r="F26" t="n">
-        <v>0</v>
-      </c>
-      <c r="G26" t="n">
-        <v>0</v>
-      </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="n">
-        <v>11.94928935461252</v>
-      </c>
-      <c r="K26" t="n">
-        <v>0</v>
-      </c>
-      <c r="L26" t="n">
-        <v>0</v>
-      </c>
-      <c r="M26" t="n">
-        <v>0</v>
-      </c>
-      <c r="N26" t="n">
-        <v>0</v>
-      </c>
-      <c r="O26" t="n">
-        <v>0</v>
-      </c>
-      <c r="P26" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q26" t="n">
-        <v>0</v>
-      </c>
-      <c r="R26" t="n">
-        <v>0</v>
-      </c>
-      <c r="S26" t="n">
-        <v>0</v>
-      </c>
-      <c r="T26" t="n">
-        <v>200.3360962888297</v>
-      </c>
-      <c r="U26" t="n">
-        <v>0</v>
-      </c>
       <c r="V26" t="n">
         <v>0</v>
       </c>
@@ -2621,7 +2621,7 @@
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -2631,7 +2631,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C27" t="n">
         <v>0</v>
@@ -2643,19 +2643,19 @@
         <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>0</v>
+        <v>123.6003327477366</v>
       </c>
       <c r="G27" t="n">
         <v>137.3435171632106</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -2685,13 +2685,13 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T27" t="n">
-        <v>126.809959057435</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U27" t="n">
         <v>0</v>
       </c>
       <c r="V27" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W27" t="n">
         <v>0</v>
@@ -2755,7 +2755,7 @@
         <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -2776,10 +2776,10 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>47.02492433367365</v>
       </c>
     </row>
     <row r="29">
@@ -2813,7 +2813,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
@@ -2834,25 +2834,25 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>149.8691179411497</v>
+        <v>21.18375537072436</v>
       </c>
       <c r="S29" t="n">
         <v>209.0200695862453</v>
       </c>
       <c r="T29" t="n">
-        <v>72.47049842454879</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
@@ -2877,7 +2877,7 @@
         <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F30" t="n">
         <v>145.0692123933839</v>
@@ -2889,7 +2889,7 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I30" t="n">
-        <v>89.39663285141508</v>
+        <v>35.29189475116416</v>
       </c>
       <c r="J30" t="n">
         <v>0.7465913262578567</v>
@@ -2916,13 +2916,13 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S30" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T30" t="n">
-        <v>60.09118670082915</v>
+        <v>0</v>
       </c>
       <c r="U30" t="n">
         <v>0</v>
@@ -2998,16 +2998,16 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
+        <v>0</v>
+      </c>
+      <c r="T31" t="n">
+        <v>0</v>
+      </c>
+      <c r="U31" t="n">
+        <v>0</v>
+      </c>
+      <c r="V31" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="T31" t="n">
-        <v>0</v>
-      </c>
-      <c r="U31" t="n">
-        <v>0</v>
-      </c>
-      <c r="V31" t="n">
-        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -3032,70 +3032,70 @@
         <v>0</v>
       </c>
       <c r="D32" t="n">
+        <v>0</v>
+      </c>
+      <c r="E32" t="n">
+        <v>0</v>
+      </c>
+      <c r="F32" t="n">
+        <v>0</v>
+      </c>
+      <c r="G32" t="n">
+        <v>0</v>
+      </c>
+      <c r="H32" t="n">
+        <v>0</v>
+      </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>0</v>
+      </c>
+      <c r="K32" t="n">
+        <v>0</v>
+      </c>
+      <c r="L32" t="n">
+        <v>0</v>
+      </c>
+      <c r="M32" t="n">
+        <v>0</v>
+      </c>
+      <c r="N32" t="n">
+        <v>0</v>
+      </c>
+      <c r="O32" t="n">
+        <v>0</v>
+      </c>
+      <c r="P32" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>0</v>
+      </c>
+      <c r="R32" t="n">
+        <v>0</v>
+      </c>
+      <c r="S32" t="n">
+        <v>0</v>
+      </c>
+      <c r="T32" t="n">
+        <v>0</v>
+      </c>
+      <c r="U32" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="E32" t="n">
+      <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="F32" t="n">
-        <v>0</v>
-      </c>
-      <c r="G32" t="n">
-        <v>0</v>
-      </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="n">
-        <v>0</v>
-      </c>
-      <c r="K32" t="n">
-        <v>0</v>
-      </c>
-      <c r="L32" t="n">
-        <v>0</v>
-      </c>
-      <c r="M32" t="n">
-        <v>0</v>
-      </c>
-      <c r="N32" t="n">
-        <v>0</v>
-      </c>
-      <c r="O32" t="n">
-        <v>0</v>
-      </c>
-      <c r="P32" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q32" t="n">
-        <v>0</v>
-      </c>
-      <c r="R32" t="n">
-        <v>0</v>
-      </c>
-      <c r="S32" t="n">
-        <v>0</v>
-      </c>
-      <c r="T32" t="n">
-        <v>0</v>
-      </c>
-      <c r="U32" t="n">
-        <v>0</v>
-      </c>
-      <c r="V32" t="n">
-        <v>0</v>
-      </c>
-      <c r="W32" t="n">
-        <v>212.285385643442</v>
       </c>
       <c r="X32" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>212.2853856434421</v>
       </c>
     </row>
     <row r="33">
@@ -3105,10 +3105,10 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C33" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D33" t="n">
         <v>0</v>
@@ -3123,13 +3123,13 @@
         <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>112.2354442364965</v>
+        <v>63.88882306452232</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -3156,25 +3156,25 @@
         <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T33" t="n">
         <v>0</v>
       </c>
       <c r="U33" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V33" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W33" t="n">
-        <v>71.64885309469996</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X33" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y33" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -3238,7 +3238,7 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -3247,7 +3247,7 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -3272,61 +3272,61 @@
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>212.2853856434421</v>
       </c>
       <c r="F35" t="n">
-        <v>220.8837963815379</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
+        <v>0</v>
+      </c>
+      <c r="H35" t="n">
+        <v>0</v>
+      </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>0</v>
+      </c>
+      <c r="K35" t="n">
+        <v>0</v>
+      </c>
+      <c r="L35" t="n">
+        <v>0</v>
+      </c>
+      <c r="M35" t="n">
+        <v>0</v>
+      </c>
+      <c r="N35" t="n">
+        <v>0</v>
+      </c>
+      <c r="O35" t="n">
+        <v>0</v>
+      </c>
+      <c r="P35" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>0</v>
+      </c>
+      <c r="R35" t="n">
+        <v>0</v>
+      </c>
+      <c r="S35" t="n">
+        <v>0</v>
+      </c>
+      <c r="T35" t="n">
+        <v>0</v>
+      </c>
+      <c r="U35" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="H35" t="n">
+      <c r="V35" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="I35" t="n">
-        <v>210.4758895704059</v>
-      </c>
-      <c r="J35" t="n">
-        <v>11.94928935461252</v>
-      </c>
-      <c r="K35" t="n">
-        <v>0</v>
-      </c>
-      <c r="L35" t="n">
-        <v>0</v>
-      </c>
-      <c r="M35" t="n">
-        <v>0</v>
-      </c>
-      <c r="N35" t="n">
-        <v>0</v>
-      </c>
-      <c r="O35" t="n">
-        <v>0</v>
-      </c>
-      <c r="P35" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q35" t="n">
-        <v>9.990699214544804</v>
-      </c>
-      <c r="R35" t="n">
-        <v>0</v>
-      </c>
-      <c r="S35" t="n">
-        <v>0</v>
-      </c>
-      <c r="T35" t="n">
-        <v>0</v>
-      </c>
-      <c r="U35" t="n">
-        <v>0</v>
-      </c>
-      <c r="V35" t="n">
-        <v>0</v>
-      </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X35" t="n">
         <v>0</v>
@@ -3342,31 +3342,31 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C36" t="n">
         <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E36" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>67.65844570488753</v>
+        <v>0</v>
       </c>
       <c r="G36" t="n">
         <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>112.2354442364965</v>
+        <v>53.68307785045486</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -3390,16 +3390,16 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S36" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T36" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -3411,7 +3411,7 @@
         <v>0</v>
       </c>
       <c r="Y36" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="37">
@@ -3439,49 +3439,49 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
+        <v>0</v>
+      </c>
+      <c r="I37" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" t="n">
+        <v>0</v>
+      </c>
+      <c r="K37" t="n">
+        <v>0</v>
+      </c>
+      <c r="L37" t="n">
+        <v>0</v>
+      </c>
+      <c r="M37" t="n">
+        <v>0</v>
+      </c>
+      <c r="N37" t="n">
+        <v>0</v>
+      </c>
+      <c r="O37" t="n">
+        <v>0</v>
+      </c>
+      <c r="P37" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>0</v>
+      </c>
+      <c r="R37" t="n">
+        <v>0</v>
+      </c>
+      <c r="S37" t="n">
+        <v>0</v>
+      </c>
+      <c r="T37" t="n">
+        <v>0</v>
+      </c>
+      <c r="U37" t="n">
+        <v>0</v>
+      </c>
+      <c r="V37" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="I37" t="n">
-        <v>0</v>
-      </c>
-      <c r="J37" t="n">
-        <v>0</v>
-      </c>
-      <c r="K37" t="n">
-        <v>0</v>
-      </c>
-      <c r="L37" t="n">
-        <v>0</v>
-      </c>
-      <c r="M37" t="n">
-        <v>0</v>
-      </c>
-      <c r="N37" t="n">
-        <v>0</v>
-      </c>
-      <c r="O37" t="n">
-        <v>0</v>
-      </c>
-      <c r="P37" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q37" t="n">
-        <v>0</v>
-      </c>
-      <c r="R37" t="n">
-        <v>0</v>
-      </c>
-      <c r="S37" t="n">
-        <v>0</v>
-      </c>
-      <c r="T37" t="n">
-        <v>0</v>
-      </c>
-      <c r="U37" t="n">
-        <v>0</v>
-      </c>
-      <c r="V37" t="n">
-        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -3518,13 +3518,13 @@
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
@@ -3548,7 +3548,7 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>33.80371536444976</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>209.0200695862453</v>
@@ -3557,13 +3557,13 @@
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="W38" t="n">
-        <v>241.0142888776591</v>
+        <v>232.3303155802432</v>
       </c>
       <c r="X38" t="n">
         <v>0</v>
@@ -3579,16 +3579,16 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C39" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D39" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>142.8009741436498</v>
+        <v>0</v>
       </c>
       <c r="F39" t="n">
         <v>0</v>
@@ -3600,7 +3600,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3633,13 +3633,13 @@
         <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U39" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V39" t="n">
-        <v>0</v>
+        <v>146.9591755082489</v>
       </c>
       <c r="W39" t="n">
         <v>0</v>
@@ -3648,7 +3648,7 @@
         <v>0</v>
       </c>
       <c r="Y39" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -3700,7 +3700,7 @@
         <v>0</v>
       </c>
       <c r="P40" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q40" t="n">
         <v>0</v>
@@ -3712,7 +3712,7 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>133.186967585368</v>
+        <v>130.4655268502615</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -3740,7 +3740,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
@@ -3791,16 +3791,16 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>212.285385643442</v>
       </c>
       <c r="U41" t="n">
-        <v>212.285385643442</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
@@ -3819,22 +3819,22 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
+        <v>46.79470495664743</v>
       </c>
       <c r="D42" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E42" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F42" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G42" t="n">
         <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -3864,7 +3864,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>38.17946863125426</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S42" t="n">
         <v>171.6831711038378</v>
@@ -3879,13 +3879,13 @@
         <v>0</v>
       </c>
       <c r="W42" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X42" t="n">
         <v>0</v>
       </c>
       <c r="Y42" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -3977,73 +3977,73 @@
         <v>241.0142888776591</v>
       </c>
       <c r="C44" t="n">
+        <v>0</v>
+      </c>
+      <c r="D44" t="n">
+        <v>0</v>
+      </c>
+      <c r="E44" t="n">
+        <v>0</v>
+      </c>
+      <c r="F44" t="n">
+        <v>0</v>
+      </c>
+      <c r="G44" t="n">
+        <v>0</v>
+      </c>
+      <c r="H44" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="D44" t="n">
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>0</v>
+      </c>
+      <c r="K44" t="n">
+        <v>0</v>
+      </c>
+      <c r="L44" t="n">
+        <v>0</v>
+      </c>
+      <c r="M44" t="n">
+        <v>0</v>
+      </c>
+      <c r="N44" t="n">
+        <v>0</v>
+      </c>
+      <c r="O44" t="n">
+        <v>0</v>
+      </c>
+      <c r="P44" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>0</v>
+      </c>
+      <c r="R44" t="n">
+        <v>0</v>
+      </c>
+      <c r="S44" t="n">
+        <v>0</v>
+      </c>
+      <c r="T44" t="n">
+        <v>0</v>
+      </c>
+      <c r="U44" t="n">
+        <v>0</v>
+      </c>
+      <c r="V44" t="n">
+        <v>0</v>
+      </c>
+      <c r="W44" t="n">
+        <v>212.285385643442</v>
+      </c>
+      <c r="X44" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y44" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="E44" t="n">
-        <v>200.3360962888296</v>
-      </c>
-      <c r="F44" t="n">
-        <v>0</v>
-      </c>
-      <c r="G44" t="n">
-        <v>0</v>
-      </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" t="n">
-        <v>11.94928935461252</v>
-      </c>
-      <c r="K44" t="n">
-        <v>0</v>
-      </c>
-      <c r="L44" t="n">
-        <v>0</v>
-      </c>
-      <c r="M44" t="n">
-        <v>0</v>
-      </c>
-      <c r="N44" t="n">
-        <v>0</v>
-      </c>
-      <c r="O44" t="n">
-        <v>0</v>
-      </c>
-      <c r="P44" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q44" t="n">
-        <v>0</v>
-      </c>
-      <c r="R44" t="n">
-        <v>0</v>
-      </c>
-      <c r="S44" t="n">
-        <v>0</v>
-      </c>
-      <c r="T44" t="n">
-        <v>0</v>
-      </c>
-      <c r="U44" t="n">
-        <v>0</v>
-      </c>
-      <c r="V44" t="n">
-        <v>0</v>
-      </c>
-      <c r="W44" t="n">
-        <v>0</v>
-      </c>
-      <c r="X44" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y44" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -4053,7 +4053,7 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>80.47961400380896</v>
+        <v>0</v>
       </c>
       <c r="C45" t="n">
         <v>0</v>
@@ -4071,13 +4071,13 @@
         <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -4104,13 +4104,13 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T45" t="n">
         <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -4122,7 +4122,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y45" t="n">
-        <v>205.6826957773044</v>
+        <v>90.91642501047011</v>
       </c>
     </row>
     <row r="46">
@@ -4144,13 +4144,13 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4304,28 +4304,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>38.75380293843134</v>
+        <v>51.89093722176946</v>
       </c>
       <c r="C2" t="n">
-        <v>38.75380293843134</v>
+        <v>51.89093722176946</v>
       </c>
       <c r="D2" t="n">
-        <v>38.75380293843134</v>
+        <v>51.89093722176946</v>
       </c>
       <c r="E2" t="n">
-        <v>38.75380293843134</v>
+        <v>51.89093722176946</v>
       </c>
       <c r="F2" t="n">
-        <v>31.80830218922787</v>
+        <v>19.73831294214452</v>
       </c>
       <c r="G2" t="n">
-        <v>16.35099156787933</v>
+        <v>4.28100232079598</v>
       </c>
       <c r="H2" t="n">
-        <v>16.35099156787933</v>
+        <v>4.28100232079598</v>
       </c>
       <c r="I2" t="n">
-        <v>16.35099156787933</v>
+        <v>4.28100232079598</v>
       </c>
       <c r="J2" t="n">
         <v>4.28100232079598</v>
@@ -4334,46 +4334,46 @@
         <v>57.25840604064623</v>
       </c>
       <c r="L2" t="n">
-        <v>57.25840604064623</v>
+        <v>110.2358097604965</v>
       </c>
       <c r="M2" t="n">
-        <v>108.0953086000985</v>
+        <v>110.2358097604965</v>
       </c>
       <c r="N2" t="n">
-        <v>108.0953086000985</v>
+        <v>163.2132134803467</v>
       </c>
       <c r="O2" t="n">
-        <v>161.0727123199487</v>
+        <v>214.050116039799</v>
       </c>
       <c r="P2" t="n">
         <v>214.050116039799</v>
       </c>
       <c r="Q2" t="n">
-        <v>203.9585006715719</v>
+        <v>214.050116039799</v>
       </c>
       <c r="R2" t="n">
-        <v>203.9585006715719</v>
+        <v>214.050116039799</v>
       </c>
       <c r="S2" t="n">
-        <v>203.9585006715719</v>
+        <v>214.050116039799</v>
       </c>
       <c r="T2" t="n">
-        <v>149.9054410655621</v>
+        <v>159.9970564337892</v>
       </c>
       <c r="U2" t="n">
-        <v>95.85238145955221</v>
+        <v>105.9439968277793</v>
       </c>
       <c r="V2" t="n">
-        <v>41.79932185354235</v>
+        <v>51.89093722176946</v>
       </c>
       <c r="W2" t="n">
-        <v>38.75380293843134</v>
+        <v>51.89093722176946</v>
       </c>
       <c r="X2" t="n">
-        <v>38.75380293843134</v>
+        <v>51.89093722176946</v>
       </c>
       <c r="Y2" t="n">
-        <v>38.75380293843134</v>
+        <v>51.89093722176946</v>
       </c>
     </row>
     <row r="3">
@@ -4383,22 +4383,22 @@
         </is>
       </c>
       <c r="B3" t="n">
+        <v>159.9970564337892</v>
+      </c>
+      <c r="C3" t="n">
+        <v>159.9970564337892</v>
+      </c>
+      <c r="D3" t="n">
+        <v>105.9439968277793</v>
+      </c>
+      <c r="E3" t="n">
         <v>51.89093722176946</v>
       </c>
-      <c r="C3" t="n">
+      <c r="F3" t="n">
         <v>51.89093722176946</v>
       </c>
-      <c r="D3" t="n">
-        <v>4.28100232079598</v>
-      </c>
-      <c r="E3" t="n">
-        <v>4.28100232079598</v>
-      </c>
-      <c r="F3" t="n">
-        <v>4.28100232079598</v>
-      </c>
       <c r="G3" t="n">
-        <v>4.28100232079598</v>
+        <v>51.89093722176946</v>
       </c>
       <c r="H3" t="n">
         <v>4.28100232079598</v>
@@ -4410,49 +4410,49 @@
         <v>4.28100232079598</v>
       </c>
       <c r="K3" t="n">
+        <v>4.28100232079598</v>
+      </c>
+      <c r="L3" t="n">
+        <v>4.28100232079598</v>
+      </c>
+      <c r="M3" t="n">
         <v>57.25840604064623</v>
       </c>
-      <c r="L3" t="n">
-        <v>110.2358097604965</v>
-      </c>
-      <c r="M3" t="n">
-        <v>110.2358097604965</v>
-      </c>
       <c r="N3" t="n">
-        <v>110.2358097604965</v>
+        <v>108.0953086000985</v>
       </c>
       <c r="O3" t="n">
-        <v>110.2358097604965</v>
+        <v>108.0953086000985</v>
       </c>
       <c r="P3" t="n">
-        <v>163.2132134803467</v>
+        <v>161.0727123199487</v>
       </c>
       <c r="Q3" t="n">
         <v>214.050116039799</v>
       </c>
       <c r="R3" t="n">
+        <v>214.050116039799</v>
+      </c>
+      <c r="S3" t="n">
         <v>159.9970564337892</v>
       </c>
-      <c r="S3" t="n">
-        <v>105.9439968277793</v>
-      </c>
       <c r="T3" t="n">
-        <v>105.9439968277793</v>
+        <v>159.9970564337892</v>
       </c>
       <c r="U3" t="n">
-        <v>105.9439968277793</v>
+        <v>159.9970564337892</v>
       </c>
       <c r="V3" t="n">
-        <v>105.9439968277793</v>
+        <v>159.9970564337892</v>
       </c>
       <c r="W3" t="n">
-        <v>105.9439968277793</v>
+        <v>159.9970564337892</v>
       </c>
       <c r="X3" t="n">
-        <v>105.9439968277793</v>
+        <v>159.9970564337892</v>
       </c>
       <c r="Y3" t="n">
-        <v>51.89093722176946</v>
+        <v>159.9970564337892</v>
       </c>
     </row>
     <row r="4">
@@ -4462,31 +4462,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>138.8132928110667</v>
+        <v>58.33406192680583</v>
       </c>
       <c r="C4" t="n">
-        <v>138.8132928110667</v>
+        <v>58.33406192680583</v>
       </c>
       <c r="D4" t="n">
-        <v>138.8132928110667</v>
+        <v>4.28100232079598</v>
       </c>
       <c r="E4" t="n">
-        <v>138.8132928110667</v>
+        <v>4.28100232079598</v>
       </c>
       <c r="F4" t="n">
-        <v>134.8815577205762</v>
+        <v>4.28100232079598</v>
       </c>
       <c r="G4" t="n">
-        <v>134.8815577205762</v>
+        <v>4.28100232079598</v>
       </c>
       <c r="H4" t="n">
-        <v>80.82849811456629</v>
+        <v>4.28100232079598</v>
       </c>
       <c r="I4" t="n">
-        <v>26.77543850855644</v>
+        <v>4.28100232079598</v>
       </c>
       <c r="J4" t="n">
-        <v>26.77543850855644</v>
+        <v>4.28100232079598</v>
       </c>
       <c r="K4" t="n">
         <v>4.28100232079598</v>
@@ -4510,28 +4510,28 @@
         <v>138.8132928110667</v>
       </c>
       <c r="R4" t="n">
-        <v>138.8132928110667</v>
+        <v>112.3871215328157</v>
       </c>
       <c r="S4" t="n">
-        <v>138.8132928110667</v>
+        <v>112.3871215328157</v>
       </c>
       <c r="T4" t="n">
-        <v>138.8132928110667</v>
+        <v>112.3871215328157</v>
       </c>
       <c r="U4" t="n">
-        <v>138.8132928110667</v>
+        <v>112.3871215328157</v>
       </c>
       <c r="V4" t="n">
-        <v>138.8132928110667</v>
+        <v>112.3871215328157</v>
       </c>
       <c r="W4" t="n">
-        <v>138.8132928110667</v>
+        <v>112.3871215328157</v>
       </c>
       <c r="X4" t="n">
-        <v>138.8132928110667</v>
+        <v>112.3871215328157</v>
       </c>
       <c r="Y4" t="n">
-        <v>138.8132928110667</v>
+        <v>112.3871215328157</v>
       </c>
     </row>
     <row r="5">
@@ -4541,25 +4541,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>742.8341567219593</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="C5" t="n">
-        <v>742.8341567219593</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="D5" t="n">
-        <v>730.8505943024719</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="E5" t="n">
-        <v>730.8505943024719</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="F5" t="n">
-        <v>487.4018176583718</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="G5" t="n">
-        <v>243.9530410142718</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="H5" t="n">
-        <v>243.9530410142718</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I5" t="n">
         <v>31.35113235729608</v>
@@ -4586,31 +4586,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q5" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R5" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S5" t="n">
-        <v>742.8341567219593</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T5" t="n">
-        <v>742.8341567219593</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U5" t="n">
-        <v>742.8341567219593</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V5" t="n">
-        <v>742.8341567219593</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W5" t="n">
-        <v>742.8341567219593</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X5" t="n">
-        <v>742.8341567219593</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y5" t="n">
-        <v>742.8341567219593</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="6">
@@ -4620,25 +4620,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>342.668582052591</v>
+        <v>397.4029371266039</v>
       </c>
       <c r="C6" t="n">
-        <v>168.215552771464</v>
+        <v>222.9499078454769</v>
       </c>
       <c r="D6" t="n">
-        <v>19.28114311021272</v>
+        <v>222.9499078454769</v>
       </c>
       <c r="E6" t="n">
-        <v>19.28114311021272</v>
+        <v>222.9499078454769</v>
       </c>
       <c r="F6" t="n">
-        <v>19.28114311021272</v>
+        <v>222.9499078454769</v>
       </c>
       <c r="G6" t="n">
-        <v>19.28114311021272</v>
+        <v>222.9499078454769</v>
       </c>
       <c r="H6" t="n">
-        <v>19.28114311021272</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="I6" t="n">
         <v>19.28114311021272</v>
@@ -4650,13 +4650,13 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L6" t="n">
-        <v>234.810827406191</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M6" t="n">
-        <v>473.4149733950735</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N6" t="n">
-        <v>473.4149733950735</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="O6" t="n">
         <v>712.019119383956</v>
@@ -4668,28 +4668,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R6" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S6" t="n">
-        <v>758.2803810230778</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T6" t="n">
-        <v>758.2803810230778</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U6" t="n">
-        <v>758.2803810230778</v>
+        <v>840.3153441233005</v>
       </c>
       <c r="V6" t="n">
-        <v>758.2803810230778</v>
+        <v>605.1632358915579</v>
       </c>
       <c r="W6" t="n">
-        <v>758.2803810230778</v>
+        <v>605.1632358915579</v>
       </c>
       <c r="X6" t="n">
-        <v>550.428880817545</v>
+        <v>605.1632358915579</v>
       </c>
       <c r="Y6" t="n">
-        <v>342.668582052591</v>
+        <v>397.4029371266039</v>
       </c>
     </row>
     <row r="7">
@@ -4741,25 +4741,25 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P7" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q7" t="n">
-        <v>64.03213664411894</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R7" t="n">
-        <v>64.03213664411894</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S7" t="n">
-        <v>64.03213664411894</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T7" t="n">
-        <v>64.03213664411894</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U7" t="n">
-        <v>64.03213664411894</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V7" t="n">
-        <v>64.03213664411894</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W7" t="n">
         <v>19.28114311021272</v>
@@ -4778,16 +4778,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>742.8341567219593</v>
+        <v>72.23626279480629</v>
       </c>
       <c r="C8" t="n">
-        <v>742.8341567219593</v>
+        <v>72.23626279480629</v>
       </c>
       <c r="D8" t="n">
-        <v>499.3853800778592</v>
+        <v>72.23626279480629</v>
       </c>
       <c r="E8" t="n">
-        <v>278.1872303756613</v>
+        <v>72.23626279480629</v>
       </c>
       <c r="F8" t="n">
         <v>34.73845373156126</v>
@@ -4826,28 +4826,28 @@
         <v>953.9655401424092</v>
       </c>
       <c r="R8" t="n">
-        <v>953.9655401424092</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S8" t="n">
-        <v>742.8341567219593</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="T8" t="n">
-        <v>742.8341567219593</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="U8" t="n">
-        <v>742.8341567219593</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="V8" t="n">
-        <v>742.8341567219593</v>
+        <v>559.1338160830064</v>
       </c>
       <c r="W8" t="n">
-        <v>742.8341567219593</v>
+        <v>559.1338160830064</v>
       </c>
       <c r="X8" t="n">
-        <v>742.8341567219593</v>
+        <v>559.1338160830064</v>
       </c>
       <c r="Y8" t="n">
-        <v>742.8341567219593</v>
+        <v>315.6850394389064</v>
       </c>
     </row>
     <row r="9">
@@ -4857,7 +4857,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>19.28114311021272</v>
+        <v>193.7341723913397</v>
       </c>
       <c r="C9" t="n">
         <v>19.28114311021272</v>
@@ -4887,46 +4887,46 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L9" t="n">
-        <v>374.6018090363993</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="M9" t="n">
-        <v>473.4149733950735</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="N9" t="n">
-        <v>473.4149733950735</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O9" t="n">
-        <v>712.019119383956</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P9" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q9" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R9" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S9" t="n">
-        <v>964.0571555106362</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T9" t="n">
-        <v>964.0571555106362</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="U9" t="n">
-        <v>913.4938269565423</v>
+        <v>259.0600686093459</v>
       </c>
       <c r="V9" t="n">
-        <v>678.3417187247995</v>
+        <v>193.7341723913397</v>
       </c>
       <c r="W9" t="n">
-        <v>434.8929420806995</v>
+        <v>193.7341723913397</v>
       </c>
       <c r="X9" t="n">
-        <v>227.0414418751666</v>
+        <v>193.7341723913397</v>
       </c>
       <c r="Y9" t="n">
-        <v>19.28114311021272</v>
+        <v>193.7341723913397</v>
       </c>
     </row>
     <row r="10">
@@ -4978,34 +4978,34 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P10" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Q10" t="n">
-        <v>66.78106667958005</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="R10" t="n">
-        <v>66.78106667958005</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="S10" t="n">
-        <v>66.78106667958005</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T10" t="n">
-        <v>66.78106667958005</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U10" t="n">
-        <v>66.78106667958005</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V10" t="n">
-        <v>66.78106667958005</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W10" t="n">
-        <v>66.78106667958005</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X10" t="n">
-        <v>66.78106667958005</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y10" t="n">
-        <v>66.78106667958005</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="11">
@@ -5015,25 +5015,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C11" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D11" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E11" t="n">
-        <v>962.2293816994886</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F11" t="n">
-        <v>718.7806050553886</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G11" t="n">
-        <v>475.3318284112885</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H11" t="n">
-        <v>231.8830517671884</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I11" t="n">
         <v>19.28114311021272</v>
@@ -5060,31 +5060,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q11" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R11" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S11" t="n">
-        <v>964.0571555106362</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="T11" t="n">
-        <v>964.0571555106362</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="U11" t="n">
-        <v>964.0571555106362</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="V11" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W11" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X11" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y11" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="12">
@@ -5094,43 +5094,43 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C12" t="n">
-        <v>817.1412885554689</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D12" t="n">
-        <v>668.2068788942177</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E12" t="n">
-        <v>508.9694238887622</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F12" t="n">
-        <v>362.4348659156472</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G12" t="n">
-        <v>223.7040404982626</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H12" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I12" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J12" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K12" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L12" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M12" t="n">
-        <v>487.8483949674443</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N12" t="n">
-        <v>726.4525409563269</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="O12" t="n">
         <v>781.4136778972854</v>
@@ -5142,28 +5142,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R12" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S12" t="n">
-        <v>964.0571555106362</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T12" t="n">
-        <v>964.0571555106362</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="U12" t="n">
-        <v>964.0571555106362</v>
+        <v>259.0600686093459</v>
       </c>
       <c r="V12" t="n">
-        <v>964.0571555106362</v>
+        <v>23.90796037760316</v>
       </c>
       <c r="W12" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X12" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y12" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="13">
@@ -5173,31 +5173,31 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C13" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D13" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E13" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F13" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G13" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H13" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I13" t="n">
-        <v>136.0777814360265</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J13" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K13" t="n">
         <v>19.28114311021272</v>
@@ -5218,31 +5218,31 @@
         <v>151.0645035650224</v>
       </c>
       <c r="Q13" t="n">
-        <v>151.0645035650224</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="R13" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="S13" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T13" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U13" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V13" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W13" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X13" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y13" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="14">
@@ -5331,49 +5331,49 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C15" t="n">
-        <v>817.1412885554689</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D15" t="n">
-        <v>668.2068788942177</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E15" t="n">
-        <v>508.9694238887622</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F15" t="n">
-        <v>362.4348659156472</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G15" t="n">
-        <v>223.7040404982626</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H15" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I15" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J15" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K15" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L15" t="n">
-        <v>234.810827406191</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M15" t="n">
-        <v>473.4149733950735</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="N15" t="n">
-        <v>712.019119383956</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O15" t="n">
-        <v>712.019119383956</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P15" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q15" t="n">
         <v>964.0571555106362</v>
@@ -5382,25 +5382,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S15" t="n">
-        <v>964.0571555106362</v>
+        <v>928.2922408909005</v>
       </c>
       <c r="T15" t="n">
-        <v>964.0571555106362</v>
+        <v>726.1056462496665</v>
       </c>
       <c r="U15" t="n">
-        <v>964.0571555106362</v>
+        <v>497.8820279860555</v>
       </c>
       <c r="V15" t="n">
-        <v>964.0571555106362</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="W15" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X15" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y15" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="16">
@@ -5410,31 +5410,31 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C16" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D16" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E16" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F16" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G16" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H16" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I16" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J16" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K16" t="n">
         <v>19.28114311021272</v>
@@ -5458,28 +5458,28 @@
         <v>64.03213664411894</v>
       </c>
       <c r="R16" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="S16" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T16" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U16" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V16" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W16" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X16" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y16" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="17">
@@ -5489,28 +5489,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C17" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D17" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E17" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F17" t="n">
-        <v>730.8505943024719</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G17" t="n">
-        <v>487.4018176583718</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H17" t="n">
-        <v>243.9530410142718</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I17" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J17" t="n">
         <v>19.28114311021272</v>
@@ -5534,31 +5534,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q17" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R17" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S17" t="n">
-        <v>964.0571555106362</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="T17" t="n">
-        <v>964.0571555106362</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="U17" t="n">
-        <v>964.0571555106362</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="V17" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W17" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X17" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y17" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="18">
@@ -5568,25 +5568,25 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>817.1412885554689</v>
+        <v>795.8418184905681</v>
       </c>
       <c r="C18" t="n">
-        <v>817.1412885554689</v>
+        <v>621.3887892094411</v>
       </c>
       <c r="D18" t="n">
-        <v>668.2068788942177</v>
+        <v>472.4543795481899</v>
       </c>
       <c r="E18" t="n">
-        <v>508.9694238887622</v>
+        <v>313.2169245427344</v>
       </c>
       <c r="F18" t="n">
-        <v>362.4348659156472</v>
+        <v>166.6823665696193</v>
       </c>
       <c r="G18" t="n">
-        <v>223.7040404982626</v>
+        <v>27.95154115223485</v>
       </c>
       <c r="H18" t="n">
-        <v>110.334904905842</v>
+        <v>27.95154115223485</v>
       </c>
       <c r="I18" t="n">
         <v>20.03527576299844</v>
@@ -5598,13 +5598,13 @@
         <v>19.28114311021272</v>
       </c>
       <c r="L18" t="n">
-        <v>234.810827406191</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M18" t="n">
-        <v>234.810827406191</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N18" t="n">
-        <v>473.4149733950735</v>
+        <v>712.019119383956</v>
       </c>
       <c r="O18" t="n">
         <v>712.019119383956</v>
@@ -5695,7 +5695,7 @@
         <v>153.8134336004835</v>
       </c>
       <c r="R19" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="S19" t="n">
         <v>19.28114311021272</v>
@@ -5726,25 +5726,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>475.3318284112885</v>
+        <v>333.7844730889342</v>
       </c>
       <c r="C20" t="n">
-        <v>475.3318284112885</v>
+        <v>333.7844730889342</v>
       </c>
       <c r="D20" t="n">
-        <v>475.3318284112885</v>
+        <v>333.7844730889342</v>
       </c>
       <c r="E20" t="n">
-        <v>475.3318284112885</v>
+        <v>90.33569644483418</v>
       </c>
       <c r="F20" t="n">
-        <v>475.3318284112885</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G20" t="n">
-        <v>475.3318284112885</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H20" t="n">
-        <v>231.8830517671884</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I20" t="n">
         <v>19.28114311021272</v>
@@ -5777,25 +5777,25 @@
         <v>802.5825927271064</v>
       </c>
       <c r="S20" t="n">
-        <v>718.7806050553886</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="T20" t="n">
-        <v>718.7806050553886</v>
+        <v>577.2332497330343</v>
       </c>
       <c r="U20" t="n">
-        <v>718.7806050553886</v>
+        <v>577.2332497330343</v>
       </c>
       <c r="V20" t="n">
-        <v>718.7806050553886</v>
+        <v>577.2332497330343</v>
       </c>
       <c r="W20" t="n">
-        <v>718.7806050553886</v>
+        <v>577.2332497330343</v>
       </c>
       <c r="X20" t="n">
-        <v>718.7806050553886</v>
+        <v>333.7844730889342</v>
       </c>
       <c r="Y20" t="n">
-        <v>718.7806050553886</v>
+        <v>333.7844730889342</v>
       </c>
     </row>
     <row r="21">
@@ -5805,22 +5805,22 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>417.9156620931329</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="C21" t="n">
-        <v>417.9156620931329</v>
+        <v>312.8306575918298</v>
       </c>
       <c r="D21" t="n">
-        <v>417.9156620931329</v>
+        <v>163.8962479305785</v>
       </c>
       <c r="E21" t="n">
-        <v>417.9156620931329</v>
+        <v>163.8962479305785</v>
       </c>
       <c r="F21" t="n">
-        <v>271.3811041200179</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G21" t="n">
-        <v>132.6502787026334</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H21" t="n">
         <v>19.28114311021272</v>
@@ -5835,19 +5835,19 @@
         <v>19.28114311021272</v>
       </c>
       <c r="L21" t="n">
-        <v>249.2442489785619</v>
+        <v>178.8501590306595</v>
       </c>
       <c r="M21" t="n">
-        <v>304.2053859195205</v>
+        <v>417.4543050195419</v>
       </c>
       <c r="N21" t="n">
-        <v>542.809531908403</v>
+        <v>656.0584510084244</v>
       </c>
       <c r="O21" t="n">
-        <v>781.4136778972854</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="P21" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q21" t="n">
         <v>964.0571555106362</v>
@@ -5859,22 +5859,22 @@
         <v>689.4702815141908</v>
       </c>
       <c r="T21" t="n">
-        <v>625.6759608580869</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="U21" t="n">
-        <v>625.6759608580869</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="V21" t="n">
-        <v>625.6759608580869</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="W21" t="n">
-        <v>625.6759608580869</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="X21" t="n">
-        <v>625.6759608580869</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="Y21" t="n">
-        <v>417.9156620931329</v>
+        <v>487.2836868729568</v>
       </c>
     </row>
     <row r="22">
@@ -5938,22 +5938,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T22" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="U22" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="V22" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="W22" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="X22" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="Y22" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
     </row>
     <row r="23">
@@ -5963,28 +5963,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>506.1786963984129</v>
+        <v>487.4018176583718</v>
       </c>
       <c r="C23" t="n">
-        <v>262.7299197543128</v>
+        <v>487.4018176583718</v>
       </c>
       <c r="D23" t="n">
-        <v>19.28114311021272</v>
+        <v>487.4018176583718</v>
       </c>
       <c r="E23" t="n">
-        <v>19.28114311021272</v>
+        <v>487.4018176583718</v>
       </c>
       <c r="F23" t="n">
-        <v>19.28114311021272</v>
+        <v>487.4018176583718</v>
       </c>
       <c r="G23" t="n">
-        <v>19.28114311021272</v>
+        <v>487.4018176583718</v>
       </c>
       <c r="H23" t="n">
-        <v>19.28114311021272</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="I23" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J23" t="n">
         <v>19.28114311021272</v>
@@ -6023,16 +6023,16 @@
         <v>964.0571555106362</v>
       </c>
       <c r="V23" t="n">
-        <v>749.627473042513</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W23" t="n">
-        <v>506.1786963984129</v>
+        <v>730.8505943024719</v>
       </c>
       <c r="X23" t="n">
-        <v>506.1786963984129</v>
+        <v>487.4018176583718</v>
       </c>
       <c r="Y23" t="n">
-        <v>506.1786963984129</v>
+        <v>487.4018176583718</v>
       </c>
     </row>
     <row r="24">
@@ -6042,19 +6042,19 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>284.6244618379714</v>
+        <v>787.171420448546</v>
       </c>
       <c r="C24" t="n">
-        <v>110.1714325568443</v>
+        <v>612.718391167419</v>
       </c>
       <c r="D24" t="n">
-        <v>110.1714325568443</v>
+        <v>463.7839815061678</v>
       </c>
       <c r="E24" t="n">
-        <v>110.1714325568443</v>
+        <v>304.5465265007123</v>
       </c>
       <c r="F24" t="n">
-        <v>19.28114311021272</v>
+        <v>158.0119685275972</v>
       </c>
       <c r="G24" t="n">
         <v>19.28114311021272</v>
@@ -6075,10 +6075,10 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M24" t="n">
-        <v>374.6018090363993</v>
+        <v>542.809531908403</v>
       </c>
       <c r="N24" t="n">
-        <v>542.809531908403</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="O24" t="n">
         <v>781.4136778972854</v>
@@ -6099,19 +6099,19 @@
         <v>964.0571555106362</v>
       </c>
       <c r="U24" t="n">
-        <v>735.8335372470253</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V24" t="n">
-        <v>735.8335372470253</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W24" t="n">
-        <v>492.3847606029253</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X24" t="n">
-        <v>492.3847606029253</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y24" t="n">
-        <v>284.6244618379714</v>
+        <v>787.171420448546</v>
       </c>
     </row>
     <row r="25">
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L25" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M25" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N25" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O25" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P25" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q25" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R25" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S25" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T25" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U25" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="26">
@@ -6200,28 +6200,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>274.7999090013961</v>
+        <v>485.167420504237</v>
       </c>
       <c r="C26" t="n">
-        <v>31.35113235729608</v>
+        <v>485.167420504237</v>
       </c>
       <c r="D26" t="n">
-        <v>31.35113235729608</v>
+        <v>485.167420504237</v>
       </c>
       <c r="E26" t="n">
-        <v>31.35113235729608</v>
+        <v>485.167420504237</v>
       </c>
       <c r="F26" t="n">
-        <v>31.35113235729608</v>
+        <v>241.7186438601369</v>
       </c>
       <c r="G26" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H26" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I26" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J26" t="n">
         <v>19.28114311021272</v>
@@ -6245,31 +6245,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q26" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R26" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S26" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T26" t="n">
-        <v>761.6974622895962</v>
+        <v>728.6161971483371</v>
       </c>
       <c r="U26" t="n">
-        <v>761.6974622895962</v>
+        <v>485.167420504237</v>
       </c>
       <c r="V26" t="n">
-        <v>761.6974622895962</v>
+        <v>485.167420504237</v>
       </c>
       <c r="W26" t="n">
-        <v>761.6974622895962</v>
+        <v>485.167420504237</v>
       </c>
       <c r="X26" t="n">
-        <v>761.6974622895962</v>
+        <v>485.167420504237</v>
       </c>
       <c r="Y26" t="n">
-        <v>518.2486856454962</v>
+        <v>485.167420504237</v>
       </c>
     </row>
     <row r="27">
@@ -6279,43 +6279,43 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>158.0119685275972</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="C27" t="n">
-        <v>158.0119685275972</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="D27" t="n">
-        <v>158.0119685275972</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="E27" t="n">
-        <v>158.0119685275972</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="F27" t="n">
-        <v>158.0119685275972</v>
+        <v>362.4348659156472</v>
       </c>
       <c r="G27" t="n">
-        <v>19.28114311021272</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="H27" t="n">
-        <v>19.28114311021272</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I27" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J27" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K27" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L27" t="n">
-        <v>374.6018090363993</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M27" t="n">
-        <v>613.2059550252818</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N27" t="n">
-        <v>781.4136778972854</v>
+        <v>726.4525409563269</v>
       </c>
       <c r="O27" t="n">
         <v>781.4136778972854</v>
@@ -6333,22 +6333,22 @@
         <v>689.4702815141908</v>
       </c>
       <c r="T27" t="n">
-        <v>561.379413779408</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="U27" t="n">
-        <v>561.379413779408</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="V27" t="n">
-        <v>326.2273055476653</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="W27" t="n">
-        <v>326.2273055476653</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="X27" t="n">
-        <v>326.2273055476653</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="Y27" t="n">
-        <v>326.2273055476653</v>
+        <v>487.2836868729568</v>
       </c>
     </row>
     <row r="28">
@@ -6403,28 +6403,28 @@
         <v>153.8134336004835</v>
       </c>
       <c r="Q28" t="n">
-        <v>153.8134336004835</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="R28" t="n">
-        <v>153.8134336004835</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="S28" t="n">
-        <v>153.8134336004835</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="T28" t="n">
-        <v>153.8134336004835</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="U28" t="n">
-        <v>153.8134336004835</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="V28" t="n">
-        <v>153.8134336004835</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="W28" t="n">
-        <v>153.8134336004835</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="X28" t="n">
-        <v>19.28114311021272</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="Y28" t="n">
         <v>19.28114311021272</v>
@@ -6437,28 +6437,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>274.7999090013961</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C29" t="n">
-        <v>274.7999090013961</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D29" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E29" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F29" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G29" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H29" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I29" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J29" t="n">
         <v>19.28114311021272</v>
@@ -6482,31 +6482,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q29" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R29" t="n">
-        <v>802.5825927271064</v>
+        <v>942.6594228129348</v>
       </c>
       <c r="S29" t="n">
-        <v>591.4512093066566</v>
+        <v>731.528039392485</v>
       </c>
       <c r="T29" t="n">
-        <v>518.2486856454962</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="U29" t="n">
-        <v>518.2486856454962</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="V29" t="n">
-        <v>518.2486856454962</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="W29" t="n">
-        <v>274.7999090013961</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="X29" t="n">
-        <v>274.7999090013961</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="Y29" t="n">
-        <v>274.7999090013961</v>
+        <v>262.7299197543128</v>
       </c>
     </row>
     <row r="30">
@@ -6516,25 +6516,25 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>668.2068788942177</v>
+        <v>454.3181732824481</v>
       </c>
       <c r="C30" t="n">
-        <v>668.2068788942177</v>
+        <v>454.3181732824481</v>
       </c>
       <c r="D30" t="n">
-        <v>668.2068788942177</v>
+        <v>454.3181732824481</v>
       </c>
       <c r="E30" t="n">
-        <v>508.9694238887622</v>
+        <v>454.3181732824481</v>
       </c>
       <c r="F30" t="n">
-        <v>362.4348659156472</v>
+        <v>307.7836153093331</v>
       </c>
       <c r="G30" t="n">
-        <v>223.7040404982626</v>
+        <v>169.0527898919486</v>
       </c>
       <c r="H30" t="n">
-        <v>110.334904905842</v>
+        <v>55.6836542995279</v>
       </c>
       <c r="I30" t="n">
         <v>20.03527576299844</v>
@@ -6543,49 +6543,49 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K30" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L30" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M30" t="n">
-        <v>487.8483949674443</v>
+        <v>542.809531908403</v>
       </c>
       <c r="N30" t="n">
-        <v>712.019119383956</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O30" t="n">
-        <v>712.019119383956</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P30" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q30" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R30" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S30" t="n">
-        <v>964.0571555106362</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T30" t="n">
-        <v>903.3589871259603</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="U30" t="n">
-        <v>903.3589871259603</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="V30" t="n">
-        <v>668.2068788942177</v>
+        <v>454.3181732824481</v>
       </c>
       <c r="W30" t="n">
-        <v>668.2068788942177</v>
+        <v>454.3181732824481</v>
       </c>
       <c r="X30" t="n">
-        <v>668.2068788942177</v>
+        <v>454.3181732824481</v>
       </c>
       <c r="Y30" t="n">
-        <v>668.2068788942177</v>
+        <v>454.3181732824481</v>
       </c>
     </row>
     <row r="31">
@@ -6646,13 +6646,13 @@
         <v>153.8134336004835</v>
       </c>
       <c r="S31" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T31" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U31" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V31" t="n">
         <v>19.28114311021272</v>
@@ -6674,13 +6674,13 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>506.1786963984129</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C32" t="n">
-        <v>506.1786963984129</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D32" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E32" t="n">
         <v>19.28114311021272</v>
@@ -6731,19 +6731,19 @@
         <v>964.0571555106362</v>
       </c>
       <c r="U32" t="n">
-        <v>964.0571555106362</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="V32" t="n">
-        <v>964.0571555106362</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="W32" t="n">
-        <v>749.627473042513</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="X32" t="n">
-        <v>506.1786963984129</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="Y32" t="n">
-        <v>506.1786963984129</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="33">
@@ -6753,28 +6753,28 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>307.8574406365461</v>
+        <v>83.81530782185143</v>
       </c>
       <c r="C33" t="n">
-        <v>133.4044113554191</v>
+        <v>83.81530782185143</v>
       </c>
       <c r="D33" t="n">
-        <v>133.4044113554191</v>
+        <v>83.81530782185143</v>
       </c>
       <c r="E33" t="n">
-        <v>133.4044113554191</v>
+        <v>83.81530782185143</v>
       </c>
       <c r="F33" t="n">
-        <v>133.4044113554191</v>
+        <v>83.81530782185143</v>
       </c>
       <c r="G33" t="n">
-        <v>133.4044113554191</v>
+        <v>83.81530782185143</v>
       </c>
       <c r="H33" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I33" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J33" t="n">
         <v>19.28114311021272</v>
@@ -6789,13 +6789,13 @@
         <v>613.2059550252818</v>
       </c>
       <c r="N33" t="n">
-        <v>781.4136778972854</v>
+        <v>851.8101010141643</v>
       </c>
       <c r="O33" t="n">
-        <v>781.4136778972854</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="P33" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q33" t="n">
         <v>964.0571555106362</v>
@@ -6804,25 +6804,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S33" t="n">
-        <v>964.0571555106362</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T33" t="n">
-        <v>964.0571555106362</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="U33" t="n">
-        <v>964.0571555106362</v>
+        <v>562.4161926976942</v>
       </c>
       <c r="V33" t="n">
-        <v>964.0571555106362</v>
+        <v>327.2640844659515</v>
       </c>
       <c r="W33" t="n">
-        <v>891.6845766271009</v>
+        <v>83.81530782185143</v>
       </c>
       <c r="X33" t="n">
-        <v>683.8330764215681</v>
+        <v>83.81530782185143</v>
       </c>
       <c r="Y33" t="n">
-        <v>476.0727776566142</v>
+        <v>83.81530782185143</v>
       </c>
     </row>
     <row r="34">
@@ -6886,13 +6886,13 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T34" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="U34" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="V34" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="W34" t="n">
         <v>829.5248650203655</v>
@@ -6911,28 +6911,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>953.9655401424092</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="C35" t="n">
-        <v>953.9655401424092</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="D35" t="n">
-        <v>953.9655401424092</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="E35" t="n">
-        <v>953.9655401424092</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F35" t="n">
-        <v>730.8505943024719</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G35" t="n">
-        <v>487.4018176583718</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H35" t="n">
-        <v>243.9530410142718</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I35" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J35" t="n">
         <v>19.28114311021272</v>
@@ -6956,31 +6956,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q35" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R35" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S35" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T35" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U35" t="n">
-        <v>953.9655401424092</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="V35" t="n">
-        <v>953.9655401424092</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="W35" t="n">
-        <v>953.9655401424092</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="X35" t="n">
-        <v>953.9655401424092</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="Y35" t="n">
-        <v>953.9655401424092</v>
+        <v>233.7108255783361</v>
       </c>
     </row>
     <row r="36">
@@ -6990,28 +6990,28 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>360.2295980564601</v>
+        <v>313.4946457291688</v>
       </c>
       <c r="C36" t="n">
-        <v>360.2295980564601</v>
+        <v>313.4946457291688</v>
       </c>
       <c r="D36" t="n">
-        <v>360.2295980564601</v>
+        <v>164.5602360679176</v>
       </c>
       <c r="E36" t="n">
-        <v>200.9921430510046</v>
+        <v>164.5602360679176</v>
       </c>
       <c r="F36" t="n">
-        <v>132.6502787026334</v>
+        <v>164.5602360679176</v>
       </c>
       <c r="G36" t="n">
-        <v>132.6502787026334</v>
+        <v>164.5602360679176</v>
       </c>
       <c r="H36" t="n">
-        <v>19.28114311021272</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I36" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J36" t="n">
         <v>19.28114311021272</v>
@@ -7020,46 +7020,46 @@
         <v>19.28114311021272</v>
       </c>
       <c r="L36" t="n">
-        <v>249.2442489785619</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="M36" t="n">
-        <v>304.2053859195205</v>
+        <v>234.810827406191</v>
       </c>
       <c r="N36" t="n">
-        <v>542.809531908403</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O36" t="n">
-        <v>781.4136778972854</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P36" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q36" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R36" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S36" t="n">
-        <v>790.6398109613051</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T36" t="n">
-        <v>588.4532163200711</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="U36" t="n">
-        <v>360.2295980564601</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="V36" t="n">
-        <v>360.2295980564601</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="W36" t="n">
-        <v>360.2295980564601</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="X36" t="n">
-        <v>360.2295980564601</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="Y36" t="n">
-        <v>360.2295980564601</v>
+        <v>481.7099827492369</v>
       </c>
     </row>
     <row r="37">
@@ -7069,22 +7069,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C37" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D37" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E37" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F37" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G37" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H37" t="n">
         <v>19.28114311021272</v>
@@ -7129,16 +7129,16 @@
         <v>153.8134336004835</v>
       </c>
       <c r="V37" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W37" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X37" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y37" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="38">
@@ -7148,28 +7148,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>475.3318284112885</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="C38" t="n">
-        <v>475.3318284112885</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="D38" t="n">
-        <v>475.3318284112885</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="E38" t="n">
-        <v>475.3318284112885</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="F38" t="n">
-        <v>475.3318284112885</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="G38" t="n">
-        <v>475.3318284112885</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="H38" t="n">
-        <v>231.8830517671884</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I38" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J38" t="n">
         <v>19.28114311021272</v>
@@ -7196,28 +7196,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R38" t="n">
-        <v>929.9119884758385</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S38" t="n">
-        <v>718.7806050553886</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="T38" t="n">
-        <v>718.7806050553886</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="U38" t="n">
-        <v>718.7806050553886</v>
+        <v>509.4769954460863</v>
       </c>
       <c r="V38" t="n">
-        <v>718.7806050553886</v>
+        <v>266.0282188019862</v>
       </c>
       <c r="W38" t="n">
-        <v>475.3318284112885</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="X38" t="n">
-        <v>475.3318284112885</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="Y38" t="n">
-        <v>475.3318284112885</v>
+        <v>31.35113235729608</v>
       </c>
     </row>
     <row r="39">
@@ -7227,25 +7227,25 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>486.9119902784999</v>
+        <v>284.0338015341832</v>
       </c>
       <c r="C39" t="n">
-        <v>312.4589609973729</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="D39" t="n">
-        <v>163.5245513361216</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="E39" t="n">
-        <v>19.28114311021272</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="F39" t="n">
-        <v>19.28114311021272</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="G39" t="n">
-        <v>19.28114311021272</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="H39" t="n">
-        <v>19.28114311021272</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="I39" t="n">
         <v>19.28114311021272</v>
@@ -7254,16 +7254,16 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K39" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L39" t="n">
-        <v>304.2053859195205</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M39" t="n">
-        <v>542.809531908403</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N39" t="n">
-        <v>542.809531908403</v>
+        <v>726.4525409563269</v>
       </c>
       <c r="O39" t="n">
         <v>781.4136778972854</v>
@@ -7281,22 +7281,22 @@
         <v>862.8876260635219</v>
       </c>
       <c r="T39" t="n">
-        <v>862.8876260635219</v>
+        <v>660.701031422288</v>
       </c>
       <c r="U39" t="n">
-        <v>862.8876260635219</v>
+        <v>432.4774131586771</v>
       </c>
       <c r="V39" t="n">
-        <v>862.8876260635219</v>
+        <v>284.0338015341832</v>
       </c>
       <c r="W39" t="n">
-        <v>862.8876260635219</v>
+        <v>284.0338015341832</v>
       </c>
       <c r="X39" t="n">
-        <v>862.8876260635219</v>
+        <v>284.0338015341832</v>
       </c>
       <c r="Y39" t="n">
-        <v>655.1273272985679</v>
+        <v>284.0338015341832</v>
       </c>
     </row>
     <row r="40">
@@ -7348,16 +7348,16 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P40" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Q40" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="R40" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="S40" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="T40" t="n">
         <v>19.28114311021272</v>
@@ -7385,7 +7385,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C41" t="n">
         <v>19.28114311021272</v>
@@ -7439,7 +7439,7 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T41" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="U41" t="n">
         <v>749.627473042513</v>
@@ -7448,13 +7448,13 @@
         <v>749.627473042513</v>
       </c>
       <c r="W41" t="n">
+        <v>749.627473042513</v>
+      </c>
+      <c r="X41" t="n">
+        <v>749.627473042513</v>
+      </c>
+      <c r="Y41" t="n">
         <v>506.1786963984129</v>
-      </c>
-      <c r="X41" t="n">
-        <v>506.1786963984129</v>
-      </c>
-      <c r="Y41" t="n">
-        <v>262.7299197543128</v>
       </c>
     </row>
     <row r="42">
@@ -7464,22 +7464,22 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>132.6502787026334</v>
+        <v>521.2549444941228</v>
       </c>
       <c r="C42" t="n">
-        <v>132.6502787026334</v>
+        <v>473.9875657500345</v>
       </c>
       <c r="D42" t="n">
-        <v>132.6502787026334</v>
+        <v>325.0531560887832</v>
       </c>
       <c r="E42" t="n">
-        <v>132.6502787026334</v>
+        <v>165.8157010833278</v>
       </c>
       <c r="F42" t="n">
-        <v>132.6502787026334</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G42" t="n">
-        <v>132.6502787026334</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H42" t="n">
         <v>19.28114311021272</v>
@@ -7491,13 +7491,13 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K42" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L42" t="n">
-        <v>374.6018090363993</v>
+        <v>65.60123993063803</v>
       </c>
       <c r="M42" t="n">
-        <v>374.6018090363993</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="N42" t="n">
         <v>542.809531908403</v>
@@ -7512,28 +7512,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R42" t="n">
-        <v>925.4920356810865</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S42" t="n">
-        <v>752.0746911317553</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T42" t="n">
-        <v>752.0746911317553</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="U42" t="n">
-        <v>752.0746911317553</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="V42" t="n">
-        <v>752.0746911317553</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="W42" t="n">
-        <v>508.6259144876553</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="X42" t="n">
-        <v>508.6259144876553</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="Y42" t="n">
-        <v>300.8656157227014</v>
+        <v>689.4702815141908</v>
       </c>
     </row>
     <row r="43">
@@ -7622,28 +7622,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>720.6083788665362</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C44" t="n">
-        <v>477.1596022224361</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D44" t="n">
-        <v>233.7108255783361</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E44" t="n">
-        <v>31.35113235729608</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F44" t="n">
-        <v>31.35113235729608</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G44" t="n">
-        <v>31.35113235729608</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="H44" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I44" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J44" t="n">
         <v>19.28114311021272</v>
@@ -7685,13 +7685,13 @@
         <v>964.0571555106362</v>
       </c>
       <c r="W44" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="X44" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="Y44" t="n">
-        <v>964.0571555106362</v>
+        <v>506.1786963984129</v>
       </c>
     </row>
     <row r="45">
@@ -7701,28 +7701,28 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>223.7040404982626</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C45" t="n">
-        <v>223.7040404982626</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D45" t="n">
-        <v>223.7040404982626</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E45" t="n">
-        <v>223.7040404982626</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F45" t="n">
-        <v>223.7040404982626</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G45" t="n">
-        <v>223.7040404982626</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H45" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I45" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J45" t="n">
         <v>19.28114311021272</v>
@@ -7731,19 +7731,19 @@
         <v>19.28114311021272</v>
       </c>
       <c r="L45" t="n">
-        <v>19.28114311021272</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M45" t="n">
-        <v>234.810827406191</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N45" t="n">
-        <v>473.4149733950735</v>
+        <v>726.4525409563269</v>
       </c>
       <c r="O45" t="n">
-        <v>712.019119383956</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P45" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q45" t="n">
         <v>964.0571555106362</v>
@@ -7752,25 +7752,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S45" t="n">
-        <v>964.0571555106362</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T45" t="n">
-        <v>964.0571555106362</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="U45" t="n">
-        <v>964.0571555106362</v>
+        <v>562.4161926976942</v>
       </c>
       <c r="V45" t="n">
-        <v>964.0571555106362</v>
+        <v>562.4161926976942</v>
       </c>
       <c r="W45" t="n">
-        <v>720.6083788665362</v>
+        <v>318.9674160535941</v>
       </c>
       <c r="X45" t="n">
-        <v>512.7568786610034</v>
+        <v>111.1159158480613</v>
       </c>
       <c r="Y45" t="n">
-        <v>304.9965798960495</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="46">
@@ -7792,10 +7792,10 @@
         <v>153.8134336004835</v>
       </c>
       <c r="F46" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G46" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H46" t="n">
         <v>19.28114311021272</v>
@@ -7982,19 +7982,19 @@
         <v>273.6023800549303</v>
       </c>
       <c r="L2" t="n">
-        <v>235.7664149699872</v>
+        <v>289.278943979937</v>
       </c>
       <c r="M2" t="n">
-        <v>281.6966398529821</v>
+        <v>230.3462332272727</v>
       </c>
       <c r="N2" t="n">
-        <v>229.4130635965909</v>
+        <v>282.9255926065406</v>
       </c>
       <c r="O2" t="n">
-        <v>283.6107404316365</v>
+        <v>281.4486180473961</v>
       </c>
       <c r="P2" t="n">
-        <v>284.7455247652193</v>
+        <v>231.2329957552695</v>
       </c>
       <c r="Q2" t="n">
         <v>212.3149906599047</v>
@@ -8058,16 +8058,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>191.3539679843088</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L3" t="n">
-        <v>192.0669087898239</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M3" t="n">
-        <v>142.1340339220183</v>
+        <v>195.6465629319681</v>
       </c>
       <c r="N3" t="n">
-        <v>131.3417120833333</v>
+        <v>182.6921187090427</v>
       </c>
       <c r="O3" t="n">
         <v>142.5962444444444</v>
@@ -8076,7 +8076,7 @@
         <v>187.48693642428</v>
       </c>
       <c r="Q3" t="n">
-        <v>191.3321807117309</v>
+        <v>193.4943030959713</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8298,7 +8298,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>229.6373335557741</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
         <v>383.1483227996774</v>
@@ -8307,7 +8307,7 @@
         <v>131.3417120833333</v>
       </c>
       <c r="O6" t="n">
-        <v>383.6105333221035</v>
+        <v>242.4075215744184</v>
       </c>
       <c r="P6" t="n">
         <v>318.4627686399372</v>
@@ -8453,7 +8453,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K8" t="n">
-        <v>324.1454125711648</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L8" t="n">
         <v>417.6612145504504</v>
@@ -8535,13 +8535,13 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>370.8403453034592</v>
+        <v>299.7328472056018</v>
       </c>
       <c r="M9" t="n">
-        <v>241.9453110519923</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N9" t="n">
-        <v>131.3417120833333</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O9" t="n">
         <v>383.6105333221035</v>
@@ -8550,7 +8550,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8769,7 +8769,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
         <v>370.8403453034592</v>
@@ -8778,10 +8778,10 @@
         <v>383.1483227996774</v>
       </c>
       <c r="N12" t="n">
-        <v>372.3560009609923</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O12" t="n">
-        <v>198.1125443848066</v>
+        <v>312.5030352242461</v>
       </c>
       <c r="P12" t="n">
         <v>318.4627686399372</v>
@@ -9006,25 +9006,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
-        <v>356.2611315939937</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M15" t="n">
-        <v>383.1483227996774</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N15" t="n">
-        <v>372.3560009609923</v>
+        <v>301.248502863135</v>
       </c>
       <c r="O15" t="n">
-        <v>142.5962444444444</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P15" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9246,16 +9246,16 @@
         <v>137.841438974359</v>
       </c>
       <c r="L18" t="n">
-        <v>356.2611315939937</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M18" t="n">
-        <v>142.1340339220183</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N18" t="n">
-        <v>372.3560009609923</v>
+        <v>357.7767872515269</v>
       </c>
       <c r="O18" t="n">
-        <v>383.6105333221035</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P18" t="n">
         <v>318.4627686399372</v>
@@ -9483,10 +9483,10 @@
         <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
-        <v>370.8403453034592</v>
+        <v>299.7352039419416</v>
       </c>
       <c r="M21" t="n">
-        <v>197.6503338623806</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N21" t="n">
         <v>372.3560009609923</v>
@@ -9495,10 +9495,10 @@
         <v>383.6105333221035</v>
       </c>
       <c r="P21" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9723,13 +9723,13 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
-        <v>142.1340339220183</v>
+        <v>312.04082470182</v>
       </c>
       <c r="N24" t="n">
-        <v>301.248502863135</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O24" t="n">
-        <v>383.6105333221035</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P24" t="n">
         <v>318.4627686399372</v>
@@ -9954,7 +9954,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
         <v>370.8403453034592</v>
@@ -9963,10 +9963,10 @@
         <v>383.1483227996774</v>
       </c>
       <c r="N27" t="n">
-        <v>301.2485028631349</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O27" t="n">
-        <v>142.5962444444444</v>
+        <v>198.1125443848066</v>
       </c>
       <c r="P27" t="n">
         <v>318.4627686399372</v>
@@ -10191,25 +10191,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M30" t="n">
-        <v>383.1483227996774</v>
+        <v>312.04082470182</v>
       </c>
       <c r="N30" t="n">
-        <v>357.7767872515269</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O30" t="n">
-        <v>142.5962444444444</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P30" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10437,16 +10437,16 @@
         <v>383.1483227996774</v>
       </c>
       <c r="N33" t="n">
-        <v>301.2485028631349</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O33" t="n">
-        <v>142.5962444444444</v>
+        <v>185.8815939223662</v>
       </c>
       <c r="P33" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10668,10 +10668,10 @@
         <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M36" t="n">
-        <v>197.6503338623806</v>
+        <v>359.8407857361378</v>
       </c>
       <c r="N36" t="n">
         <v>372.3560009609923</v>
@@ -10683,7 +10683,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10902,19 +10902,19 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L39" t="n">
-        <v>299.7328472056018</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
         <v>383.1483227996774</v>
       </c>
       <c r="N39" t="n">
-        <v>131.3417120833333</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O39" t="n">
-        <v>383.6105333221035</v>
+        <v>198.1125443848066</v>
       </c>
       <c r="P39" t="n">
         <v>318.4627686399372</v>
@@ -11060,7 +11060,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K41" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711648</v>
       </c>
       <c r="L41" t="n">
         <v>417.6612145504504</v>
@@ -11139,16 +11139,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
-        <v>370.8403453034592</v>
+        <v>185.3423563661624</v>
       </c>
       <c r="M42" t="n">
-        <v>142.1340339220183</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N42" t="n">
-        <v>301.248502863135</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O42" t="n">
         <v>383.6105333221035</v>
@@ -11379,22 +11379,22 @@
         <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M45" t="n">
-        <v>359.8407857361378</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N45" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O45" t="n">
-        <v>383.6105333221035</v>
+        <v>198.1125443848066</v>
       </c>
       <c r="P45" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -23264,19 +23264,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>380.1208739992256</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H11" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J11" t="n">
         <v>11.94928935461252</v>
@@ -23300,22 +23300,22 @@
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>225.414031377446</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
@@ -23337,28 +23337,28 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C12" t="n">
-        <v>27.26179070270013</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -23382,22 +23382,22 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V12" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W12" t="n">
-        <v>251.6949831609196</v>
+        <v>247.1144340662031</v>
       </c>
       <c r="X12" t="n">
         <v>205.7729852034775</v>
@@ -23434,13 +23434,13 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I13" t="n">
-        <v>140.6136200195524</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -23458,10 +23458,10 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>177.2933913771695</v>
+        <v>132.9899077786023</v>
       </c>
       <c r="S13" t="n">
         <v>224.0165980369723</v>
@@ -23574,28 +23574,28 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C15" t="n">
-        <v>27.26179070270013</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -23622,19 +23622,19 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S15" t="n">
-        <v>171.6831711038378</v>
+        <v>136.2759056302995</v>
       </c>
       <c r="T15" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V15" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W15" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X15" t="n">
         <v>205.7729852034775</v>
@@ -23677,7 +23677,7 @@
         <v>93.35918011667277</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -23698,7 +23698,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>155.2593996044852</v>
+        <v>132.9899077786023</v>
       </c>
       <c r="S16" t="n">
         <v>224.0165980369723</v>
@@ -23741,19 +23741,19 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>176.0015501456288</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H17" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -23774,22 +23774,22 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>225.414031377446</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
@@ -23808,10 +23808,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>21.08647536425173</v>
+        <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D18" t="n">
         <v>0</v>
@@ -23826,10 +23826,10 @@
         <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>81.55953011607103</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -23935,10 +23935,10 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R19" t="n">
-        <v>177.2933913771695</v>
+        <v>44.10642379180146</v>
       </c>
       <c r="S19" t="n">
-        <v>90.82963045160423</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T19" t="n">
         <v>227.9455894282815</v>
@@ -23966,7 +23966,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
@@ -23975,19 +23975,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417114</v>
+        <v>336.5320379404362</v>
       </c>
       <c r="G20" t="n">
         <v>415.302737515135</v>
       </c>
       <c r="H20" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J20" t="n">
         <v>11.94928935461252</v>
@@ -24017,10 +24017,10 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>126.0561017912447</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T20" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
         <v>251.3456529078365</v>
@@ -24032,7 +24032,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y20" t="n">
         <v>386.2379386560536</v>
@@ -24048,22 +24048,22 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C21" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>1.900258621221752</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I21" t="n">
         <v>89.39663285141508</v>
@@ -24099,7 +24099,7 @@
         <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>137.0083512452788</v>
+        <v>0</v>
       </c>
       <c r="U21" t="n">
         <v>225.9413820809748</v>
@@ -24114,7 +24114,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y21" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="22">
@@ -24124,7 +24124,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>46.6450125965693</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
@@ -24178,7 +24178,7 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T22" t="n">
-        <v>227.9455894282815</v>
+        <v>94.7586218429135</v>
       </c>
       <c r="U22" t="n">
         <v>286.3190293564909</v>
@@ -24206,10 +24206,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
         <v>381.9303700722618</v>
@@ -24221,13 +24221,13 @@
         <v>415.302737515135</v>
       </c>
       <c r="H23" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I23" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -24263,13 +24263,13 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V23" t="n">
-        <v>115.4668728266929</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>108.226679839754</v>
+        <v>118.3664731213304</v>
       </c>
       <c r="X23" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y23" t="n">
         <v>386.2379386560536</v>
@@ -24288,16 +24288,16 @@
         <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>55.08782584121859</v>
+        <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
         <v>112.2354442364965</v>
@@ -24339,19 +24339,19 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U24" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V24" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W24" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X24" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y24" t="n">
-        <v>0</v>
+        <v>30.56581806583503</v>
       </c>
     </row>
     <row r="25">
@@ -24412,7 +24412,7 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S25" t="n">
-        <v>90.82963045160426</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T25" t="n">
         <v>227.9455894282815</v>
@@ -24421,7 +24421,7 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>118.95067573846</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -24440,10 +24440,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
         <v>354.683041620683</v>
@@ -24452,10 +24452,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G26" t="n">
-        <v>415.302737515135</v>
+        <v>195.0896117727101</v>
       </c>
       <c r="H26" t="n">
         <v>339.4748021157671</v>
@@ -24464,7 +24464,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
@@ -24485,7 +24485,7 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
         <v>149.8691179411497</v>
@@ -24494,10 +24494,10 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T26" t="n">
-        <v>22.7597532753017</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
@@ -24509,7 +24509,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="27">
@@ -24519,7 +24519,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C27" t="n">
         <v>172.7084989883157</v>
@@ -24531,19 +24531,19 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F27" t="n">
-        <v>145.0692123933839</v>
+        <v>21.46887964564732</v>
       </c>
       <c r="G27" t="n">
         <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -24573,13 +24573,13 @@
         <v>0</v>
       </c>
       <c r="T27" t="n">
-        <v>73.35476963738662</v>
+        <v>0</v>
       </c>
       <c r="U27" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V27" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W27" t="n">
         <v>251.6949831609196</v>
@@ -24643,7 +24643,7 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q28" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R28" t="n">
         <v>177.2933913771695</v>
@@ -24664,10 +24664,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>92.52268780366913</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>171.5597290184211</v>
       </c>
     </row>
     <row r="29">
@@ -24701,7 +24701,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
@@ -24722,25 +24722,25 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>128.6853625704253</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>150.6253511395826</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
         <v>369.731100678469</v>
@@ -24765,7 +24765,7 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E30" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F30" t="n">
         <v>0</v>
@@ -24777,7 +24777,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>54.10473810025091</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -24804,13 +24804,13 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>140.0735419939924</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U30" t="n">
         <v>225.9413820809748</v>
@@ -24886,7 +24886,7 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S31" t="n">
-        <v>90.82963045160423</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T31" t="n">
         <v>227.9455894282815</v>
@@ -24895,7 +24895,7 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>118.95067573846</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
@@ -24920,10 +24920,10 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
         <v>406.8760457417114</v>
@@ -24971,19 +24971,19 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U32" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>136.955583073971</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X32" t="n">
         <v>128.71681180081</v>
       </c>
       <c r="Y32" t="n">
-        <v>386.2379386560536</v>
+        <v>173.9525530126115</v>
       </c>
     </row>
     <row r="33">
@@ -24993,10 +24993,10 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C33" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D33" t="n">
         <v>147.4450655646388</v>
@@ -25011,13 +25011,13 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>48.34662117197414</v>
       </c>
       <c r="I33" t="n">
         <v>89.39663285141508</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -25044,25 +25044,25 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S33" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T33" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U33" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V33" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W33" t="n">
-        <v>180.0461300662196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X33" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y33" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="34">
@@ -25126,7 +25126,7 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T34" t="n">
-        <v>227.9455894282815</v>
+        <v>94.7586218429135</v>
       </c>
       <c r="U34" t="n">
         <v>286.3190293564909</v>
@@ -25135,7 +25135,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>153.336030751223</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
@@ -25160,22 +25160,22 @@
         <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722618</v>
+        <v>169.6449844288197</v>
       </c>
       <c r="F35" t="n">
-        <v>185.9922493601736</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H35" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
@@ -25196,7 +25196,7 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R35" t="n">
         <v>149.8691179411497</v>
@@ -25208,13 +25208,13 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U35" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W35" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X35" t="n">
         <v>369.731100678469</v>
@@ -25230,31 +25230,31 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C36" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D36" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F36" t="n">
-        <v>77.41076668849635</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G36" t="n">
         <v>137.3435171632106</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>58.55236638604161</v>
       </c>
       <c r="I36" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -25278,16 +25278,16 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U36" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V36" t="n">
         <v>232.8005871494253</v>
@@ -25299,7 +25299,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y36" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -25327,7 +25327,7 @@
         <v>167.9909793584588</v>
       </c>
       <c r="H37" t="n">
-        <v>29.04020492207155</v>
+        <v>162.2271725074396</v>
       </c>
       <c r="I37" t="n">
         <v>155.4504749272583</v>
@@ -25369,7 +25369,7 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>118.95067573846</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
@@ -25406,13 +25406,13 @@
         <v>415.302737515135</v>
       </c>
       <c r="H38" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J38" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
@@ -25436,7 +25436,7 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R38" t="n">
-        <v>116.0654025766999</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -25445,13 +25445,13 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U38" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W38" t="n">
-        <v>108.226679839754</v>
+        <v>116.9106531371698</v>
       </c>
       <c r="X38" t="n">
         <v>369.731100678469</v>
@@ -25467,16 +25467,16 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C39" t="n">
         <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E39" t="n">
-        <v>14.84410631175118</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F39" t="n">
         <v>145.0692123933839</v>
@@ -25488,7 +25488,7 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I39" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>0.7465913262578567</v>
@@ -25521,13 +25521,13 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T39" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V39" t="n">
-        <v>232.8005871494253</v>
+        <v>85.84141164117639</v>
       </c>
       <c r="W39" t="n">
         <v>251.6949831609196</v>
@@ -25536,7 +25536,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y39" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="40">
@@ -25588,7 +25588,7 @@
         <v>0</v>
       </c>
       <c r="P40" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q40" t="n">
         <v>86.16204325169439</v>
@@ -25600,7 +25600,7 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T40" t="n">
-        <v>94.75862184291347</v>
+        <v>97.48006257801995</v>
       </c>
       <c r="U40" t="n">
         <v>286.3190293564909</v>
@@ -25628,7 +25628,7 @@
         <v>141.7195527858215</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D41" t="n">
         <v>354.683041620683</v>
@@ -25679,16 +25679,16 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T41" t="n">
-        <v>223.0958495641314</v>
+        <v>10.81046392068936</v>
       </c>
       <c r="U41" t="n">
-        <v>39.0602672643945</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
         <v>369.731100678469</v>
@@ -25707,22 +25707,22 @@
         <v>0</v>
       </c>
       <c r="C42" t="n">
-        <v>172.7084989883157</v>
+        <v>125.9137940316683</v>
       </c>
       <c r="D42" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G42" t="n">
         <v>137.3435171632106</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I42" t="n">
         <v>89.39663285141508</v>
@@ -25752,7 +25752,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>61.97836552138887</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -25767,13 +25767,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W42" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X42" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y42" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="43">
@@ -25865,13 +25865,13 @@
         <v>141.7195527858215</v>
       </c>
       <c r="C44" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
-        <v>181.5942737834322</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
         <v>406.8760457417114</v>
@@ -25880,13 +25880,13 @@
         <v>415.302737515135</v>
       </c>
       <c r="H44" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I44" t="n">
         <v>210.4758895704059</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
@@ -25925,13 +25925,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
-        <v>349.240968717413</v>
+        <v>136.955583073971</v>
       </c>
       <c r="X44" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="45">
@@ -25941,7 +25941,7 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>86.05356964605838</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C45" t="n">
         <v>172.7084989883157</v>
@@ -25959,13 +25959,13 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -25992,13 +25992,13 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S45" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T45" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U45" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V45" t="n">
         <v>232.8005871494253</v>
@@ -26010,7 +26010,7 @@
         <v>0</v>
       </c>
       <c r="Y45" t="n">
-        <v>0</v>
+        <v>114.7662707668343</v>
       </c>
     </row>
     <row r="46">
@@ -26032,13 +26032,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>12.23408043756322</v>
       </c>
       <c r="G46" t="n">
         <v>167.9909793584588</v>
       </c>
       <c r="H46" t="n">
-        <v>29.04020492207155</v>
+        <v>162.2271725074396</v>
       </c>
       <c r="I46" t="n">
         <v>155.4504749272583</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>357364.5358325086</v>
+        <v>357364.5358325085</v>
       </c>
     </row>
     <row r="6">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>357364.5358325085</v>
+        <v>357364.5358325086</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>357364.5358325086</v>
+        <v>357364.5358325085</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>357364.5358325086</v>
+        <v>357364.5358325084</v>
       </c>
     </row>
     <row r="13">
@@ -26311,13 +26311,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>595255.2831516053</v>
+        <v>595255.2831516052</v>
       </c>
       <c r="C2" t="n">
-        <v>595255.2831516052</v>
+        <v>595255.2831516051</v>
       </c>
       <c r="D2" t="n">
-        <v>595255.2831516055</v>
+        <v>595255.2831516051</v>
       </c>
       <c r="E2" t="n">
         <v>240932.9751704319</v>
@@ -26329,10 +26329,10 @@
         <v>240932.9751704318</v>
       </c>
       <c r="H2" t="n">
+        <v>240932.9751704318</v>
+      </c>
+      <c r="I2" t="n">
         <v>240932.9751704319</v>
-      </c>
-      <c r="I2" t="n">
-        <v>240932.9751704318</v>
       </c>
       <c r="J2" t="n">
         <v>240932.9751704319</v>
@@ -26341,19 +26341,19 @@
         <v>240932.9751704319</v>
       </c>
       <c r="L2" t="n">
-        <v>240932.9751704319</v>
+        <v>240932.9751704318</v>
       </c>
       <c r="M2" t="n">
-        <v>240932.9751704319</v>
+        <v>240932.9751704318</v>
       </c>
       <c r="N2" t="n">
         <v>240932.9751704319</v>
       </c>
       <c r="O2" t="n">
+        <v>240932.9751704318</v>
+      </c>
+      <c r="P2" t="n">
         <v>240932.9751704319</v>
-      </c>
-      <c r="P2" t="n">
-        <v>240932.9751704318</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>17933.27925940139</v>
+        <v>17933.27925940137</v>
       </c>
       <c r="C3" t="n">
         <v>60576.32218666811</v>
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>339491.5823438202</v>
+        <v>341864.8743836956</v>
       </c>
       <c r="C4" t="n">
-        <v>292606.3788338369</v>
+        <v>295860.2172754402</v>
       </c>
       <c r="D4" t="n">
-        <v>292606.3788338369</v>
+        <v>295860.2172754403</v>
       </c>
       <c r="E4" t="n">
-        <v>13660.85119937745</v>
+        <v>16914.68964098084</v>
       </c>
       <c r="F4" t="n">
-        <v>13660.85119937745</v>
+        <v>16914.68964098084</v>
       </c>
       <c r="G4" t="n">
-        <v>13660.85119937745</v>
+        <v>16914.68964098084</v>
       </c>
       <c r="H4" t="n">
-        <v>13660.85119937745</v>
+        <v>16914.68964098084</v>
       </c>
       <c r="I4" t="n">
-        <v>13660.85119937745</v>
+        <v>16914.68964098084</v>
       </c>
       <c r="J4" t="n">
-        <v>13660.85119937745</v>
+        <v>16914.68964098084</v>
       </c>
       <c r="K4" t="n">
-        <v>13660.85119937745</v>
+        <v>16914.68964098084</v>
       </c>
       <c r="L4" t="n">
-        <v>13660.85119937745</v>
+        <v>16914.68964098084</v>
       </c>
       <c r="M4" t="n">
-        <v>13660.85119937745</v>
+        <v>16914.68964098084</v>
       </c>
       <c r="N4" t="n">
-        <v>13660.85119937745</v>
+        <v>16914.68964098084</v>
       </c>
       <c r="O4" t="n">
-        <v>13660.85119937745</v>
+        <v>16914.68964098084</v>
       </c>
       <c r="P4" t="n">
-        <v>13660.85119937745</v>
+        <v>16914.68964098084</v>
       </c>
     </row>
     <row r="5">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>200949.2597845787</v>
+        <v>198575.9677447033</v>
       </c>
       <c r="C6" t="n">
-        <v>193791.3133673384</v>
+        <v>190537.4749257351</v>
       </c>
       <c r="D6" t="n">
-        <v>254367.635554007</v>
+        <v>251113.7971124031</v>
       </c>
       <c r="E6" t="n">
-        <v>212618.4552072928</v>
+        <v>209364.6167656895</v>
       </c>
       <c r="F6" t="n">
-        <v>212618.4552072927</v>
+        <v>209364.6167656893</v>
       </c>
       <c r="G6" t="n">
-        <v>212618.4552072927</v>
+        <v>209364.6167656893</v>
       </c>
       <c r="H6" t="n">
-        <v>212618.4552072927</v>
+        <v>209364.6167656893</v>
       </c>
       <c r="I6" t="n">
-        <v>212618.4552072927</v>
+        <v>209364.6167656894</v>
       </c>
       <c r="J6" t="n">
-        <v>198617.2230670135</v>
+        <v>195363.3846254101</v>
       </c>
       <c r="K6" t="n">
-        <v>164361.5022736601</v>
+        <v>161107.6638320567</v>
       </c>
       <c r="L6" t="n">
-        <v>212618.4552072928</v>
+        <v>209364.6167656893</v>
       </c>
       <c r="M6" t="n">
-        <v>212618.4552072927</v>
+        <v>209364.6167656893</v>
       </c>
       <c r="N6" t="n">
-        <v>212618.4552072927</v>
+        <v>209364.6167656894</v>
       </c>
       <c r="O6" t="n">
-        <v>212618.4552072928</v>
+        <v>209364.6167656893</v>
       </c>
       <c r="P6" t="n">
-        <v>212618.4552072927</v>
+        <v>209364.6167656894</v>
       </c>
     </row>
   </sheetData>
@@ -27388,7 +27388,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>375.0449477048828</v>
       </c>
       <c r="G2" t="n">
         <v>400</v>
@@ -27400,7 +27400,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27421,7 +27421,7 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R2" t="n">
         <v>149.8691179411497</v>
@@ -27439,7 +27439,7 @@
         <v>274.2397294601852</v>
       </c>
       <c r="W2" t="n">
-        <v>346.2259049914531</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
@@ -27461,10 +27461,10 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>100.311230012675</v>
+        <v>93.93253655468899</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>104.1325514454512</v>
       </c>
       <c r="F3" t="n">
         <v>145.0692123933839</v>
@@ -27473,7 +27473,7 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H3" t="n">
-        <v>112.2354442364965</v>
+        <v>65.10160868453272</v>
       </c>
       <c r="I3" t="n">
         <v>89.39663285141508</v>
@@ -27503,7 +27503,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>46.64530514269338</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S3" t="n">
         <v>118.1706420938881</v>
@@ -27524,7 +27524,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>152.1701667673546</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -27534,34 +27534,34 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>126.3194511719875</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>95.1029440082626</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>141.5286302833456</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>167.9909793584588</v>
       </c>
       <c r="H4" t="n">
-        <v>108.7146434974898</v>
+        <v>162.2271725074396</v>
       </c>
       <c r="I4" t="n">
-        <v>101.9379459173085</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J4" t="n">
         <v>93.35918011667277</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27582,7 +27582,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R4" t="n">
-        <v>177.2933913771695</v>
+        <v>151.131481811701</v>
       </c>
       <c r="S4" t="n">
         <v>224.0165980369723</v>
@@ -27613,19 +27613,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>342.8193148253904</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>165.8617568640524</v>
+        <v>206.5399494528818</v>
       </c>
       <c r="G5" t="n">
         <v>174.288448637476</v>
@@ -27634,7 +27634,7 @@
         <v>339.4748021157671</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27658,13 +27658,13 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R5" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T5" t="n">
         <v>223.0958495641314</v>
@@ -27698,7 +27698,7 @@
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
         <v>157.6450804554009</v>
@@ -27710,10 +27710,10 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H6" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0.7465913262578567</v>
@@ -27740,25 +27740,25 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S6" t="n">
-        <v>68.12199851379815</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T6" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U6" t="n">
-        <v>225.9413820809748</v>
+        <v>103.4369888075125</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
         <v>0</v>
@@ -27813,10 +27813,10 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R7" t="n">
         <v>177.2933913771695</v>
@@ -27834,7 +27834,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>242.2195147380239</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -27850,19 +27850,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>162.9442018670859</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>165.8617568640524</v>
+        <v>369.7532147690989</v>
       </c>
       <c r="G8" t="n">
         <v>400</v>
@@ -27898,10 +27898,10 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T8" t="n">
         <v>223.0958495641314</v>
@@ -27910,7 +27910,7 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -27919,7 +27919,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="9">
@@ -27932,7 +27932,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
         <v>147.4450655646388</v>
@@ -27977,28 +27977,28 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>175.8836868124218</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>168.1279498935992</v>
       </c>
       <c r="W9" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="10">
@@ -28008,7 +28008,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>132.8070558482636</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
@@ -28050,13 +28050,13 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R10" t="n">
-        <v>177.2933913771695</v>
+        <v>46.82786452690794</v>
       </c>
       <c r="S10" t="n">
         <v>224.0165980369723</v>
@@ -34702,19 +34702,19 @@
         <v>53.51252900994975</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="M2" t="n">
-        <v>51.35040662570935</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="O2" t="n">
-        <v>53.51252900994975</v>
+        <v>51.35040662570938</v>
       </c>
       <c r="P2" t="n">
-        <v>53.51252900994975</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
@@ -34778,16 +34778,16 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
         <v>53.51252900994975</v>
       </c>
-      <c r="L3" t="n">
-        <v>53.51252900994975</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0</v>
-      </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>51.35040662570935</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -34796,7 +34796,7 @@
         <v>53.51252900994975</v>
       </c>
       <c r="Q3" t="n">
-        <v>51.35040662570938</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34942,10 +34942,10 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M5" t="n">
-        <v>219.1673002655598</v>
+        <v>219.1673002655597</v>
       </c>
       <c r="N5" t="n">
-        <v>207.9338608153933</v>
+        <v>207.9338608153932</v>
       </c>
       <c r="O5" t="n">
         <v>150.7019698410586</v>
@@ -35018,7 +35018,7 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L6" t="n">
-        <v>91.0829537758999</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M6" t="n">
         <v>241.0142888776591</v>
@@ -35027,7 +35027,7 @@
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>241.0142888776591</v>
+        <v>99.8112771299739</v>
       </c>
       <c r="P6" t="n">
         <v>184.4883612256069</v>
@@ -35255,13 +35255,13 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L9" t="n">
-        <v>232.285965523585</v>
+        <v>161.1784674257276</v>
       </c>
       <c r="M9" t="n">
-        <v>99.81127712997396</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O9" t="n">
         <v>241.0142888776591</v>
@@ -35270,7 +35270,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q9" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35416,7 +35416,7 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M11" t="n">
-        <v>219.1673002655598</v>
+        <v>219.1673002655597</v>
       </c>
       <c r="N11" t="n">
         <v>207.9338608153932</v>
@@ -35489,7 +35489,7 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L12" t="n">
         <v>232.285965523585</v>
@@ -35498,10 +35498,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="N12" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>55.51629994036219</v>
+        <v>169.9067907798016</v>
       </c>
       <c r="P12" t="n">
         <v>184.4883612256069</v>
@@ -35726,25 +35726,25 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L15" t="n">
-        <v>217.7067518141195</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M15" t="n">
+        <v>0</v>
+      </c>
+      <c r="N15" t="n">
+        <v>169.9067907798017</v>
+      </c>
+      <c r="O15" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="N15" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="O15" t="n">
-        <v>0</v>
       </c>
       <c r="P15" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q15" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35966,16 +35966,16 @@
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>217.7067518141195</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N18" t="n">
-        <v>241.0142888776591</v>
+        <v>226.4350751681936</v>
       </c>
       <c r="O18" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
         <v>184.4883612256069</v>
@@ -36203,10 +36203,10 @@
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>232.285965523585</v>
+        <v>161.1808241620674</v>
       </c>
       <c r="M21" t="n">
-        <v>55.51629994036225</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N21" t="n">
         <v>241.0142888776591</v>
@@ -36215,10 +36215,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="P21" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36443,13 +36443,13 @@
         <v>232.285965523585</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>169.9067907798017</v>
       </c>
       <c r="N24" t="n">
-        <v>169.9067907798017</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O24" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
         <v>184.4883612256069</v>
@@ -36674,7 +36674,7 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
         <v>232.285965523585</v>
@@ -36683,10 +36683,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="N27" t="n">
-        <v>169.9067907798016</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>55.51629994036219</v>
       </c>
       <c r="P27" t="n">
         <v>184.4883612256069</v>
@@ -36911,25 +36911,25 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L30" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M30" t="n">
+        <v>169.9067907798017</v>
+      </c>
+      <c r="N30" t="n">
+        <v>0</v>
+      </c>
+      <c r="O30" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="N30" t="n">
-        <v>226.4350751681936</v>
-      </c>
-      <c r="O30" t="n">
-        <v>0</v>
       </c>
       <c r="P30" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q30" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37157,16 +37157,16 @@
         <v>241.0142888776591</v>
       </c>
       <c r="N33" t="n">
-        <v>169.9067907798016</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>43.28534947792182</v>
       </c>
       <c r="P33" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37312,7 +37312,7 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M35" t="n">
-        <v>219.1673002655597</v>
+        <v>219.1673002655598</v>
       </c>
       <c r="N35" t="n">
         <v>207.9338608153932</v>
@@ -37388,10 +37388,10 @@
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>55.51629994036225</v>
+        <v>217.7067518141195</v>
       </c>
       <c r="N36" t="n">
         <v>241.0142888776591</v>
@@ -37403,7 +37403,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37622,19 +37622,19 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>161.1784674257276</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M39" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O39" t="n">
-        <v>241.0142888776591</v>
+        <v>55.51629994036219</v>
       </c>
       <c r="P39" t="n">
         <v>184.4883612256069</v>
@@ -37792,7 +37792,7 @@
         <v>207.9338608153932</v>
       </c>
       <c r="O41" t="n">
-        <v>150.7019698410587</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P41" t="n">
         <v>90.5657124162131</v>
@@ -37859,16 +37859,16 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>232.285965523585</v>
+        <v>46.78797658628819</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N42" t="n">
-        <v>169.9067907798017</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O42" t="n">
         <v>241.0142888776591</v>
@@ -38099,22 +38099,22 @@
         <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M45" t="n">
-        <v>217.7067518141195</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N45" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O45" t="n">
-        <v>241.0142888776591</v>
+        <v>55.51629994036219</v>
       </c>
       <c r="P45" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q45" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/100000/Output_2_29.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/100000/Output_2_29.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1731997.530748381</v>
+        <v>1734321.202562249</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1151840.918742179</v>
+        <v>1151840.918742178</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>14661612.74404854</v>
+        <v>14661612.74404855</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5573476.978824023</v>
+        <v>5573476.978824022</v>
       </c>
     </row>
     <row r="11">
@@ -659,19 +661,19 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>31.83109803682869</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>15.30273751513505</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -710,13 +712,13 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>53.51252900994975</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>53.51252900994975</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>53.51252900994975</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -725,7 +727,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>40.25778981025229</v>
       </c>
     </row>
     <row r="3">
@@ -735,13 +737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>53.51252900994975</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
         <v>53.51252900994975</v>
@@ -753,13 +755,13 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>47.13383555196375</v>
+        <v>46.38724422570589</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -783,10 +785,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="S3" t="n">
-        <v>53.51252900994975</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
@@ -814,73 +816,73 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>0</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0</v>
+      </c>
+      <c r="F4" t="n">
         <v>53.51252900994975</v>
       </c>
-      <c r="C4" t="n">
-        <v>0</v>
-      </c>
-      <c r="D4" t="n">
+      <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0</v>
+      </c>
+      <c r="O4" t="n">
+        <v>0</v>
+      </c>
+      <c r="P4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>0</v>
+      </c>
+      <c r="R4" t="n">
+        <v>0</v>
+      </c>
+      <c r="S4" t="n">
+        <v>0</v>
+      </c>
+      <c r="T4" t="n">
+        <v>0</v>
+      </c>
+      <c r="U4" t="n">
+        <v>0</v>
+      </c>
+      <c r="V4" t="n">
         <v>53.51252900994975</v>
       </c>
-      <c r="E4" t="n">
-        <v>0</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0</v>
-      </c>
-      <c r="G4" t="n">
-        <v>0</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" t="n">
-        <v>0</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0</v>
-      </c>
-      <c r="L4" t="n">
-        <v>0</v>
-      </c>
-      <c r="M4" t="n">
-        <v>0</v>
-      </c>
-      <c r="N4" t="n">
-        <v>0</v>
-      </c>
-      <c r="O4" t="n">
-        <v>0</v>
-      </c>
-      <c r="P4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>0</v>
-      </c>
-      <c r="R4" t="n">
+      <c r="W4" t="n">
+        <v>0</v>
+      </c>
+      <c r="X4" t="n">
         <v>26.16190956546853</v>
-      </c>
-      <c r="S4" t="n">
-        <v>0</v>
-      </c>
-      <c r="T4" t="n">
-        <v>0</v>
-      </c>
-      <c r="U4" t="n">
-        <v>0</v>
-      </c>
-      <c r="V4" t="n">
-        <v>0</v>
-      </c>
-      <c r="W4" t="n">
-        <v>0</v>
-      </c>
-      <c r="X4" t="n">
-        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -902,10 +904,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>193.4600505471182</v>
       </c>
       <c r="F5" t="n">
-        <v>200.3360962888296</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
         <v>241.0142888776591</v>
@@ -972,10 +974,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
@@ -984,16 +986,16 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H6" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1026,22 +1028,22 @@
         <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U6" t="n">
-        <v>122.5043932734623</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>60.27622829416089</v>
       </c>
       <c r="X6" t="n">
         <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1114,13 +1116,13 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
+        <v>0</v>
+      </c>
+      <c r="X7" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y7" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="X7" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y7" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1130,28 +1132,28 @@
         </is>
       </c>
       <c r="B8" t="n">
+        <v>0</v>
+      </c>
+      <c r="C8" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="C8" t="n">
-        <v>0</v>
-      </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F8" t="n">
-        <v>37.12283097261258</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>15.30273751513505</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>205.4093399017307</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1175,10 +1177,10 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -1190,7 +1192,7 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -1199,7 +1201,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1209,10 +1211,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
-        <v>172.7084989883157</v>
+        <v>156.7701852745342</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
@@ -1221,7 +1223,7 @@
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
@@ -1257,22 +1259,22 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V9" t="n">
-        <v>64.67263725582607</v>
+        <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X9" t="n">
         <v>0</v>
@@ -1288,7 +1290,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -1330,13 +1332,13 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>130.4655268502615</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1367,7 +1369,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>7.778646031951277</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -1388,10 +1390,10 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -1412,13 +1414,13 @@
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>223.0958495641314</v>
@@ -1427,10 +1429,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="V11" t="n">
-        <v>102.3382270926889</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -1494,25 +1496,25 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T12" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U12" t="n">
-        <v>225.9413820809748</v>
+        <v>55.57566235103572</v>
       </c>
       <c r="V12" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W12" t="n">
-        <v>4.580549094716531</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X12" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y12" t="n">
         <v>0</v>
@@ -1567,13 +1569,13 @@
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>44.30348359856715</v>
+        <v>133.186967585368</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -1604,31 +1606,31 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F14" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>200.3360962888296</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J14" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -1673,7 +1675,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>1.809496073036132</v>
       </c>
     </row>
     <row r="15">
@@ -1689,7 +1691,7 @@
         <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E15" t="n">
         <v>0</v>
@@ -1701,7 +1703,7 @@
         <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1731,25 +1733,25 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S15" t="n">
-        <v>35.40726547353833</v>
+        <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>200.1647286948216</v>
+        <v>143.7755410381886</v>
       </c>
       <c r="U15" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V15" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W15" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X15" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y15" t="n">
         <v>0</v>
@@ -1804,13 +1806,13 @@
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>44.30348359856715</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -1825,7 +1827,7 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -1853,19 +1855,19 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -1892,16 +1894,16 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S17" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>102.3382270926889</v>
+        <v>71.01467844038818</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -1920,28 +1922,28 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C18" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D18" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>7.83710273534405</v>
+        <v>22.97702676147813</v>
       </c>
       <c r="J18" t="n">
         <v>0.7465913262578567</v>
@@ -1968,25 +1970,25 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U18" t="n">
         <v>0</v>
       </c>
       <c r="V18" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W18" t="n">
         <v>0</v>
       </c>
       <c r="X18" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y18" t="n">
         <v>0</v>
@@ -2044,10 +2046,10 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R19" t="n">
-        <v>133.186967585368</v>
+        <v>47.02492433367365</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -2081,16 +2083,16 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>70.34400780127524</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
@@ -2135,16 +2137,16 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>70.34400780127524</v>
       </c>
       <c r="X20" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -2163,13 +2165,13 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D21" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
         <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>143.1689537721621</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
         <v>0</v>
@@ -2217,13 +2219,13 @@
         <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>0</v>
+        <v>84.84103413332343</v>
       </c>
       <c r="W21" t="n">
         <v>0</v>
       </c>
       <c r="X21" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y21" t="n">
         <v>0</v>
@@ -2281,16 +2283,16 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>47.02492433367365</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -2333,58 +2335,58 @@
         <v>0</v>
       </c>
       <c r="H23" t="n">
+        <v>0</v>
+      </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>0</v>
+      </c>
+      <c r="K23" t="n">
+        <v>0</v>
+      </c>
+      <c r="L23" t="n">
+        <v>0</v>
+      </c>
+      <c r="M23" t="n">
+        <v>0</v>
+      </c>
+      <c r="N23" t="n">
+        <v>0</v>
+      </c>
+      <c r="O23" t="n">
+        <v>0</v>
+      </c>
+      <c r="P23" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>9.990699214544804</v>
+      </c>
+      <c r="R23" t="n">
+        <v>0</v>
+      </c>
+      <c r="S23" t="n">
+        <v>0</v>
+      </c>
+      <c r="T23" t="n">
+        <v>223.0958495641314</v>
+      </c>
+      <c r="U23" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="I23" t="n">
-        <v>210.4758895704059</v>
-      </c>
-      <c r="J23" t="n">
-        <v>11.94928935461252</v>
-      </c>
-      <c r="K23" t="n">
-        <v>0</v>
-      </c>
-      <c r="L23" t="n">
-        <v>0</v>
-      </c>
-      <c r="M23" t="n">
-        <v>0</v>
-      </c>
-      <c r="N23" t="n">
-        <v>0</v>
-      </c>
-      <c r="O23" t="n">
-        <v>0</v>
-      </c>
-      <c r="P23" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q23" t="n">
-        <v>0</v>
-      </c>
-      <c r="R23" t="n">
-        <v>0</v>
-      </c>
-      <c r="S23" t="n">
-        <v>0</v>
-      </c>
-      <c r="T23" t="n">
-        <v>0</v>
-      </c>
-      <c r="U23" t="n">
-        <v>0</v>
-      </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>220.2131257424249</v>
       </c>
       <c r="W23" t="n">
-        <v>230.8744955960827</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y23" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="Y23" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2397,19 +2399,19 @@
         <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D24" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E24" t="n">
-        <v>157.6450804554009</v>
+        <v>77.46860910239674</v>
       </c>
       <c r="F24" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -2442,10 +2444,10 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S24" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T24" t="n">
         <v>0</v>
@@ -2454,16 +2456,16 @@
         <v>0</v>
       </c>
       <c r="V24" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W24" t="n">
         <v>0</v>
       </c>
       <c r="X24" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y24" t="n">
-        <v>175.1168777114693</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -2515,10 +2517,10 @@
         <v>0</v>
       </c>
       <c r="P25" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q25" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -2527,13 +2529,13 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>44.30348359856715</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -2552,10 +2554,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>202.2946864288972</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
@@ -2564,10 +2566,10 @@
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>220.2131257424249</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -2606,14 +2608,14 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
+        <v>0</v>
+      </c>
+      <c r="V26" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="V26" t="n">
-        <v>0</v>
-      </c>
       <c r="W26" t="n">
         <v>0</v>
       </c>
@@ -2621,7 +2623,7 @@
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
     </row>
     <row r="27">
@@ -2643,19 +2645,19 @@
         <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>123.6003327477366</v>
+        <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -2694,13 +2696,13 @@
         <v>0</v>
       </c>
       <c r="W27" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X27" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y27" t="n">
-        <v>0</v>
+        <v>16.53524424398009</v>
       </c>
     </row>
     <row r="28">
@@ -2752,13 +2754,13 @@
         <v>0</v>
       </c>
       <c r="P28" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q28" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>130.4655268502615</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -2779,7 +2781,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>47.02492433367365</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2792,10 +2794,10 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>202.2946864288972</v>
       </c>
       <c r="D29" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
@@ -2834,25 +2836,25 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R29" t="n">
-        <v>21.18375537072436</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
@@ -2868,7 +2870,7 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0</v>
+        <v>16.62553367015321</v>
       </c>
       <c r="C30" t="n">
         <v>0</v>
@@ -2880,19 +2882,19 @@
         <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>35.29189475116416</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -2922,22 +2924,22 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T30" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U30" t="n">
         <v>0</v>
       </c>
       <c r="V30" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W30" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X30" t="n">
         <v>0</v>
       </c>
       <c r="Y30" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="31">
@@ -2989,10 +2991,10 @@
         <v>0</v>
       </c>
       <c r="P31" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q31" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -3004,10 +3006,10 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>44.30348359856715</v>
       </c>
       <c r="V31" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -3032,7 +3034,7 @@
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
@@ -3047,7 +3049,7 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3071,31 +3073,31 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R32" t="n">
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>23.81301614990497</v>
       </c>
       <c r="U32" t="n">
+        <v>0</v>
+      </c>
+      <c r="V32" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="V32" t="n">
-        <v>0</v>
-      </c>
       <c r="W32" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>212.2853856434421</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -3105,7 +3107,7 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C33" t="n">
         <v>0</v>
@@ -3123,7 +3125,7 @@
         <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>63.88882306452232</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
@@ -3153,28 +3155,28 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S33" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U33" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V33" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W33" t="n">
-        <v>241.0142888776591</v>
+        <v>29.9892228523575</v>
       </c>
       <c r="X33" t="n">
         <v>0</v>
       </c>
       <c r="Y33" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="34">
@@ -3226,19 +3228,19 @@
         <v>0</v>
       </c>
       <c r="P34" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q34" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>44.30348359856715</v>
       </c>
       <c r="T34" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -3266,13 +3268,13 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>112.3289263072337</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>212.2853856434421</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
@@ -3311,22 +3313,22 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U35" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="V35" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
         <v>0</v>
@@ -3342,13 +3344,13 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C36" t="n">
         <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E36" t="n">
         <v>0</v>
@@ -3360,13 +3362,13 @@
         <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>53.68307785045486</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -3390,25 +3392,25 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T36" t="n">
-        <v>0</v>
+        <v>119.3888130423743</v>
       </c>
       <c r="U36" t="n">
         <v>0</v>
       </c>
       <c r="V36" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W36" t="n">
         <v>0</v>
       </c>
       <c r="X36" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y36" t="n">
         <v>205.6826957773044</v>
@@ -3466,10 +3468,10 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>47.02492433367365</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -3481,7 +3483,7 @@
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -3500,7 +3502,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -3545,28 +3547,28 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U38" t="n">
+        <v>0</v>
+      </c>
+      <c r="V38" t="n">
+        <v>208.2638363878125</v>
+      </c>
+      <c r="W38" t="n">
+        <v>0</v>
+      </c>
+      <c r="X38" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="V38" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="W38" t="n">
-        <v>232.3303155802432</v>
-      </c>
-      <c r="X38" t="n">
-        <v>0</v>
       </c>
       <c r="Y38" t="n">
         <v>0</v>
@@ -3582,7 +3584,7 @@
         <v>0</v>
       </c>
       <c r="C39" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D39" t="n">
         <v>0</v>
@@ -3600,7 +3602,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3630,19 +3632,19 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S39" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T39" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U39" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V39" t="n">
-        <v>146.9591755082489</v>
+        <v>222.3082294474576</v>
       </c>
       <c r="W39" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X39" t="n">
         <v>0</v>
@@ -3700,19 +3702,19 @@
         <v>0</v>
       </c>
       <c r="P40" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>47.02492433367365</v>
       </c>
       <c r="T40" t="n">
-        <v>130.4655268502615</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -3737,76 +3739,76 @@
         </is>
       </c>
       <c r="B41" t="n">
+        <v>0</v>
+      </c>
+      <c r="C41" t="n">
+        <v>0</v>
+      </c>
+      <c r="D41" t="n">
+        <v>0</v>
+      </c>
+      <c r="E41" t="n">
+        <v>0</v>
+      </c>
+      <c r="F41" t="n">
+        <v>0</v>
+      </c>
+      <c r="G41" t="n">
+        <v>0</v>
+      </c>
+      <c r="H41" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="C41" t="n">
+      <c r="I41" t="n">
+        <v>210.4758895704059</v>
+      </c>
+      <c r="J41" t="n">
+        <v>11.94928935461252</v>
+      </c>
+      <c r="K41" t="n">
+        <v>0</v>
+      </c>
+      <c r="L41" t="n">
+        <v>0</v>
+      </c>
+      <c r="M41" t="n">
+        <v>0</v>
+      </c>
+      <c r="N41" t="n">
+        <v>0</v>
+      </c>
+      <c r="O41" t="n">
+        <v>0</v>
+      </c>
+      <c r="P41" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>0</v>
+      </c>
+      <c r="R41" t="n">
+        <v>0</v>
+      </c>
+      <c r="S41" t="n">
+        <v>0</v>
+      </c>
+      <c r="T41" t="n">
+        <v>0</v>
+      </c>
+      <c r="U41" t="n">
+        <v>0</v>
+      </c>
+      <c r="V41" t="n">
+        <v>0</v>
+      </c>
+      <c r="W41" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="D41" t="n">
-        <v>0</v>
-      </c>
-      <c r="E41" t="n">
-        <v>0</v>
-      </c>
-      <c r="F41" t="n">
-        <v>0</v>
-      </c>
-      <c r="G41" t="n">
-        <v>0</v>
-      </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
-      <c r="I41" t="n">
-        <v>0</v>
-      </c>
-      <c r="J41" t="n">
-        <v>0</v>
-      </c>
-      <c r="K41" t="n">
-        <v>0</v>
-      </c>
-      <c r="L41" t="n">
-        <v>0</v>
-      </c>
-      <c r="M41" t="n">
-        <v>0</v>
-      </c>
-      <c r="N41" t="n">
-        <v>0</v>
-      </c>
-      <c r="O41" t="n">
-        <v>0</v>
-      </c>
-      <c r="P41" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q41" t="n">
-        <v>0</v>
-      </c>
-      <c r="R41" t="n">
-        <v>0</v>
-      </c>
-      <c r="S41" t="n">
-        <v>0</v>
-      </c>
-      <c r="T41" t="n">
-        <v>212.285385643442</v>
-      </c>
-      <c r="U41" t="n">
-        <v>0</v>
-      </c>
-      <c r="V41" t="n">
-        <v>0</v>
-      </c>
-      <c r="W41" t="n">
-        <v>0</v>
-      </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>230.8744955960827</v>
       </c>
       <c r="Y41" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -3816,13 +3818,13 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C42" t="n">
-        <v>46.79470495664743</v>
+        <v>0</v>
       </c>
       <c r="D42" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E42" t="n">
         <v>157.6450804554009</v>
@@ -3834,13 +3836,13 @@
         <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -3864,19 +3866,19 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T42" t="n">
-        <v>0</v>
+        <v>115.1481656116171</v>
       </c>
       <c r="U42" t="n">
         <v>0</v>
       </c>
       <c r="V42" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W42" t="n">
         <v>0</v>
@@ -3937,10 +3939,10 @@
         <v>0</v>
       </c>
       <c r="P43" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q43" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -3958,7 +3960,7 @@
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>133.186967585368</v>
+        <v>44.30348359856715</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -4028,7 +4030,7 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
@@ -4037,13 +4039,13 @@
         <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>212.285385643442</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>241.0142888776591</v>
+        <v>230.2038249569697</v>
       </c>
     </row>
     <row r="45">
@@ -4056,28 +4058,28 @@
         <v>0</v>
       </c>
       <c r="C45" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D45" t="n">
         <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>0</v>
+        <v>0.6806854287134353</v>
       </c>
       <c r="F45" t="n">
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -4101,28 +4103,28 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S45" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T45" t="n">
         <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
       </c>
       <c r="W45" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X45" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y45" t="n">
-        <v>90.91642501047011</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="46">
@@ -4144,52 +4146,52 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
+        <v>0</v>
+      </c>
+      <c r="G46" t="n">
+        <v>0</v>
+      </c>
+      <c r="H46" t="n">
+        <v>0</v>
+      </c>
+      <c r="I46" t="n">
+        <v>0</v>
+      </c>
+      <c r="J46" t="n">
+        <v>0</v>
+      </c>
+      <c r="K46" t="n">
+        <v>0</v>
+      </c>
+      <c r="L46" t="n">
+        <v>0</v>
+      </c>
+      <c r="M46" t="n">
+        <v>0</v>
+      </c>
+      <c r="N46" t="n">
+        <v>0</v>
+      </c>
+      <c r="O46" t="n">
+        <v>0</v>
+      </c>
+      <c r="P46" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>0</v>
+      </c>
+      <c r="R46" t="n">
+        <v>0</v>
+      </c>
+      <c r="S46" t="n">
+        <v>0</v>
+      </c>
+      <c r="T46" t="n">
+        <v>0</v>
+      </c>
+      <c r="U46" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="G46" t="n">
-        <v>0</v>
-      </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
-      <c r="I46" t="n">
-        <v>0</v>
-      </c>
-      <c r="J46" t="n">
-        <v>0</v>
-      </c>
-      <c r="K46" t="n">
-        <v>0</v>
-      </c>
-      <c r="L46" t="n">
-        <v>0</v>
-      </c>
-      <c r="M46" t="n">
-        <v>0</v>
-      </c>
-      <c r="N46" t="n">
-        <v>0</v>
-      </c>
-      <c r="O46" t="n">
-        <v>0</v>
-      </c>
-      <c r="P46" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q46" t="n">
-        <v>0</v>
-      </c>
-      <c r="R46" t="n">
-        <v>0</v>
-      </c>
-      <c r="S46" t="n">
-        <v>0</v>
-      </c>
-      <c r="T46" t="n">
-        <v>0</v>
-      </c>
-      <c r="U46" t="n">
-        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -4304,19 +4306,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>51.89093722176946</v>
+        <v>173.385681888029</v>
       </c>
       <c r="C2" t="n">
-        <v>51.89093722176946</v>
+        <v>119.3326222820192</v>
       </c>
       <c r="D2" t="n">
-        <v>51.89093722176946</v>
+        <v>65.27956267600931</v>
       </c>
       <c r="E2" t="n">
-        <v>51.89093722176946</v>
+        <v>65.27956267600931</v>
       </c>
       <c r="F2" t="n">
-        <v>19.73831294214452</v>
+        <v>58.33406192680583</v>
       </c>
       <c r="G2" t="n">
         <v>4.28100232079598</v>
@@ -4331,19 +4333,19 @@
         <v>4.28100232079598</v>
       </c>
       <c r="K2" t="n">
+        <v>4.28100232079598</v>
+      </c>
+      <c r="L2" t="n">
+        <v>4.28100232079598</v>
+      </c>
+      <c r="M2" t="n">
         <v>57.25840604064623</v>
       </c>
-      <c r="L2" t="n">
+      <c r="N2" t="n">
         <v>110.2358097604965</v>
       </c>
-      <c r="M2" t="n">
-        <v>110.2358097604965</v>
-      </c>
-      <c r="N2" t="n">
-        <v>163.2132134803467</v>
-      </c>
       <c r="O2" t="n">
-        <v>214.050116039799</v>
+        <v>161.0727123199487</v>
       </c>
       <c r="P2" t="n">
         <v>214.050116039799</v>
@@ -4358,22 +4360,22 @@
         <v>214.050116039799</v>
       </c>
       <c r="T2" t="n">
-        <v>159.9970564337892</v>
+        <v>214.050116039799</v>
       </c>
       <c r="U2" t="n">
-        <v>105.9439968277793</v>
+        <v>214.050116039799</v>
       </c>
       <c r="V2" t="n">
-        <v>51.89093722176946</v>
+        <v>214.050116039799</v>
       </c>
       <c r="W2" t="n">
-        <v>51.89093722176946</v>
+        <v>214.050116039799</v>
       </c>
       <c r="X2" t="n">
-        <v>51.89093722176946</v>
+        <v>214.050116039799</v>
       </c>
       <c r="Y2" t="n">
-        <v>51.89093722176946</v>
+        <v>173.385681888029</v>
       </c>
     </row>
     <row r="3">
@@ -4383,10 +4385,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>159.9970564337892</v>
+        <v>105.9439968277793</v>
       </c>
       <c r="C3" t="n">
-        <v>159.9970564337892</v>
+        <v>105.9439968277793</v>
       </c>
       <c r="D3" t="n">
         <v>105.9439968277793</v>
@@ -4401,37 +4403,37 @@
         <v>51.89093722176946</v>
       </c>
       <c r="H3" t="n">
-        <v>4.28100232079598</v>
+        <v>5.035134973581694</v>
       </c>
       <c r="I3" t="n">
-        <v>4.28100232079598</v>
+        <v>5.035134973581694</v>
       </c>
       <c r="J3" t="n">
         <v>4.28100232079598</v>
       </c>
       <c r="K3" t="n">
-        <v>4.28100232079598</v>
+        <v>55.11790488024824</v>
       </c>
       <c r="L3" t="n">
-        <v>4.28100232079598</v>
+        <v>55.11790488024824</v>
       </c>
       <c r="M3" t="n">
-        <v>57.25840604064623</v>
+        <v>108.0953086000985</v>
       </c>
       <c r="N3" t="n">
-        <v>108.0953086000985</v>
+        <v>161.0727123199487</v>
       </c>
       <c r="O3" t="n">
-        <v>108.0953086000985</v>
+        <v>161.0727123199487</v>
       </c>
       <c r="P3" t="n">
-        <v>161.0727123199487</v>
+        <v>214.050116039799</v>
       </c>
       <c r="Q3" t="n">
         <v>214.050116039799</v>
       </c>
       <c r="R3" t="n">
-        <v>214.050116039799</v>
+        <v>159.9970564337892</v>
       </c>
       <c r="S3" t="n">
         <v>159.9970564337892</v>
@@ -4468,10 +4470,10 @@
         <v>58.33406192680583</v>
       </c>
       <c r="D4" t="n">
-        <v>4.28100232079598</v>
+        <v>58.33406192680583</v>
       </c>
       <c r="E4" t="n">
-        <v>4.28100232079598</v>
+        <v>58.33406192680583</v>
       </c>
       <c r="F4" t="n">
         <v>4.28100232079598</v>
@@ -4510,28 +4512,28 @@
         <v>138.8132928110667</v>
       </c>
       <c r="R4" t="n">
-        <v>112.3871215328157</v>
+        <v>138.8132928110667</v>
       </c>
       <c r="S4" t="n">
-        <v>112.3871215328157</v>
+        <v>138.8132928110667</v>
       </c>
       <c r="T4" t="n">
-        <v>112.3871215328157</v>
+        <v>138.8132928110667</v>
       </c>
       <c r="U4" t="n">
-        <v>112.3871215328157</v>
+        <v>138.8132928110667</v>
       </c>
       <c r="V4" t="n">
-        <v>112.3871215328157</v>
+        <v>84.76023320505688</v>
       </c>
       <c r="W4" t="n">
-        <v>112.3871215328157</v>
+        <v>84.76023320505688</v>
       </c>
       <c r="X4" t="n">
-        <v>112.3871215328157</v>
+        <v>58.33406192680583</v>
       </c>
       <c r="Y4" t="n">
-        <v>112.3871215328157</v>
+        <v>58.33406192680583</v>
       </c>
     </row>
     <row r="5">
@@ -4550,7 +4552,7 @@
         <v>477.1596022224361</v>
       </c>
       <c r="E5" t="n">
-        <v>477.1596022224361</v>
+        <v>281.7454097505996</v>
       </c>
       <c r="F5" t="n">
         <v>274.7999090013961</v>
@@ -4620,25 +4622,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>397.4029371266039</v>
+        <v>304.5465265007123</v>
       </c>
       <c r="C6" t="n">
-        <v>222.9499078454769</v>
+        <v>304.5465265007123</v>
       </c>
       <c r="D6" t="n">
-        <v>222.9499078454769</v>
+        <v>304.5465265007123</v>
       </c>
       <c r="E6" t="n">
-        <v>222.9499078454769</v>
+        <v>304.5465265007123</v>
       </c>
       <c r="F6" t="n">
-        <v>222.9499078454769</v>
+        <v>158.0119685275972</v>
       </c>
       <c r="G6" t="n">
-        <v>222.9499078454769</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H6" t="n">
-        <v>109.5807722530562</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I6" t="n">
         <v>19.28114311021272</v>
@@ -4656,10 +4658,10 @@
         <v>613.2059550252818</v>
       </c>
       <c r="N6" t="n">
-        <v>613.2059550252818</v>
+        <v>851.8101010141643</v>
       </c>
       <c r="O6" t="n">
-        <v>712.019119383956</v>
+        <v>851.8101010141643</v>
       </c>
       <c r="P6" t="n">
         <v>894.6625969973069</v>
@@ -4674,22 +4676,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T6" t="n">
-        <v>964.0571555106362</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="U6" t="n">
-        <v>840.3153441233005</v>
+        <v>533.6469426057913</v>
       </c>
       <c r="V6" t="n">
-        <v>605.1632358915579</v>
+        <v>533.6469426057913</v>
       </c>
       <c r="W6" t="n">
-        <v>605.1632358915579</v>
+        <v>472.7618635207803</v>
       </c>
       <c r="X6" t="n">
-        <v>605.1632358915579</v>
+        <v>472.7618635207803</v>
       </c>
       <c r="Y6" t="n">
-        <v>397.4029371266039</v>
+        <v>472.7618635207803</v>
       </c>
     </row>
     <row r="7">
@@ -4762,10 +4764,10 @@
         <v>153.8134336004835</v>
       </c>
       <c r="W7" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X7" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y7" t="n">
         <v>19.28114311021272</v>
@@ -4778,25 +4780,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>72.23626279480629</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="C8" t="n">
-        <v>72.23626279480629</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="D8" t="n">
-        <v>72.23626279480629</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="E8" t="n">
-        <v>72.23626279480629</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="F8" t="n">
-        <v>34.73845373156126</v>
+        <v>470.2141014732327</v>
       </c>
       <c r="G8" t="n">
-        <v>19.28114311021272</v>
+        <v>226.7653248291326</v>
       </c>
       <c r="H8" t="n">
-        <v>19.28114311021272</v>
+        <v>226.7653248291326</v>
       </c>
       <c r="I8" t="n">
         <v>19.28114311021272</v>
@@ -4823,31 +4825,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q8" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R8" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S8" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T8" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U8" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V8" t="n">
-        <v>559.1338160830064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W8" t="n">
-        <v>559.1338160830064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X8" t="n">
-        <v>559.1338160830064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y8" t="n">
-        <v>315.6850394389064</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="9">
@@ -4857,16 +4859,16 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>193.7341723913397</v>
+        <v>324.1694235828572</v>
       </c>
       <c r="C9" t="n">
-        <v>19.28114311021272</v>
+        <v>165.8157010833278</v>
       </c>
       <c r="D9" t="n">
-        <v>19.28114311021272</v>
+        <v>165.8157010833278</v>
       </c>
       <c r="E9" t="n">
-        <v>19.28114311021272</v>
+        <v>165.8157010833278</v>
       </c>
       <c r="F9" t="n">
         <v>19.28114311021272</v>
@@ -4887,46 +4889,46 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L9" t="n">
-        <v>304.2053859195205</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M9" t="n">
-        <v>304.2053859195205</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N9" t="n">
-        <v>542.809531908403</v>
+        <v>851.8101010141643</v>
       </c>
       <c r="O9" t="n">
-        <v>781.4136778972854</v>
+        <v>851.8101010141643</v>
       </c>
       <c r="P9" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q9" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R9" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S9" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T9" t="n">
-        <v>487.2836868729568</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U9" t="n">
-        <v>259.0600686093459</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="V9" t="n">
-        <v>193.7341723913397</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="W9" t="n">
-        <v>193.7341723913397</v>
+        <v>492.3847606029253</v>
       </c>
       <c r="X9" t="n">
-        <v>193.7341723913397</v>
+        <v>492.3847606029253</v>
       </c>
       <c r="Y9" t="n">
-        <v>193.7341723913397</v>
+        <v>492.3847606029253</v>
       </c>
     </row>
     <row r="10">
@@ -4978,34 +4980,34 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P10" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q10" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R10" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S10" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T10" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U10" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V10" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W10" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X10" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y10" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="11">
@@ -5015,28 +5017,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>19.28114311021272</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="C11" t="n">
-        <v>19.28114311021272</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="D11" t="n">
-        <v>19.28114311021272</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="E11" t="n">
-        <v>19.28114311021272</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="F11" t="n">
-        <v>19.28114311021272</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="G11" t="n">
-        <v>19.28114311021272</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="H11" t="n">
-        <v>19.28114311021272</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="I11" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J11" t="n">
         <v>19.28114311021272</v>
@@ -5060,31 +5062,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q11" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R11" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S11" t="n">
-        <v>591.4512093066566</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T11" t="n">
-        <v>366.1018663125844</v>
+        <v>738.7078125165641</v>
       </c>
       <c r="U11" t="n">
-        <v>122.6530896684844</v>
+        <v>495.259035872464</v>
       </c>
       <c r="V11" t="n">
-        <v>19.28114311021272</v>
+        <v>495.259035872464</v>
       </c>
       <c r="W11" t="n">
-        <v>19.28114311021272</v>
+        <v>251.810259228364</v>
       </c>
       <c r="X11" t="n">
-        <v>19.28114311021272</v>
+        <v>251.810259228364</v>
       </c>
       <c r="Y11" t="n">
-        <v>19.28114311021272</v>
+        <v>251.810259228364</v>
       </c>
     </row>
     <row r="12">
@@ -5124,13 +5126,13 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L12" t="n">
-        <v>374.6018090363993</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="M12" t="n">
-        <v>613.2059550252818</v>
+        <v>542.809531908403</v>
       </c>
       <c r="N12" t="n">
-        <v>613.2059550252818</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="O12" t="n">
         <v>781.4136778972854</v>
@@ -5142,22 +5144,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R12" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S12" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T12" t="n">
-        <v>487.2836868729568</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="U12" t="n">
-        <v>259.0600686093459</v>
+        <v>705.7335281915883</v>
       </c>
       <c r="V12" t="n">
-        <v>23.90796037760316</v>
+        <v>470.5814199598456</v>
       </c>
       <c r="W12" t="n">
-        <v>19.28114311021272</v>
+        <v>227.1326433157456</v>
       </c>
       <c r="X12" t="n">
         <v>19.28114311021272</v>
@@ -5215,10 +5217,10 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P13" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q13" t="n">
-        <v>64.03213664411894</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R13" t="n">
         <v>19.28114311021272</v>
@@ -5252,28 +5254,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>964.0571555106362</v>
+        <v>718.7806050553886</v>
       </c>
       <c r="C14" t="n">
-        <v>964.0571555106362</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="D14" t="n">
-        <v>964.0571555106362</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="E14" t="n">
-        <v>964.0571555106362</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="F14" t="n">
-        <v>720.6083788665362</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="G14" t="n">
-        <v>477.1596022224361</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="H14" t="n">
-        <v>233.7108255783361</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="I14" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J14" t="n">
         <v>19.28114311021272</v>
@@ -5321,7 +5323,7 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Y14" t="n">
-        <v>964.0571555106362</v>
+        <v>962.2293816994886</v>
       </c>
     </row>
     <row r="15">
@@ -5331,22 +5333,22 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>19.28114311021272</v>
+        <v>281.5846883638847</v>
       </c>
       <c r="C15" t="n">
-        <v>19.28114311021272</v>
+        <v>281.5846883638847</v>
       </c>
       <c r="D15" t="n">
-        <v>19.28114311021272</v>
+        <v>132.6502787026334</v>
       </c>
       <c r="E15" t="n">
-        <v>19.28114311021272</v>
+        <v>132.6502787026334</v>
       </c>
       <c r="F15" t="n">
-        <v>19.28114311021272</v>
+        <v>132.6502787026334</v>
       </c>
       <c r="G15" t="n">
-        <v>19.28114311021272</v>
+        <v>132.6502787026334</v>
       </c>
       <c r="H15" t="n">
         <v>19.28114311021272</v>
@@ -5364,13 +5366,13 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M15" t="n">
-        <v>374.6018090363993</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N15" t="n">
-        <v>542.809531908403</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O15" t="n">
-        <v>781.4136778972854</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P15" t="n">
         <v>964.0571555106362</v>
@@ -5379,28 +5381,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R15" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S15" t="n">
-        <v>928.2922408909005</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T15" t="n">
-        <v>726.1056462496665</v>
+        <v>717.6598068330284</v>
       </c>
       <c r="U15" t="n">
-        <v>497.8820279860555</v>
+        <v>489.4361885694175</v>
       </c>
       <c r="V15" t="n">
-        <v>262.7299197543128</v>
+        <v>489.4361885694175</v>
       </c>
       <c r="W15" t="n">
-        <v>19.28114311021272</v>
+        <v>489.4361885694175</v>
       </c>
       <c r="X15" t="n">
-        <v>19.28114311021272</v>
+        <v>281.5846883638847</v>
       </c>
       <c r="Y15" t="n">
-        <v>19.28114311021272</v>
+        <v>281.5846883638847</v>
       </c>
     </row>
     <row r="16">
@@ -5452,25 +5454,25 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P16" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q16" t="n">
-        <v>64.03213664411894</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R16" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S16" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T16" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U16" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V16" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W16" t="n">
         <v>19.28114311021272</v>
@@ -5489,28 +5491,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>19.28114311021272</v>
+        <v>730.8505943024719</v>
       </c>
       <c r="C17" t="n">
-        <v>19.28114311021272</v>
+        <v>730.8505943024719</v>
       </c>
       <c r="D17" t="n">
-        <v>19.28114311021272</v>
+        <v>730.8505943024719</v>
       </c>
       <c r="E17" t="n">
-        <v>19.28114311021272</v>
+        <v>730.8505943024719</v>
       </c>
       <c r="F17" t="n">
-        <v>19.28114311021272</v>
+        <v>487.4018176583718</v>
       </c>
       <c r="G17" t="n">
-        <v>19.28114311021272</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="H17" t="n">
-        <v>19.28114311021272</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="I17" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J17" t="n">
         <v>19.28114311021272</v>
@@ -5540,25 +5542,25 @@
         <v>802.5825927271064</v>
       </c>
       <c r="S17" t="n">
-        <v>591.4512093066566</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="T17" t="n">
-        <v>366.1018663125844</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="U17" t="n">
-        <v>122.6530896684844</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="V17" t="n">
-        <v>19.28114311021272</v>
+        <v>730.8505943024719</v>
       </c>
       <c r="W17" t="n">
-        <v>19.28114311021272</v>
+        <v>730.8505943024719</v>
       </c>
       <c r="X17" t="n">
-        <v>19.28114311021272</v>
+        <v>730.8505943024719</v>
       </c>
       <c r="Y17" t="n">
-        <v>19.28114311021272</v>
+        <v>730.8505943024719</v>
       </c>
     </row>
     <row r="18">
@@ -5568,25 +5570,25 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>795.8418184905681</v>
+        <v>217.6974229850125</v>
       </c>
       <c r="C18" t="n">
-        <v>621.3887892094411</v>
+        <v>43.24439370388544</v>
       </c>
       <c r="D18" t="n">
-        <v>472.4543795481899</v>
+        <v>43.24439370388544</v>
       </c>
       <c r="E18" t="n">
-        <v>313.2169245427344</v>
+        <v>43.24439370388544</v>
       </c>
       <c r="F18" t="n">
-        <v>166.6823665696193</v>
+        <v>43.24439370388544</v>
       </c>
       <c r="G18" t="n">
-        <v>27.95154115223485</v>
+        <v>43.24439370388544</v>
       </c>
       <c r="H18" t="n">
-        <v>27.95154115223485</v>
+        <v>43.24439370388544</v>
       </c>
       <c r="I18" t="n">
         <v>20.03527576299844</v>
@@ -5595,49 +5597,49 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K18" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L18" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M18" t="n">
-        <v>487.8483949674443</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N18" t="n">
-        <v>712.019119383956</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="O18" t="n">
-        <v>712.019119383956</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P18" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q18" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R18" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S18" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T18" t="n">
-        <v>964.0571555106362</v>
+        <v>660.701031422288</v>
       </c>
       <c r="U18" t="n">
-        <v>964.0571555106362</v>
+        <v>660.701031422288</v>
       </c>
       <c r="V18" t="n">
-        <v>964.0571555106362</v>
+        <v>425.5489231905453</v>
       </c>
       <c r="W18" t="n">
-        <v>964.0571555106362</v>
+        <v>425.5489231905453</v>
       </c>
       <c r="X18" t="n">
-        <v>964.0571555106362</v>
+        <v>217.6974229850125</v>
       </c>
       <c r="Y18" t="n">
-        <v>964.0571555106362</v>
+        <v>217.6974229850125</v>
       </c>
     </row>
     <row r="19">
@@ -5692,7 +5694,7 @@
         <v>153.8134336004835</v>
       </c>
       <c r="Q19" t="n">
-        <v>153.8134336004835</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="R19" t="n">
         <v>19.28114311021272</v>
@@ -5726,16 +5728,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>333.7844730889342</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C20" t="n">
-        <v>333.7844730889342</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D20" t="n">
-        <v>333.7844730889342</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E20" t="n">
-        <v>90.33569644483418</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F20" t="n">
         <v>19.28114311021272</v>
@@ -5783,19 +5785,19 @@
         <v>577.2332497330343</v>
       </c>
       <c r="U20" t="n">
-        <v>577.2332497330343</v>
+        <v>333.7844730889342</v>
       </c>
       <c r="V20" t="n">
-        <v>577.2332497330343</v>
+        <v>333.7844730889342</v>
       </c>
       <c r="W20" t="n">
-        <v>577.2332497330343</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="X20" t="n">
-        <v>333.7844730889342</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="Y20" t="n">
-        <v>333.7844730889342</v>
+        <v>262.7299197543128</v>
       </c>
     </row>
     <row r="21">
@@ -5805,16 +5807,16 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>487.2836868729568</v>
+        <v>193.7341723913397</v>
       </c>
       <c r="C21" t="n">
-        <v>312.8306575918298</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D21" t="n">
-        <v>163.8962479305785</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E21" t="n">
-        <v>163.8962479305785</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F21" t="n">
         <v>19.28114311021272</v>
@@ -5832,22 +5834,22 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K21" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L21" t="n">
-        <v>178.8501590306595</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M21" t="n">
-        <v>417.4543050195419</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="N21" t="n">
-        <v>656.0584510084244</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O21" t="n">
-        <v>894.6625969973069</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P21" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q21" t="n">
         <v>964.0571555106362</v>
@@ -5865,16 +5867,16 @@
         <v>487.2836868729568</v>
       </c>
       <c r="V21" t="n">
-        <v>487.2836868729568</v>
+        <v>401.5856725968725</v>
       </c>
       <c r="W21" t="n">
-        <v>487.2836868729568</v>
+        <v>401.5856725968725</v>
       </c>
       <c r="X21" t="n">
-        <v>487.2836868729568</v>
+        <v>193.7341723913397</v>
       </c>
       <c r="Y21" t="n">
-        <v>487.2836868729568</v>
+        <v>193.7341723913397</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L22" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M22" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N22" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O22" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P22" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q22" t="n">
-        <v>964.0571555106362</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="R22" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="S22" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="23">
@@ -5963,28 +5965,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>487.4018176583718</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C23" t="n">
-        <v>487.4018176583718</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D23" t="n">
-        <v>487.4018176583718</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E23" t="n">
-        <v>487.4018176583718</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F23" t="n">
-        <v>487.4018176583718</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G23" t="n">
-        <v>487.4018176583718</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H23" t="n">
-        <v>243.9530410142718</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I23" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J23" t="n">
         <v>19.28114311021272</v>
@@ -6008,31 +6010,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q23" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R23" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S23" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T23" t="n">
-        <v>964.0571555106362</v>
+        <v>728.6161971483371</v>
       </c>
       <c r="U23" t="n">
-        <v>964.0571555106362</v>
+        <v>485.167420504237</v>
       </c>
       <c r="V23" t="n">
-        <v>964.0571555106362</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="W23" t="n">
-        <v>730.8505943024719</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="X23" t="n">
-        <v>487.4018176583718</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="Y23" t="n">
-        <v>487.4018176583718</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="24">
@@ -6042,19 +6044,19 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>787.171420448546</v>
+        <v>246.4666730769152</v>
       </c>
       <c r="C24" t="n">
-        <v>612.718391167419</v>
+        <v>246.4666730769152</v>
       </c>
       <c r="D24" t="n">
-        <v>463.7839815061678</v>
+        <v>97.53226341566398</v>
       </c>
       <c r="E24" t="n">
-        <v>304.5465265007123</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F24" t="n">
-        <v>158.0119685275972</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G24" t="n">
         <v>19.28114311021272</v>
@@ -6072,46 +6074,46 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L24" t="n">
-        <v>374.6018090363993</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="M24" t="n">
-        <v>542.809531908403</v>
+        <v>383.2428491569326</v>
       </c>
       <c r="N24" t="n">
-        <v>781.4136778972854</v>
+        <v>621.8469951458151</v>
       </c>
       <c r="O24" t="n">
-        <v>781.4136778972854</v>
+        <v>860.4511411346975</v>
       </c>
       <c r="P24" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q24" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R24" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S24" t="n">
-        <v>964.0571555106362</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T24" t="n">
-        <v>964.0571555106362</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="U24" t="n">
-        <v>964.0571555106362</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="V24" t="n">
-        <v>964.0571555106362</v>
+        <v>454.3181732824481</v>
       </c>
       <c r="W24" t="n">
-        <v>964.0571555106362</v>
+        <v>454.3181732824481</v>
       </c>
       <c r="X24" t="n">
-        <v>964.0571555106362</v>
+        <v>246.4666730769152</v>
       </c>
       <c r="Y24" t="n">
-        <v>787.171420448546</v>
+        <v>246.4666730769152</v>
       </c>
     </row>
     <row r="25">
@@ -6163,22 +6165,22 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P25" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Q25" t="n">
-        <v>153.8134336004835</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="R25" t="n">
-        <v>153.8134336004835</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="S25" t="n">
-        <v>153.8134336004835</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="T25" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U25" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V25" t="n">
         <v>19.28114311021272</v>
@@ -6200,19 +6202,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>485.167420504237</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C26" t="n">
-        <v>485.167420504237</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D26" t="n">
-        <v>485.167420504237</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E26" t="n">
-        <v>485.167420504237</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F26" t="n">
-        <v>241.7186438601369</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G26" t="n">
         <v>19.28114311021272</v>
@@ -6254,22 +6256,22 @@
         <v>953.9655401424092</v>
       </c>
       <c r="T26" t="n">
-        <v>728.6161971483371</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U26" t="n">
-        <v>485.167420504237</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="V26" t="n">
-        <v>485.167420504237</v>
+        <v>710.516763498309</v>
       </c>
       <c r="W26" t="n">
-        <v>485.167420504237</v>
+        <v>710.516763498309</v>
       </c>
       <c r="X26" t="n">
-        <v>485.167420504237</v>
+        <v>710.516763498309</v>
       </c>
       <c r="Y26" t="n">
-        <v>485.167420504237</v>
+        <v>467.067986854209</v>
       </c>
     </row>
     <row r="27">
@@ -6279,43 +6281,43 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>487.2836868729568</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C27" t="n">
-        <v>487.2836868729568</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D27" t="n">
-        <v>487.2836868729568</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E27" t="n">
-        <v>487.2836868729568</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F27" t="n">
-        <v>362.4348659156472</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G27" t="n">
-        <v>223.7040404982626</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H27" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I27" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J27" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K27" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L27" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M27" t="n">
-        <v>487.8483949674443</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N27" t="n">
-        <v>726.4525409563269</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="O27" t="n">
         <v>781.4136778972854</v>
@@ -6342,13 +6344,13 @@
         <v>487.2836868729568</v>
       </c>
       <c r="W27" t="n">
-        <v>487.2836868729568</v>
+        <v>243.8349102288568</v>
       </c>
       <c r="X27" t="n">
-        <v>487.2836868729568</v>
+        <v>35.98341002332393</v>
       </c>
       <c r="Y27" t="n">
-        <v>487.2836868729568</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="28">
@@ -6400,31 +6402,31 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P28" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Q28" t="n">
-        <v>66.78106667958005</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="R28" t="n">
-        <v>66.78106667958005</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="S28" t="n">
-        <v>66.78106667958005</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T28" t="n">
-        <v>66.78106667958005</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U28" t="n">
-        <v>66.78106667958005</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V28" t="n">
-        <v>66.78106667958005</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W28" t="n">
-        <v>66.78106667958005</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X28" t="n">
-        <v>66.78106667958005</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y28" t="n">
         <v>19.28114311021272</v>
@@ -6437,10 +6439,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>262.7299197543128</v>
+        <v>223.6192102101089</v>
       </c>
       <c r="C29" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D29" t="n">
         <v>19.28114311021272</v>
@@ -6482,31 +6484,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q29" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R29" t="n">
-        <v>942.6594228129348</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S29" t="n">
-        <v>731.528039392485</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T29" t="n">
-        <v>506.1786963984129</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U29" t="n">
-        <v>262.7299197543128</v>
+        <v>710.516763498309</v>
       </c>
       <c r="V29" t="n">
-        <v>262.7299197543128</v>
+        <v>467.067986854209</v>
       </c>
       <c r="W29" t="n">
-        <v>262.7299197543128</v>
+        <v>223.6192102101089</v>
       </c>
       <c r="X29" t="n">
-        <v>262.7299197543128</v>
+        <v>223.6192102101089</v>
       </c>
       <c r="Y29" t="n">
-        <v>262.7299197543128</v>
+        <v>223.6192102101089</v>
       </c>
     </row>
     <row r="30">
@@ -6516,40 +6518,40 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>454.3181732824481</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C30" t="n">
-        <v>454.3181732824481</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D30" t="n">
-        <v>454.3181732824481</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E30" t="n">
-        <v>454.3181732824481</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F30" t="n">
-        <v>307.7836153093331</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G30" t="n">
-        <v>169.0527898919486</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H30" t="n">
-        <v>55.6836542995279</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I30" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J30" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K30" t="n">
-        <v>144.6387031680501</v>
+        <v>65.60123993063803</v>
       </c>
       <c r="L30" t="n">
-        <v>374.6018090363993</v>
+        <v>65.60123993063803</v>
       </c>
       <c r="M30" t="n">
-        <v>542.809531908403</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="N30" t="n">
         <v>542.809531908403</v>
@@ -6570,22 +6572,22 @@
         <v>689.4702815141908</v>
       </c>
       <c r="T30" t="n">
-        <v>689.4702815141908</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="U30" t="n">
-        <v>689.4702815141908</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="V30" t="n">
-        <v>454.3181732824481</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="W30" t="n">
-        <v>454.3181732824481</v>
+        <v>243.8349102288568</v>
       </c>
       <c r="X30" t="n">
-        <v>454.3181732824481</v>
+        <v>243.8349102288568</v>
       </c>
       <c r="Y30" t="n">
-        <v>454.3181732824481</v>
+        <v>36.07461146390284</v>
       </c>
     </row>
     <row r="31">
@@ -6637,22 +6639,22 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P31" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Q31" t="n">
-        <v>153.8134336004835</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="R31" t="n">
-        <v>153.8134336004835</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="S31" t="n">
-        <v>153.8134336004835</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="T31" t="n">
-        <v>153.8134336004835</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="U31" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V31" t="n">
         <v>19.28114311021272</v>
@@ -6674,25 +6676,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>19.28114311021272</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="C32" t="n">
-        <v>19.28114311021272</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="D32" t="n">
-        <v>19.28114311021272</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="E32" t="n">
-        <v>19.28114311021272</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="F32" t="n">
-        <v>19.28114311021272</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="G32" t="n">
-        <v>19.28114311021272</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="H32" t="n">
-        <v>19.28114311021272</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="I32" t="n">
         <v>19.28114311021272</v>
@@ -6719,31 +6721,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q32" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R32" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S32" t="n">
-        <v>964.0571555106362</v>
+        <v>742.8341567219593</v>
       </c>
       <c r="T32" t="n">
-        <v>964.0571555106362</v>
+        <v>718.7806050553886</v>
       </c>
       <c r="U32" t="n">
-        <v>720.6083788665362</v>
+        <v>718.7806050553886</v>
       </c>
       <c r="V32" t="n">
-        <v>720.6083788665362</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="W32" t="n">
-        <v>477.1596022224361</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="X32" t="n">
-        <v>233.7108255783361</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="Y32" t="n">
-        <v>19.28114311021272</v>
+        <v>475.3318284112885</v>
       </c>
     </row>
     <row r="33">
@@ -6753,22 +6755,22 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>83.81530782185143</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C33" t="n">
-        <v>83.81530782185143</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D33" t="n">
-        <v>83.81530782185143</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E33" t="n">
-        <v>83.81530782185143</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F33" t="n">
-        <v>83.81530782185143</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G33" t="n">
-        <v>83.81530782185143</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H33" t="n">
         <v>19.28114311021272</v>
@@ -6789,7 +6791,7 @@
         <v>613.2059550252818</v>
       </c>
       <c r="N33" t="n">
-        <v>851.8101010141643</v>
+        <v>656.0584510084244</v>
       </c>
       <c r="O33" t="n">
         <v>894.6625969973069</v>
@@ -6801,28 +6803,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R33" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S33" t="n">
-        <v>790.6398109613051</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T33" t="n">
-        <v>790.6398109613051</v>
+        <v>660.701031422288</v>
       </c>
       <c r="U33" t="n">
-        <v>562.4161926976942</v>
+        <v>660.701031422288</v>
       </c>
       <c r="V33" t="n">
-        <v>327.2640844659515</v>
+        <v>425.5489231905453</v>
       </c>
       <c r="W33" t="n">
-        <v>83.81530782185143</v>
+        <v>395.2567788952347</v>
       </c>
       <c r="X33" t="n">
-        <v>83.81530782185143</v>
+        <v>395.2567788952347</v>
       </c>
       <c r="Y33" t="n">
-        <v>83.81530782185143</v>
+        <v>187.4964801302808</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L34" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M34" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N34" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P34" t="n">
-        <v>964.0571555106362</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Q34" t="n">
-        <v>964.0571555106362</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="R34" t="n">
-        <v>964.0571555106362</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="S34" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="35">
@@ -6911,13 +6913,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>233.7108255783361</v>
+        <v>132.7447050367114</v>
       </c>
       <c r="C35" t="n">
-        <v>233.7108255783361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D35" t="n">
-        <v>233.7108255783361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E35" t="n">
         <v>19.28114311021272</v>
@@ -6959,28 +6961,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R35" t="n">
-        <v>964.0571555106362</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="S35" t="n">
-        <v>964.0571555106362</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="T35" t="n">
-        <v>964.0571555106362</v>
+        <v>376.1934816808115</v>
       </c>
       <c r="U35" t="n">
-        <v>720.6083788665362</v>
+        <v>132.7447050367114</v>
       </c>
       <c r="V35" t="n">
-        <v>477.1596022224361</v>
+        <v>132.7447050367114</v>
       </c>
       <c r="W35" t="n">
-        <v>233.7108255783361</v>
+        <v>132.7447050367114</v>
       </c>
       <c r="X35" t="n">
-        <v>233.7108255783361</v>
+        <v>132.7447050367114</v>
       </c>
       <c r="Y35" t="n">
-        <v>233.7108255783361</v>
+        <v>132.7447050367114</v>
       </c>
     </row>
     <row r="36">
@@ -6990,28 +6992,28 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>313.4946457291688</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C36" t="n">
-        <v>313.4946457291688</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D36" t="n">
-        <v>164.5602360679176</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E36" t="n">
-        <v>164.5602360679176</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F36" t="n">
-        <v>164.5602360679176</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G36" t="n">
-        <v>164.5602360679176</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H36" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I36" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J36" t="n">
         <v>19.28114311021272</v>
@@ -7020,13 +7022,13 @@
         <v>19.28114311021272</v>
       </c>
       <c r="L36" t="n">
-        <v>19.28114311021272</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M36" t="n">
-        <v>234.810827406191</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="N36" t="n">
-        <v>473.4149733950735</v>
+        <v>712.019119383956</v>
       </c>
       <c r="O36" t="n">
         <v>712.019119383956</v>
@@ -7038,28 +7040,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R36" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S36" t="n">
-        <v>689.4702815141908</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T36" t="n">
-        <v>689.4702815141908</v>
+        <v>670.0450503124422</v>
       </c>
       <c r="U36" t="n">
-        <v>689.4702815141908</v>
+        <v>670.0450503124422</v>
       </c>
       <c r="V36" t="n">
-        <v>689.4702815141908</v>
+        <v>434.8929420806995</v>
       </c>
       <c r="W36" t="n">
-        <v>689.4702815141908</v>
+        <v>434.8929420806995</v>
       </c>
       <c r="X36" t="n">
-        <v>689.4702815141908</v>
+        <v>227.0414418751666</v>
       </c>
       <c r="Y36" t="n">
-        <v>481.7099827492369</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="37">
@@ -7114,19 +7116,19 @@
         <v>153.8134336004835</v>
       </c>
       <c r="Q37" t="n">
-        <v>153.8134336004835</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="R37" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="S37" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T37" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U37" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V37" t="n">
         <v>19.28114311021272</v>
@@ -7193,31 +7195,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q38" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R38" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S38" t="n">
-        <v>752.9257720901863</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T38" t="n">
-        <v>752.9257720901863</v>
+        <v>728.6161971483371</v>
       </c>
       <c r="U38" t="n">
-        <v>509.4769954460863</v>
+        <v>728.6161971483371</v>
       </c>
       <c r="V38" t="n">
-        <v>266.0282188019862</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="W38" t="n">
-        <v>31.35113235729608</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="X38" t="n">
-        <v>31.35113235729608</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="Y38" t="n">
-        <v>31.35113235729608</v>
+        <v>274.7999090013961</v>
       </c>
     </row>
     <row r="39">
@@ -7227,25 +7229,25 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>284.0338015341832</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C39" t="n">
-        <v>109.5807722530562</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D39" t="n">
-        <v>109.5807722530562</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E39" t="n">
-        <v>109.5807722530562</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F39" t="n">
-        <v>109.5807722530562</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G39" t="n">
-        <v>109.5807722530562</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H39" t="n">
-        <v>109.5807722530562</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I39" t="n">
         <v>19.28114311021272</v>
@@ -7257,13 +7259,13 @@
         <v>19.28114311021272</v>
       </c>
       <c r="L39" t="n">
-        <v>249.2442489785619</v>
+        <v>65.60123993063803</v>
       </c>
       <c r="M39" t="n">
-        <v>487.8483949674443</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="N39" t="n">
-        <v>726.4525409563269</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O39" t="n">
         <v>781.4136778972854</v>
@@ -7278,25 +7280,25 @@
         <v>862.8876260635219</v>
       </c>
       <c r="S39" t="n">
-        <v>862.8876260635219</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T39" t="n">
-        <v>660.701031422288</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="U39" t="n">
-        <v>432.4774131586771</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="V39" t="n">
-        <v>284.0338015341832</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="W39" t="n">
-        <v>284.0338015341832</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X39" t="n">
-        <v>284.0338015341832</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y39" t="n">
-        <v>284.0338015341832</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="40">
@@ -7348,16 +7350,16 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P40" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q40" t="n">
-        <v>151.0645035650224</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="R40" t="n">
-        <v>151.0645035650224</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="S40" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T40" t="n">
         <v>19.28114311021272</v>
@@ -7385,28 +7387,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>262.7299197543128</v>
+        <v>487.4018176583718</v>
       </c>
       <c r="C41" t="n">
-        <v>19.28114311021272</v>
+        <v>487.4018176583718</v>
       </c>
       <c r="D41" t="n">
-        <v>19.28114311021272</v>
+        <v>487.4018176583718</v>
       </c>
       <c r="E41" t="n">
-        <v>19.28114311021272</v>
+        <v>487.4018176583718</v>
       </c>
       <c r="F41" t="n">
-        <v>19.28114311021272</v>
+        <v>487.4018176583718</v>
       </c>
       <c r="G41" t="n">
-        <v>19.28114311021272</v>
+        <v>487.4018176583718</v>
       </c>
       <c r="H41" t="n">
-        <v>19.28114311021272</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="I41" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J41" t="n">
         <v>19.28114311021272</v>
@@ -7439,22 +7441,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T41" t="n">
-        <v>749.627473042513</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U41" t="n">
-        <v>749.627473042513</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V41" t="n">
-        <v>749.627473042513</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W41" t="n">
-        <v>749.627473042513</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="X41" t="n">
-        <v>749.627473042513</v>
+        <v>487.4018176583718</v>
       </c>
       <c r="Y41" t="n">
-        <v>506.1786963984129</v>
+        <v>487.4018176583718</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>521.2549444941228</v>
+        <v>439.1764243339896</v>
       </c>
       <c r="C42" t="n">
-        <v>473.9875657500345</v>
+        <v>439.1764243339896</v>
       </c>
       <c r="D42" t="n">
-        <v>325.0531560887832</v>
+        <v>439.1764243339896</v>
       </c>
       <c r="E42" t="n">
-        <v>165.8157010833278</v>
+        <v>279.9389693285341</v>
       </c>
       <c r="F42" t="n">
-        <v>19.28114311021272</v>
+        <v>133.4044113554191</v>
       </c>
       <c r="G42" t="n">
-        <v>19.28114311021272</v>
+        <v>133.4044113554191</v>
       </c>
       <c r="H42" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I42" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J42" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K42" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L42" t="n">
-        <v>65.60123993063803</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M42" t="n">
-        <v>304.2053859195205</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="N42" t="n">
-        <v>542.809531908403</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O42" t="n">
-        <v>781.4136778972854</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P42" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q42" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R42" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S42" t="n">
-        <v>689.4702815141908</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T42" t="n">
-        <v>689.4702815141908</v>
+        <v>674.3285325657323</v>
       </c>
       <c r="U42" t="n">
-        <v>689.4702815141908</v>
+        <v>674.3285325657323</v>
       </c>
       <c r="V42" t="n">
-        <v>689.4702815141908</v>
+        <v>439.1764243339896</v>
       </c>
       <c r="W42" t="n">
-        <v>689.4702815141908</v>
+        <v>439.1764243339896</v>
       </c>
       <c r="X42" t="n">
-        <v>689.4702815141908</v>
+        <v>439.1764243339896</v>
       </c>
       <c r="Y42" t="n">
-        <v>689.4702815141908</v>
+        <v>439.1764243339896</v>
       </c>
     </row>
     <row r="43">
@@ -7585,25 +7587,25 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P43" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Q43" t="n">
-        <v>153.8134336004835</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="R43" t="n">
-        <v>153.8134336004835</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="S43" t="n">
-        <v>153.8134336004835</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="T43" t="n">
-        <v>153.8134336004835</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="U43" t="n">
-        <v>153.8134336004835</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="V43" t="n">
-        <v>153.8134336004835</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="W43" t="n">
         <v>19.28114311021272</v>
@@ -7676,19 +7678,19 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T44" t="n">
-        <v>964.0571555106362</v>
+        <v>738.7078125165641</v>
       </c>
       <c r="U44" t="n">
-        <v>964.0571555106362</v>
+        <v>738.7078125165641</v>
       </c>
       <c r="V44" t="n">
-        <v>964.0571555106362</v>
+        <v>738.7078125165641</v>
       </c>
       <c r="W44" t="n">
-        <v>749.627473042513</v>
+        <v>738.7078125165641</v>
       </c>
       <c r="X44" t="n">
-        <v>749.627473042513</v>
+        <v>738.7078125165641</v>
       </c>
       <c r="Y44" t="n">
         <v>506.1786963984129</v>
@@ -7701,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>19.28114311021272</v>
+        <v>447.2758270930352</v>
       </c>
       <c r="C45" t="n">
-        <v>19.28114311021272</v>
+        <v>272.8227978119081</v>
       </c>
       <c r="D45" t="n">
-        <v>19.28114311021272</v>
+        <v>272.8227978119081</v>
       </c>
       <c r="E45" t="n">
-        <v>19.28114311021272</v>
+        <v>272.1352367728036</v>
       </c>
       <c r="F45" t="n">
-        <v>19.28114311021272</v>
+        <v>272.1352367728036</v>
       </c>
       <c r="G45" t="n">
-        <v>19.28114311021272</v>
+        <v>133.4044113554191</v>
       </c>
       <c r="H45" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I45" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J45" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K45" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L45" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M45" t="n">
-        <v>487.8483949674443</v>
+        <v>417.4543050195419</v>
       </c>
       <c r="N45" t="n">
-        <v>726.4525409563269</v>
+        <v>656.0584510084244</v>
       </c>
       <c r="O45" t="n">
-        <v>781.4136778972854</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="P45" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q45" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R45" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S45" t="n">
-        <v>790.6398109613051</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T45" t="n">
-        <v>790.6398109613051</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="U45" t="n">
-        <v>562.4161926976942</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="V45" t="n">
-        <v>562.4161926976942</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="W45" t="n">
-        <v>318.9674160535941</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="X45" t="n">
-        <v>111.1159158480613</v>
+        <v>655.0361258579891</v>
       </c>
       <c r="Y45" t="n">
-        <v>19.28114311021272</v>
+        <v>447.2758270930352</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>153.8134336004835</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="C46" t="n">
-        <v>153.8134336004835</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="D46" t="n">
-        <v>153.8134336004835</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="E46" t="n">
-        <v>153.8134336004835</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="F46" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="G46" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="H46" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="I46" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="J46" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="K46" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="L46" t="n">
-        <v>46.5952681179257</v>
+        <v>856.8389900280785</v>
       </c>
       <c r="M46" t="n">
-        <v>85.78330631014788</v>
+        <v>896.0270282203006</v>
       </c>
       <c r="N46" t="n">
-        <v>129.4741569655842</v>
+        <v>939.7178788757369</v>
       </c>
       <c r="O46" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P46" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q46" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R46" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S46" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T46" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U46" t="n">
-        <v>153.8134336004835</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="V46" t="n">
-        <v>153.8134336004835</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="W46" t="n">
-        <v>153.8134336004835</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="X46" t="n">
-        <v>153.8134336004835</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="Y46" t="n">
-        <v>153.8134336004835</v>
+        <v>829.5248650203655</v>
       </c>
     </row>
   </sheetData>
@@ -7979,13 +7981,13 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K2" t="n">
-        <v>273.6023800549303</v>
+        <v>220.0898510449805</v>
       </c>
       <c r="L2" t="n">
-        <v>289.278943979937</v>
+        <v>235.7664149699872</v>
       </c>
       <c r="M2" t="n">
-        <v>230.3462332272727</v>
+        <v>283.8587622372225</v>
       </c>
       <c r="N2" t="n">
         <v>282.9255926065406</v>
@@ -7994,7 +7996,7 @@
         <v>281.4486180473961</v>
       </c>
       <c r="P2" t="n">
-        <v>231.2329957552695</v>
+        <v>284.7455247652193</v>
       </c>
       <c r="Q2" t="n">
         <v>212.3149906599047</v>
@@ -8058,7 +8060,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>137.841438974359</v>
+        <v>189.1918456000683</v>
       </c>
       <c r="L3" t="n">
         <v>138.5543797798742</v>
@@ -8067,7 +8069,7 @@
         <v>195.6465629319681</v>
       </c>
       <c r="N3" t="n">
-        <v>182.6921187090427</v>
+        <v>184.8542410932831</v>
       </c>
       <c r="O3" t="n">
         <v>142.5962444444444</v>
@@ -8076,7 +8078,7 @@
         <v>187.48693642428</v>
       </c>
       <c r="Q3" t="n">
-        <v>193.4943030959713</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8304,13 +8306,13 @@
         <v>383.1483227996774</v>
       </c>
       <c r="N6" t="n">
-        <v>131.3417120833333</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O6" t="n">
-        <v>242.4075215744184</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P6" t="n">
-        <v>318.4627686399372</v>
+        <v>177.2597568922521</v>
       </c>
       <c r="Q6" t="n">
         <v>210.0772877358491</v>
@@ -8535,22 +8537,22 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>299.7328472056018</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>142.1340339220183</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N9" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O9" t="n">
-        <v>383.6105333221035</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P9" t="n">
-        <v>318.4627686399372</v>
+        <v>177.2597568922521</v>
       </c>
       <c r="Q9" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8693,7 +8695,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L11" t="n">
-        <v>417.6612145504504</v>
+        <v>417.6612145504505</v>
       </c>
       <c r="M11" t="n">
         <v>449.5135334928325</v>
@@ -8772,16 +8774,16 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
-        <v>370.8403453034592</v>
+        <v>299.7328472056018</v>
       </c>
       <c r="M12" t="n">
         <v>383.1483227996774</v>
       </c>
       <c r="N12" t="n">
-        <v>131.3417120833333</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O12" t="n">
-        <v>312.5030352242461</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P12" t="n">
         <v>318.4627686399372</v>
@@ -9012,16 +9014,16 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M15" t="n">
-        <v>142.1340339220183</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N15" t="n">
-        <v>301.248502863135</v>
+        <v>244.7225752110828</v>
       </c>
       <c r="O15" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P15" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
         <v>139.9817740860215</v>
@@ -9243,7 +9245,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
         <v>370.8403453034592</v>
@@ -9252,16 +9254,16 @@
         <v>383.1483227996774</v>
       </c>
       <c r="N18" t="n">
-        <v>357.7767872515269</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O18" t="n">
-        <v>142.5962444444444</v>
+        <v>312.5030352242461</v>
       </c>
       <c r="P18" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9480,25 +9482,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
-        <v>299.7352039419416</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
-        <v>383.1483227996774</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N21" t="n">
-        <v>372.3560009609923</v>
+        <v>301.248502863135</v>
       </c>
       <c r="O21" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P21" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9720,22 +9722,22 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M24" t="n">
-        <v>312.04082470182</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N24" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O24" t="n">
-        <v>142.5962444444444</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P24" t="n">
-        <v>318.4627686399372</v>
+        <v>168.5314335381781</v>
       </c>
       <c r="Q24" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9954,7 +9956,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
         <v>370.8403453034592</v>
@@ -9963,10 +9965,10 @@
         <v>383.1483227996774</v>
       </c>
       <c r="N27" t="n">
-        <v>372.3560009609923</v>
+        <v>301.2485028631349</v>
       </c>
       <c r="O27" t="n">
-        <v>198.1125443848066</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P27" t="n">
         <v>318.4627686399372</v>
@@ -10191,16 +10193,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>264.4652370125786</v>
+        <v>184.6294155606472</v>
       </c>
       <c r="L30" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M30" t="n">
-        <v>312.04082470182</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N30" t="n">
-        <v>131.3417120833333</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O30" t="n">
         <v>383.6105333221035</v>
@@ -10437,10 +10439,10 @@
         <v>383.1483227996774</v>
       </c>
       <c r="N33" t="n">
-        <v>372.3560009609923</v>
+        <v>174.6270615612551</v>
       </c>
       <c r="O33" t="n">
-        <v>185.8815939223662</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P33" t="n">
         <v>133.9744074143302</v>
@@ -10668,16 +10670,16 @@
         <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
-        <v>359.8407857361378</v>
+        <v>368.5691090902119</v>
       </c>
       <c r="N36" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O36" t="n">
-        <v>383.6105333221035</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P36" t="n">
         <v>318.4627686399372</v>
@@ -10823,7 +10825,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K38" t="n">
-        <v>324.1454125711648</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L38" t="n">
         <v>417.6612145504504</v>
@@ -10905,7 +10907,7 @@
         <v>137.841438974359</v>
       </c>
       <c r="L39" t="n">
-        <v>370.8403453034592</v>
+        <v>185.3423563661624</v>
       </c>
       <c r="M39" t="n">
         <v>383.1483227996774</v>
@@ -10914,7 +10916,7 @@
         <v>372.3560009609923</v>
       </c>
       <c r="O39" t="n">
-        <v>198.1125443848066</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P39" t="n">
         <v>318.4627686399372</v>
@@ -11060,10 +11062,10 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K41" t="n">
-        <v>324.1454125711648</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L41" t="n">
-        <v>417.6612145504504</v>
+        <v>417.6612145504505</v>
       </c>
       <c r="M41" t="n">
         <v>449.5135334928325</v>
@@ -11139,16 +11141,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
-        <v>185.3423563661624</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M42" t="n">
-        <v>383.1483227996774</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N42" t="n">
-        <v>372.3560009609923</v>
+        <v>231.1529892133073</v>
       </c>
       <c r="O42" t="n">
         <v>383.6105333221035</v>
@@ -11157,7 +11159,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11300,7 +11302,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L44" t="n">
-        <v>417.6612145504504</v>
+        <v>417.6612145504505</v>
       </c>
       <c r="M44" t="n">
         <v>449.5135334928325</v>
@@ -11376,25 +11378,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M45" t="n">
-        <v>383.1483227996774</v>
+        <v>185.4193833999402</v>
       </c>
       <c r="N45" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O45" t="n">
-        <v>198.1125443848066</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P45" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -23255,7 +23257,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>374.9551956315293</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
@@ -23276,10 +23278,10 @@
         <v>339.4748021157671</v>
       </c>
       <c r="I11" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -23300,13 +23302,13 @@
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -23315,10 +23317,10 @@
         <v>10.33136403017744</v>
       </c>
       <c r="V11" t="n">
-        <v>225.414031377446</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X11" t="n">
         <v>369.731100678469</v>
@@ -23382,25 +23384,25 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S12" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T12" t="n">
         <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>0</v>
+        <v>170.3657197299391</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
       </c>
       <c r="W12" t="n">
-        <v>247.1144340662031</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X12" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y12" t="n">
         <v>205.6826957773044</v>
@@ -23455,13 +23457,13 @@
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R13" t="n">
-        <v>132.9899077786023</v>
+        <v>44.10642379180146</v>
       </c>
       <c r="S13" t="n">
         <v>224.0165980369723</v>
@@ -23492,31 +23494,31 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F14" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H14" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I14" t="n">
-        <v>10.13979328157632</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -23561,7 +23563,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560536</v>
+        <v>384.4284425830174</v>
       </c>
     </row>
     <row r="15">
@@ -23577,7 +23579,7 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D15" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
         <v>157.6450804554009</v>
@@ -23589,7 +23591,7 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H15" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
         <v>89.39663285141508</v>
@@ -23619,25 +23621,25 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>136.2759056302995</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T15" t="n">
-        <v>0</v>
+        <v>56.389187656633</v>
       </c>
       <c r="U15" t="n">
         <v>0</v>
       </c>
       <c r="V15" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W15" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X15" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y15" t="n">
         <v>205.6826957773044</v>
@@ -23692,13 +23694,13 @@
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R16" t="n">
-        <v>132.9899077786023</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S16" t="n">
         <v>224.0165980369723</v>
@@ -23713,7 +23715,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -23741,19 +23743,19 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G17" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H17" t="n">
         <v>339.4748021157671</v>
       </c>
       <c r="I17" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -23780,16 +23782,16 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U17" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V17" t="n">
-        <v>225.414031377446</v>
+        <v>256.7375800297467</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
@@ -23808,28 +23810,28 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C18" t="n">
         <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H18" t="n">
         <v>112.2354442364965</v>
       </c>
       <c r="I18" t="n">
-        <v>81.55953011607103</v>
+        <v>66.41960608993695</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -23856,25 +23858,25 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T18" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U18" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V18" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W18" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X18" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y18" t="n">
         <v>205.6826957773044</v>
@@ -23932,10 +23934,10 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q19" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>44.10642379180146</v>
+        <v>130.2684670434958</v>
       </c>
       <c r="S19" t="n">
         <v>224.0165980369723</v>
@@ -23969,16 +23971,16 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D20" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>336.5320379404362</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
         <v>415.302737515135</v>
@@ -24023,16 +24025,16 @@
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>349.240968717413</v>
+        <v>278.8969609161378</v>
       </c>
       <c r="X20" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
         <v>386.2379386560536</v>
@@ -24051,13 +24053,13 @@
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E21" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F21" t="n">
-        <v>1.900258621221752</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
         <v>137.3435171632106</v>
@@ -24105,13 +24107,13 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V21" t="n">
-        <v>232.8005871494253</v>
+        <v>147.9595530161018</v>
       </c>
       <c r="W21" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X21" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y21" t="n">
         <v>205.6826957773044</v>
@@ -24169,16 +24171,16 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q22" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>177.2933913771695</v>
+        <v>130.2684670434958</v>
       </c>
       <c r="S22" t="n">
         <v>224.0165980369723</v>
       </c>
       <c r="T22" t="n">
-        <v>94.7586218429135</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U22" t="n">
         <v>286.3190293564909</v>
@@ -24221,13 +24223,13 @@
         <v>415.302737515135</v>
       </c>
       <c r="H23" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -24248,7 +24250,7 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
         <v>149.8691179411497</v>
@@ -24257,22 +24259,22 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T23" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701349</v>
+        <v>107.53913272771</v>
       </c>
       <c r="W23" t="n">
-        <v>118.3664731213304</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="24">
@@ -24285,19 +24287,19 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D24" t="n">
         <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>0</v>
+        <v>80.1764713530042</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H24" t="n">
         <v>112.2354442364965</v>
@@ -24330,10 +24332,10 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T24" t="n">
         <v>200.1647286948216</v>
@@ -24342,16 +24344,16 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V24" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W24" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X24" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y24" t="n">
-        <v>30.56581806583503</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="25">
@@ -24403,10 +24405,10 @@
         <v>0</v>
       </c>
       <c r="P25" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R25" t="n">
         <v>177.2933913771695</v>
@@ -24415,13 +24417,13 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T25" t="n">
-        <v>227.9455894282815</v>
+        <v>183.6421058297144</v>
       </c>
       <c r="U25" t="n">
         <v>286.3190293564909</v>
       </c>
       <c r="V25" t="n">
-        <v>118.95067573846</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -24440,10 +24442,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634806</v>
+        <v>180.4391552345834</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D26" t="n">
         <v>354.683041620683</v>
@@ -24452,10 +24454,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>195.0896117727101</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H26" t="n">
         <v>339.4748021157671</v>
@@ -24494,13 +24496,13 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U26" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W26" t="n">
         <v>349.240968717413</v>
@@ -24509,7 +24511,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="27">
@@ -24531,19 +24533,19 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F27" t="n">
-        <v>21.46887964564732</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -24582,13 +24584,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W27" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X27" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y27" t="n">
-        <v>205.6826957773044</v>
+        <v>189.1474515333243</v>
       </c>
     </row>
     <row r="28">
@@ -24640,13 +24642,13 @@
         <v>0</v>
       </c>
       <c r="P28" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R28" t="n">
-        <v>177.2933913771695</v>
+        <v>46.82786452690794</v>
       </c>
       <c r="S28" t="n">
         <v>224.0165980369723</v>
@@ -24667,7 +24669,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>171.5597290184211</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24680,10 +24682,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710076</v>
+        <v>162.9782053421103</v>
       </c>
       <c r="D29" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
         <v>381.9303700722618</v>
@@ -24722,25 +24724,25 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>128.6853625704253</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U29" t="n">
         <v>10.33136403017744</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W29" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X29" t="n">
         <v>369.731100678469</v>
@@ -24756,7 +24758,7 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>166.5331836498673</v>
+        <v>149.9076499797141</v>
       </c>
       <c r="C30" t="n">
         <v>172.7084989883157</v>
@@ -24768,19 +24770,19 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I30" t="n">
-        <v>54.10473810025091</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -24810,22 +24812,22 @@
         <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U30" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V30" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W30" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X30" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y30" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -24877,10 +24879,10 @@
         <v>0</v>
       </c>
       <c r="P31" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R31" t="n">
         <v>177.2933913771695</v>
@@ -24892,10 +24894,10 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U31" t="n">
-        <v>286.3190293564909</v>
+        <v>242.0155457579237</v>
       </c>
       <c r="V31" t="n">
-        <v>118.95067573846</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
@@ -24920,7 +24922,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E32" t="n">
         <v>381.9303700722618</v>
@@ -24935,7 +24937,7 @@
         <v>339.4748021157671</v>
       </c>
       <c r="I32" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>11.94928935461252</v>
@@ -24959,31 +24961,31 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S32" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>223.0958495641314</v>
+        <v>199.2828334142264</v>
       </c>
       <c r="U32" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W32" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>173.9525530126115</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="33">
@@ -24993,7 +24995,7 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C33" t="n">
         <v>172.7084989883157</v>
@@ -25011,7 +25013,7 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H33" t="n">
-        <v>48.34662117197414</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I33" t="n">
         <v>89.39663285141508</v>
@@ -25041,28 +25043,28 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T33" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U33" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
       </c>
       <c r="W33" t="n">
-        <v>10.68069428326055</v>
+        <v>221.7057603085621</v>
       </c>
       <c r="X33" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y33" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -25114,19 +25116,19 @@
         <v>0</v>
       </c>
       <c r="P34" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R34" t="n">
         <v>177.2933913771695</v>
       </c>
       <c r="S34" t="n">
-        <v>224.0165980369723</v>
+        <v>179.7131144384051</v>
       </c>
       <c r="T34" t="n">
-        <v>94.7586218429135</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U34" t="n">
         <v>286.3190293564909</v>
@@ -25154,13 +25156,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710076</v>
+        <v>252.9439654637738</v>
       </c>
       <c r="D35" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>169.6449844288197</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
         <v>406.8760457417114</v>
@@ -25199,22 +25201,22 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R35" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
         <v>10.33136403017744</v>
       </c>
       <c r="V35" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
         <v>369.731100678469</v>
@@ -25230,13 +25232,13 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C36" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D36" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E36" t="n">
         <v>157.6450804554009</v>
@@ -25248,13 +25250,13 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H36" t="n">
-        <v>58.55236638604161</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -25278,25 +25280,25 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>200.1647286948216</v>
+        <v>80.77591565244732</v>
       </c>
       <c r="U36" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V36" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W36" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X36" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y36" t="n">
         <v>0</v>
@@ -25354,10 +25356,10 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q37" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>177.2933913771695</v>
+        <v>130.2684670434958</v>
       </c>
       <c r="S37" t="n">
         <v>224.0165980369723</v>
@@ -25369,7 +25371,7 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V37" t="n">
-        <v>118.95067573846</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
@@ -25388,7 +25390,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
@@ -25433,28 +25435,28 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T38" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V38" t="n">
-        <v>86.73796959247585</v>
+        <v>119.4884220823224</v>
       </c>
       <c r="W38" t="n">
-        <v>116.9106531371698</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y38" t="n">
         <v>386.2379386560536</v>
@@ -25470,7 +25472,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C39" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D39" t="n">
         <v>147.4450655646388</v>
@@ -25488,7 +25490,7 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J39" t="n">
         <v>0.7465913262578567</v>
@@ -25518,19 +25520,19 @@
         <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T39" t="n">
         <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V39" t="n">
-        <v>85.84141164117639</v>
+        <v>10.49235770196771</v>
       </c>
       <c r="W39" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X39" t="n">
         <v>205.7729852034775</v>
@@ -25588,19 +25590,19 @@
         <v>0</v>
       </c>
       <c r="P40" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q40" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R40" t="n">
         <v>177.2933913771695</v>
       </c>
       <c r="S40" t="n">
-        <v>224.0165980369723</v>
+        <v>176.9916737032986</v>
       </c>
       <c r="T40" t="n">
-        <v>97.48006257801995</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U40" t="n">
         <v>286.3190293564909</v>
@@ -25625,10 +25627,10 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
         <v>354.683041620683</v>
@@ -25643,13 +25645,13 @@
         <v>415.302737515135</v>
       </c>
       <c r="H41" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I41" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
@@ -25679,7 +25681,7 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T41" t="n">
-        <v>10.81046392068936</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U41" t="n">
         <v>251.3456529078365</v>
@@ -25688,13 +25690,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X41" t="n">
-        <v>369.731100678469</v>
+        <v>138.8566050823863</v>
       </c>
       <c r="Y41" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="42">
@@ -25704,13 +25706,13 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C42" t="n">
-        <v>125.9137940316683</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D42" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E42" t="n">
         <v>0</v>
@@ -25722,13 +25724,13 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H42" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
         <v>89.39663285141508</v>
       </c>
       <c r="J42" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -25752,19 +25754,19 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
       </c>
       <c r="T42" t="n">
-        <v>200.1647286948216</v>
+        <v>85.01656308320455</v>
       </c>
       <c r="U42" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V42" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W42" t="n">
         <v>251.6949831609196</v>
@@ -25825,10 +25827,10 @@
         <v>0</v>
       </c>
       <c r="P43" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R43" t="n">
         <v>177.2933913771695</v>
@@ -25846,7 +25848,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>153.336030751223</v>
+        <v>242.2195147380239</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
@@ -25916,7 +25918,7 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T44" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
         <v>251.3456529078365</v>
@@ -25925,13 +25927,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
-        <v>136.955583073971</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>145.2236497783945</v>
+        <v>156.0341136990839</v>
       </c>
     </row>
     <row r="45">
@@ -25944,28 +25946,28 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C45" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D45" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E45" t="n">
-        <v>157.6450804554009</v>
+        <v>156.9643950266875</v>
       </c>
       <c r="F45" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G45" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
         <v>89.39663285141508</v>
       </c>
       <c r="J45" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -25989,28 +25991,28 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T45" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U45" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V45" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W45" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X45" t="n">
         <v>0</v>
       </c>
       <c r="Y45" t="n">
-        <v>114.7662707668343</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -26032,7 +26034,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>12.23408043756322</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>167.9909793584588</v>
@@ -26077,7 +26079,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U46" t="n">
-        <v>286.3190293564909</v>
+        <v>153.1320617711229</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>357364.5358325086</v>
+        <v>357364.5358325084</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>357364.5358325086</v>
+        <v>357364.5358325085</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>357364.5358325085</v>
+        <v>357364.5358325086</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>357364.5358325086</v>
+        <v>357364.5358325085</v>
       </c>
     </row>
     <row r="10">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>357364.5358325084</v>
+        <v>357364.5358325085</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>357364.5358325086</v>
+        <v>357364.5358325085</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>357364.5358325085</v>
+        <v>357364.5358325086</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>357364.5358325086</v>
+        <v>357364.5358325085</v>
       </c>
     </row>
   </sheetData>
@@ -26311,22 +26313,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>595255.2831516052</v>
+        <v>595255.2831516053</v>
       </c>
       <c r="C2" t="n">
-        <v>595255.2831516051</v>
+        <v>595255.2831516053</v>
       </c>
       <c r="D2" t="n">
-        <v>595255.2831516051</v>
+        <v>595255.2831516053</v>
       </c>
       <c r="E2" t="n">
+        <v>240932.9751704318</v>
+      </c>
+      <c r="F2" t="n">
         <v>240932.9751704319</v>
       </c>
-      <c r="F2" t="n">
-        <v>240932.9751704318</v>
-      </c>
       <c r="G2" t="n">
-        <v>240932.9751704318</v>
+        <v>240932.9751704319</v>
       </c>
       <c r="H2" t="n">
         <v>240932.9751704318</v>
@@ -26344,16 +26346,16 @@
         <v>240932.9751704318</v>
       </c>
       <c r="M2" t="n">
-        <v>240932.9751704318</v>
+        <v>240932.9751704319</v>
       </c>
       <c r="N2" t="n">
         <v>240932.9751704319</v>
       </c>
       <c r="O2" t="n">
+        <v>240932.9751704319</v>
+      </c>
+      <c r="P2" t="n">
         <v>240932.9751704318</v>
-      </c>
-      <c r="P2" t="n">
-        <v>240932.9751704319</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>17933.27925940137</v>
+        <v>17933.27925940139</v>
       </c>
       <c r="C3" t="n">
         <v>60576.32218666811</v>
@@ -26415,13 +26417,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>341864.8743836956</v>
+        <v>341864.8743836955</v>
       </c>
       <c r="C4" t="n">
         <v>295860.2172754402</v>
       </c>
       <c r="D4" t="n">
-        <v>295860.2172754403</v>
+        <v>295860.2172754402</v>
       </c>
       <c r="E4" t="n">
         <v>16914.68964098084</v>
@@ -26519,22 +26521,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>198575.9677447033</v>
+        <v>198575.9677447034</v>
       </c>
       <c r="C6" t="n">
-        <v>190537.4749257351</v>
+        <v>190537.4749257353</v>
       </c>
       <c r="D6" t="n">
-        <v>251113.7971124031</v>
+        <v>251113.7971124034</v>
       </c>
       <c r="E6" t="n">
-        <v>209364.6167656895</v>
+        <v>209364.6167656893</v>
       </c>
       <c r="F6" t="n">
-        <v>209364.6167656893</v>
+        <v>209364.6167656894</v>
       </c>
       <c r="G6" t="n">
-        <v>209364.6167656893</v>
+        <v>209364.6167656894</v>
       </c>
       <c r="H6" t="n">
         <v>209364.6167656893</v>
@@ -26546,22 +26548,22 @@
         <v>195363.3846254101</v>
       </c>
       <c r="K6" t="n">
-        <v>161107.6638320567</v>
+        <v>161107.6638320568</v>
       </c>
       <c r="L6" t="n">
         <v>209364.6167656893</v>
       </c>
       <c r="M6" t="n">
-        <v>209364.6167656893</v>
+        <v>209364.6167656894</v>
       </c>
       <c r="N6" t="n">
         <v>209364.6167656894</v>
       </c>
       <c r="O6" t="n">
+        <v>209364.6167656894</v>
+      </c>
+      <c r="P6" t="n">
         <v>209364.6167656893</v>
-      </c>
-      <c r="P6" t="n">
-        <v>209364.6167656894</v>
       </c>
     </row>
   </sheetData>
@@ -27379,19 +27381,19 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>311.7603627610578</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>301.1705126107332</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>375.0449477048828</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>361.7902085051853</v>
       </c>
       <c r="H2" t="n">
         <v>339.4748021157671</v>
@@ -27430,13 +27432,13 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T2" t="n">
-        <v>169.5833205541816</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U2" t="n">
-        <v>197.8331238978867</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V2" t="n">
-        <v>274.2397294601852</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -27445,7 +27447,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>345.9801488458013</v>
       </c>
     </row>
     <row r="3">
@@ -27455,13 +27457,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>113.0206546399176</v>
       </c>
       <c r="C3" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>93.93253655468899</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
         <v>104.1325514454512</v>
@@ -27473,13 +27475,13 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H3" t="n">
-        <v>65.10160868453272</v>
+        <v>65.84820001079058</v>
       </c>
       <c r="I3" t="n">
         <v>89.39663285141508</v>
       </c>
       <c r="J3" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -27503,10 +27505,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>100.1578341526431</v>
+        <v>46.64530514269338</v>
       </c>
       <c r="S3" t="n">
-        <v>118.1706420938881</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T3" t="n">
         <v>200.1647286948216</v>
@@ -27534,19 +27536,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>126.3194511719875</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>95.1029440082626</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>91.90851901298149</v>
       </c>
       <c r="G4" t="n">
         <v>167.9909793584588</v>
@@ -27582,7 +27584,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R4" t="n">
-        <v>151.131481811701</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S4" t="n">
         <v>224.0165980369723</v>
@@ -27594,13 +27596,13 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>198.6251143138782</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>199.5477458235686</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27622,10 +27624,10 @@
         <v>113.6687527430239</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>188.4703195251436</v>
       </c>
       <c r="F5" t="n">
-        <v>206.5399494528818</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
         <v>174.288448637476</v>
@@ -27692,10 +27694,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
         <v>147.4450655646388</v>
@@ -27704,16 +27706,16 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J6" t="n">
         <v>0.7465913262578567</v>
@@ -27746,22 +27748,22 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T6" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>103.4369888075125</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>251.6949831609196</v>
+        <v>191.4187548667587</v>
       </c>
       <c r="X6" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -27834,13 +27836,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>153.336030751223</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>85.39768576672677</v>
       </c>
     </row>
     <row r="8">
@@ -27850,28 +27852,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F8" t="n">
-        <v>369.7532147690989</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H8" t="n">
         <v>339.4748021157671</v>
       </c>
       <c r="I8" t="n">
-        <v>210.4758895704059</v>
+        <v>5.066549668675236</v>
       </c>
       <c r="J8" t="n">
         <v>11.94928935461252</v>
@@ -27895,10 +27897,10 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S8" t="n">
         <v>209.0200695862453</v>
@@ -27910,7 +27912,7 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V8" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -27919,7 +27921,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -27929,10 +27931,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>15.93831371378155</v>
       </c>
       <c r="D9" t="n">
         <v>147.4450655646388</v>
@@ -27941,7 +27943,7 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
         <v>137.3435171632106</v>
@@ -27977,22 +27979,22 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U9" t="n">
         <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>168.1279498935992</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X9" t="n">
         <v>205.7729852034775</v>
@@ -28008,7 +28010,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>46.64501259656927</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
@@ -28050,13 +28052,13 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q10" t="n">
         <v>86.16204325169439</v>
       </c>
       <c r="R10" t="n">
-        <v>46.82786452690794</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S10" t="n">
         <v>224.0165980369723</v>
@@ -34699,22 +34701,22 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
         <v>53.51252900994975</v>
-      </c>
-      <c r="L2" t="n">
-        <v>53.51252900994975</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0</v>
       </c>
       <c r="N2" t="n">
         <v>53.51252900994975</v>
       </c>
       <c r="O2" t="n">
-        <v>51.35040662570938</v>
+        <v>51.35040662570936</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
@@ -34778,7 +34780,7 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>51.35040662570935</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -34787,7 +34789,7 @@
         <v>53.51252900994975</v>
       </c>
       <c r="N3" t="n">
-        <v>51.35040662570935</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -34796,7 +34798,7 @@
         <v>53.51252900994975</v>
       </c>
       <c r="Q3" t="n">
-        <v>53.51252900994975</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -35024,13 +35026,13 @@
         <v>241.0142888776591</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O6" t="n">
-        <v>99.8112771299739</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>184.4883612256069</v>
+        <v>43.28534947792182</v>
       </c>
       <c r="Q6" t="n">
         <v>70.09551364982758</v>
@@ -35182,7 +35184,7 @@
         <v>219.1673002655598</v>
       </c>
       <c r="N8" t="n">
-        <v>207.9338608153932</v>
+        <v>207.9338608153933</v>
       </c>
       <c r="O8" t="n">
         <v>150.7019698410586</v>
@@ -35255,22 +35257,22 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L9" t="n">
-        <v>161.1784674257276</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N9" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O9" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>184.4883612256069</v>
+        <v>43.28534947792182</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35416,7 +35418,7 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M11" t="n">
-        <v>219.1673002655597</v>
+        <v>219.1673002655598</v>
       </c>
       <c r="N11" t="n">
         <v>207.9338608153932</v>
@@ -35492,16 +35494,16 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L12" t="n">
-        <v>232.285965523585</v>
+        <v>161.1784674257276</v>
       </c>
       <c r="M12" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O12" t="n">
-        <v>169.9067907798016</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
         <v>184.4883612256069</v>
@@ -35732,16 +35734,16 @@
         <v>232.285965523585</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N15" t="n">
-        <v>169.9067907798017</v>
+        <v>113.3808631277494</v>
       </c>
       <c r="O15" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P15" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35963,7 +35965,7 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L18" t="n">
         <v>232.285965523585</v>
@@ -35972,16 +35974,16 @@
         <v>241.0142888776591</v>
       </c>
       <c r="N18" t="n">
-        <v>226.4350751681936</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>169.9067907798016</v>
       </c>
       <c r="P18" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q18" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36200,25 +36202,25 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L21" t="n">
-        <v>161.1808241620674</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M21" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>241.0142888776591</v>
+        <v>169.9067907798017</v>
       </c>
       <c r="O21" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q21" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36440,22 +36442,22 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L24" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>169.9067907798017</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N24" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P24" t="n">
-        <v>184.4883612256069</v>
+        <v>34.55702612384782</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36674,7 +36676,7 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L27" t="n">
         <v>232.285965523585</v>
@@ -36683,10 +36685,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="N27" t="n">
-        <v>241.0142888776591</v>
+        <v>169.9067907798016</v>
       </c>
       <c r="O27" t="n">
-        <v>55.51629994036219</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
         <v>184.4883612256069</v>
@@ -36911,16 +36913,16 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>126.6237980382196</v>
+        <v>46.78797658628819</v>
       </c>
       <c r="L30" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>169.9067907798017</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O30" t="n">
         <v>241.0142888776591</v>
@@ -37157,10 +37159,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="N33" t="n">
+        <v>43.28534947792182</v>
+      </c>
+      <c r="O33" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="O33" t="n">
-        <v>43.28534947792182</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -37388,16 +37390,16 @@
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M36" t="n">
-        <v>217.7067518141195</v>
+        <v>226.4350751681936</v>
       </c>
       <c r="N36" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O36" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
         <v>184.4883612256069</v>
@@ -37625,7 +37627,7 @@
         <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>232.285965523585</v>
+        <v>46.78797658628819</v>
       </c>
       <c r="M39" t="n">
         <v>241.0142888776591</v>
@@ -37634,7 +37636,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="O39" t="n">
-        <v>55.51629994036219</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P39" t="n">
         <v>184.4883612256069</v>
@@ -37859,16 +37861,16 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L42" t="n">
-        <v>46.78797658628819</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M42" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>241.0142888776591</v>
+        <v>99.81127712997396</v>
       </c>
       <c r="O42" t="n">
         <v>241.0142888776591</v>
@@ -37877,7 +37879,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38096,25 +38098,25 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L45" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M45" t="n">
-        <v>241.0142888776591</v>
+        <v>43.28534947792188</v>
       </c>
       <c r="N45" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O45" t="n">
-        <v>55.51629994036219</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P45" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/100000/Output_2_29.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/100000/Output_2_29.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1734321.202562249</v>
+        <v>1665469.906120812</v>
       </c>
     </row>
     <row r="7">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5573476.978824022</v>
+        <v>5573476.978824023</v>
       </c>
     </row>
     <row r="11">
@@ -661,16 +661,16 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="n">
+        <v>35.1845461973512</v>
+      </c>
+      <c r="E2" t="n">
         <v>53.51252900994975</v>
       </c>
-      <c r="D2" t="n">
+      <c r="F2" t="n">
         <v>53.51252900994975</v>
-      </c>
-      <c r="E2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F2" t="n">
-        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
         <v>53.51252900994975</v>
@@ -682,7 +682,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -727,7 +727,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>40.25778981025229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -737,28 +737,28 @@
         </is>
       </c>
       <c r="B3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D3" t="n">
         <v>53.51252900994975</v>
-      </c>
-      <c r="C3" t="n">
-        <v>0</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0</v>
       </c>
       <c r="E3" t="n">
         <v>53.51252900994975</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
         <v>46.38724422570589</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0.7465913262578567</v>
@@ -785,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>53.51252900994975</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -828,61 +828,61 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="n">
+        <v>26.16190956546853</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0</v>
+      </c>
+      <c r="O4" t="n">
+        <v>0</v>
+      </c>
+      <c r="P4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>0</v>
+      </c>
+      <c r="R4" t="n">
+        <v>0</v>
+      </c>
+      <c r="S4" t="n">
         <v>53.51252900994975</v>
       </c>
-      <c r="G4" t="n">
-        <v>0</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" t="n">
-        <v>0</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0</v>
-      </c>
-      <c r="L4" t="n">
-        <v>0</v>
-      </c>
-      <c r="M4" t="n">
-        <v>0</v>
-      </c>
-      <c r="N4" t="n">
-        <v>0</v>
-      </c>
-      <c r="O4" t="n">
-        <v>0</v>
-      </c>
-      <c r="P4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>0</v>
-      </c>
-      <c r="R4" t="n">
-        <v>0</v>
-      </c>
-      <c r="S4" t="n">
-        <v>0</v>
-      </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>53.51252900994975</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>26.16190956546853</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -895,19 +895,19 @@
         </is>
       </c>
       <c r="B5" t="n">
+        <v>0</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" t="n">
+        <v>40.47627913313517</v>
+      </c>
+      <c r="E5" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="C5" t="n">
-        <v>0</v>
-      </c>
-      <c r="D5" t="n">
+      <c r="F5" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="E5" t="n">
-        <v>193.4600505471182</v>
-      </c>
-      <c r="F5" t="n">
-        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
         <v>241.0142888776591</v>
@@ -940,10 +940,10 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -974,7 +974,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
@@ -983,10 +983,10 @@
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
         <v>137.3435171632106</v>
@@ -998,7 +998,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -1028,16 +1028,16 @@
         <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>225.9413820809748</v>
+        <v>165.7781873044655</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>60.27622829416089</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X6" t="n">
         <v>0</v>
@@ -1098,13 +1098,13 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>47.02492433367365</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -1122,7 +1122,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1138,7 +1138,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E8" t="n">
         <v>241.0142888776591</v>
@@ -1147,16 +1147,16 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>241.0142888776591</v>
+        <v>193.4600505471182</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>205.4093399017307</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -1211,10 +1211,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>156.7701852745342</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
@@ -1223,19 +1223,19 @@
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -1262,16 +1262,16 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>11.02309482854833</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U9" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
         <v>241.0142888776591</v>
@@ -1290,7 +1290,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -1317,7 +1317,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -1332,13 +1332,13 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>22.0339917726843</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1369,31 +1369,31 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>7.778646031951277</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>202.2946864288972</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="I11" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -1414,7 +1414,7 @@
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -1423,16 +1423,16 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -1454,19 +1454,19 @@
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>52.0628898883872</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1496,25 +1496,25 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>55.57566235103572</v>
+        <v>0</v>
       </c>
       <c r="V12" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W12" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="X12" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y12" t="n">
         <v>0</v>
@@ -1575,16 +1575,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
+        <v>0</v>
+      </c>
+      <c r="S13" t="n">
+        <v>0</v>
+      </c>
+      <c r="T13" t="n">
+        <v>0</v>
+      </c>
+      <c r="U13" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="S13" t="n">
-        <v>0</v>
-      </c>
-      <c r="T13" t="n">
-        <v>0</v>
-      </c>
-      <c r="U13" t="n">
-        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -1606,25 +1606,25 @@
         </is>
       </c>
       <c r="B14" t="n">
+        <v>0</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0</v>
+      </c>
+      <c r="H14" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="C14" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="D14" t="n">
-        <v>0</v>
-      </c>
-      <c r="E14" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="F14" t="n">
-        <v>0</v>
-      </c>
-      <c r="G14" t="n">
-        <v>0</v>
-      </c>
-      <c r="H14" t="n">
-        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>210.4758895704059</v>
@@ -1651,7 +1651,7 @@
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -1666,16 +1666,16 @@
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>232.8330857361503</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>1.809496073036132</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1685,7 +1685,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>
@@ -1694,22 +1694,22 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F15" t="n">
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H15" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -1739,10 +1739,10 @@
         <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>143.7755410381886</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U15" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -1751,7 +1751,7 @@
         <v>0</v>
       </c>
       <c r="X15" t="n">
-        <v>205.7729852034775</v>
+        <v>25.29225126957903</v>
       </c>
       <c r="Y15" t="n">
         <v>0</v>
@@ -1827,13 +1827,13 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
+        <v>0</v>
+      </c>
+      <c r="X16" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y16" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="X16" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y16" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1855,64 +1855,64 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
+        <v>0</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0</v>
+      </c>
+      <c r="H17" t="n">
+        <v>0</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0</v>
+      </c>
+      <c r="K17" t="n">
+        <v>0</v>
+      </c>
+      <c r="L17" t="n">
+        <v>0</v>
+      </c>
+      <c r="M17" t="n">
+        <v>0</v>
+      </c>
+      <c r="N17" t="n">
+        <v>0</v>
+      </c>
+      <c r="O17" t="n">
+        <v>0</v>
+      </c>
+      <c r="P17" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>0</v>
+      </c>
+      <c r="R17" t="n">
+        <v>0</v>
+      </c>
+      <c r="S17" t="n">
+        <v>0</v>
+      </c>
+      <c r="T17" t="n">
+        <v>212.285385643442</v>
+      </c>
+      <c r="U17" t="n">
+        <v>0</v>
+      </c>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="G17" t="n">
+      <c r="X17" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
-      <c r="I17" t="n">
-        <v>210.4758895704059</v>
-      </c>
-      <c r="J17" t="n">
-        <v>11.94928935461252</v>
-      </c>
-      <c r="K17" t="n">
-        <v>0</v>
-      </c>
-      <c r="L17" t="n">
-        <v>0</v>
-      </c>
-      <c r="M17" t="n">
-        <v>0</v>
-      </c>
-      <c r="N17" t="n">
-        <v>0</v>
-      </c>
-      <c r="O17" t="n">
-        <v>0</v>
-      </c>
-      <c r="P17" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>9.990699214544804</v>
-      </c>
-      <c r="R17" t="n">
-        <v>149.8691179411497</v>
-      </c>
-      <c r="S17" t="n">
-        <v>0</v>
-      </c>
-      <c r="T17" t="n">
-        <v>0</v>
-      </c>
-      <c r="U17" t="n">
-        <v>0</v>
-      </c>
-      <c r="V17" t="n">
-        <v>71.01467844038818</v>
-      </c>
-      <c r="W17" t="n">
-        <v>0</v>
-      </c>
-      <c r="X17" t="n">
-        <v>0</v>
-      </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
     </row>
     <row r="18">
@@ -1922,19 +1922,19 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C18" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
         <v>0</v>
@@ -1943,10 +1943,10 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>22.97702676147813</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -1970,25 +1970,25 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U18" t="n">
         <v>0</v>
       </c>
       <c r="V18" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W18" t="n">
         <v>0</v>
       </c>
       <c r="X18" t="n">
-        <v>205.7729852034775</v>
+        <v>145.9272112248127</v>
       </c>
       <c r="Y18" t="n">
         <v>0</v>
@@ -2046,10 +2046,10 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>47.02492433367365</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -2061,7 +2061,7 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -2080,23 +2080,23 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C20" t="n">
+        <v>0</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0</v>
+      </c>
+      <c r="F20" t="n">
+        <v>212.2853856434421</v>
+      </c>
+      <c r="G20" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="D20" t="n">
-        <v>0</v>
-      </c>
-      <c r="E20" t="n">
-        <v>0</v>
-      </c>
-      <c r="F20" t="n">
-        <v>0</v>
-      </c>
-      <c r="G20" t="n">
-        <v>0</v>
-      </c>
       <c r="H20" t="n">
         <v>0</v>
       </c>
@@ -2125,31 +2125,31 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
+        <v>0</v>
+      </c>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="n">
+        <v>0</v>
+      </c>
+      <c r="X20" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y20" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="V20" t="n">
-        <v>0</v>
-      </c>
-      <c r="W20" t="n">
-        <v>70.34400780127524</v>
-      </c>
-      <c r="X20" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y20" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2162,7 +2162,7 @@
         <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
         <v>0</v>
@@ -2183,7 +2183,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -2207,19 +2207,19 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T21" t="n">
-        <v>200.1647286948216</v>
+        <v>125.5014267845669</v>
       </c>
       <c r="U21" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V21" t="n">
-        <v>84.84103413332343</v>
+        <v>0</v>
       </c>
       <c r="W21" t="n">
         <v>0</v>
@@ -2228,7 +2228,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y21" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="22">
@@ -2253,7 +2253,7 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2283,10 +2283,10 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>47.02492433367365</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -2329,10 +2329,10 @@
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -2341,7 +2341,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -2365,19 +2365,19 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T23" t="n">
-        <v>223.0958495641314</v>
+        <v>72.47049842454879</v>
       </c>
       <c r="U23" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>220.2131257424249</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
@@ -2386,7 +2386,7 @@
         <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2399,13 +2399,13 @@
         <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D24" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>77.46860910239674</v>
+        <v>0</v>
       </c>
       <c r="F24" t="n">
         <v>0</v>
@@ -2420,7 +2420,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -2444,28 +2444,28 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U24" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V24" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W24" t="n">
         <v>0</v>
       </c>
       <c r="X24" t="n">
-        <v>205.7729852034775</v>
+        <v>130.0843554087448</v>
       </c>
       <c r="Y24" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="25">
@@ -2517,10 +2517,10 @@
         <v>0</v>
       </c>
       <c r="P25" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -2529,7 +2529,7 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>44.30348359856715</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -2538,7 +2538,7 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -2554,22 +2554,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>202.2946864288972</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
+        <v>0</v>
+      </c>
+      <c r="D26" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="D26" t="n">
-        <v>0</v>
-      </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>52.42556848774763</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -2602,7 +2602,7 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -2623,7 +2623,7 @@
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -2651,7 +2651,7 @@
         <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
@@ -2681,10 +2681,10 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T27" t="n">
         <v>200.1647286948216</v>
@@ -2696,13 +2696,13 @@
         <v>0</v>
       </c>
       <c r="W27" t="n">
-        <v>241.0142888776591</v>
+        <v>211.4723983643193</v>
       </c>
       <c r="X27" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y27" t="n">
-        <v>16.53524424398009</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="28">
@@ -2754,16 +2754,16 @@
         <v>0</v>
       </c>
       <c r="P28" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q28" t="n">
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>130.4655268502615</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -2794,7 +2794,7 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>202.2946864288972</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
@@ -2806,10 +2806,10 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2836,25 +2836,25 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="W29" t="n">
-        <v>241.0142888776591</v>
+        <v>3.26531605719669</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
@@ -2870,7 +2870,7 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>16.62553367015321</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C30" t="n">
         <v>0</v>
@@ -2879,19 +2879,19 @@
         <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F30" t="n">
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.800737056637706</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2933,13 +2933,13 @@
         <v>0</v>
       </c>
       <c r="W30" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X30" t="n">
         <v>0</v>
       </c>
       <c r="Y30" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -2952,7 +2952,7 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -2991,10 +2991,10 @@
         <v>0</v>
       </c>
       <c r="P31" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -3006,7 +3006,7 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>44.30348359856715</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -3028,28 +3028,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
       </c>
       <c r="D32" t="n">
+        <v>0</v>
+      </c>
+      <c r="E32" t="n">
+        <v>0</v>
+      </c>
+      <c r="F32" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="E32" t="n">
-        <v>0</v>
-      </c>
-      <c r="F32" t="n">
-        <v>0</v>
-      </c>
       <c r="G32" t="n">
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>202.2946864288972</v>
       </c>
       <c r="I32" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3079,10 +3079,10 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>23.81301614990497</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
         <v>0</v>
@@ -3107,7 +3107,7 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C33" t="n">
         <v>0</v>
@@ -3116,19 +3116,19 @@
         <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F33" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>17.65645180446531</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3158,25 +3158,25 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S33" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T33" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U33" t="n">
         <v>0</v>
       </c>
       <c r="V33" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W33" t="n">
-        <v>29.9892228523575</v>
+        <v>0</v>
       </c>
       <c r="X33" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y33" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -3201,7 +3201,7 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3228,16 +3228,16 @@
         <v>0</v>
       </c>
       <c r="P34" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>44.30348359856715</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -3268,7 +3268,7 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>112.3289263072337</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
@@ -3310,7 +3310,7 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R35" t="n">
         <v>149.8691179411497</v>
@@ -3328,7 +3328,7 @@
         <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>102.3382270926889</v>
       </c>
       <c r="X35" t="n">
         <v>0</v>
@@ -3362,7 +3362,7 @@
         <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>29.79900896488263</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -3395,25 +3395,25 @@
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>119.3888130423743</v>
+        <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V36" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W36" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X36" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y36" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -3468,10 +3468,10 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>47.02492433367365</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -3489,7 +3489,7 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -3502,7 +3502,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -3556,22 +3556,22 @@
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>208.2638363878125</v>
+        <v>190.3453970742849</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X38" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
     </row>
     <row r="39">
@@ -3587,7 +3587,7 @@
         <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E39" t="n">
         <v>0</v>
@@ -3605,7 +3605,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -3629,28 +3629,28 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T39" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U39" t="n">
-        <v>0</v>
+        <v>175.5161857099191</v>
       </c>
       <c r="V39" t="n">
-        <v>222.3082294474576</v>
+        <v>0</v>
       </c>
       <c r="W39" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X39" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y39" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="40">
@@ -3678,13 +3678,13 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>39.82778746869526</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -3705,13 +3705,13 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>47.02492433367365</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -3739,10 +3739,10 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
@@ -3757,13 +3757,13 @@
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
@@ -3799,13 +3799,13 @@
         <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>212.285385643442</v>
       </c>
       <c r="W41" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="X41" t="n">
-        <v>230.8744955960827</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -3827,19 +3827,19 @@
         <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G42" t="n">
         <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J42" t="n">
         <v>0.7465913262578567</v>
@@ -3869,22 +3869,22 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T42" t="n">
-        <v>115.1481656116171</v>
+        <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V42" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W42" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X42" t="n">
-        <v>0</v>
+        <v>145.4287699906872</v>
       </c>
       <c r="Y42" t="n">
         <v>0</v>
@@ -3939,10 +3939,10 @@
         <v>0</v>
       </c>
       <c r="P43" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -3960,7 +3960,7 @@
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>44.30348359856715</v>
+        <v>133.186967585368</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -3976,7 +3976,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
@@ -3994,7 +3994,7 @@
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4024,19 +4024,19 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T44" t="n">
         <v>223.0958495641314</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>112.3289263072337</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
@@ -4045,7 +4045,7 @@
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>230.2038249569697</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -4055,31 +4055,31 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C45" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D45" t="n">
         <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>0.6806854287134353</v>
+        <v>0</v>
       </c>
       <c r="F45" t="n">
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -4103,28 +4103,28 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T45" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U45" t="n">
-        <v>0</v>
+        <v>155.9328799502333</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
       </c>
       <c r="W45" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X45" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y45" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -4149,7 +4149,7 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4191,7 +4191,7 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -4306,43 +4306,43 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>173.385681888029</v>
+        <v>214.050116039799</v>
       </c>
       <c r="C2" t="n">
-        <v>119.3326222820192</v>
+        <v>214.050116039799</v>
       </c>
       <c r="D2" t="n">
-        <v>65.27956267600931</v>
+        <v>178.5101703859089</v>
       </c>
       <c r="E2" t="n">
-        <v>65.27956267600931</v>
+        <v>124.457110779899</v>
       </c>
       <c r="F2" t="n">
-        <v>58.33406192680583</v>
+        <v>70.40405117388919</v>
       </c>
       <c r="G2" t="n">
-        <v>4.28100232079598</v>
+        <v>16.35099156787933</v>
       </c>
       <c r="H2" t="n">
-        <v>4.28100232079598</v>
+        <v>16.35099156787933</v>
       </c>
       <c r="I2" t="n">
-        <v>4.28100232079598</v>
+        <v>16.35099156787933</v>
       </c>
       <c r="J2" t="n">
         <v>4.28100232079598</v>
       </c>
       <c r="K2" t="n">
-        <v>4.28100232079598</v>
+        <v>57.25840604064623</v>
       </c>
       <c r="L2" t="n">
-        <v>4.28100232079598</v>
+        <v>57.25840604064623</v>
       </c>
       <c r="M2" t="n">
         <v>57.25840604064623</v>
       </c>
       <c r="N2" t="n">
-        <v>110.2358097604965</v>
+        <v>108.0953086000985</v>
       </c>
       <c r="O2" t="n">
         <v>161.0727123199487</v>
@@ -4375,7 +4375,7 @@
         <v>214.050116039799</v>
       </c>
       <c r="Y2" t="n">
-        <v>173.385681888029</v>
+        <v>214.050116039799</v>
       </c>
     </row>
     <row r="3">
@@ -4385,16 +4385,16 @@
         </is>
       </c>
       <c r="B3" t="n">
+        <v>214.050116039799</v>
+      </c>
+      <c r="C3" t="n">
+        <v>214.050116039799</v>
+      </c>
+      <c r="D3" t="n">
+        <v>159.9970564337892</v>
+      </c>
+      <c r="E3" t="n">
         <v>105.9439968277793</v>
-      </c>
-      <c r="C3" t="n">
-        <v>105.9439968277793</v>
-      </c>
-      <c r="D3" t="n">
-        <v>105.9439968277793</v>
-      </c>
-      <c r="E3" t="n">
-        <v>51.89093722176946</v>
       </c>
       <c r="F3" t="n">
         <v>51.89093722176946</v>
@@ -4403,7 +4403,7 @@
         <v>51.89093722176946</v>
       </c>
       <c r="H3" t="n">
-        <v>5.035134973581694</v>
+        <v>51.89093722176946</v>
       </c>
       <c r="I3" t="n">
         <v>5.035134973581694</v>
@@ -4412,16 +4412,16 @@
         <v>4.28100232079598</v>
       </c>
       <c r="K3" t="n">
-        <v>55.11790488024824</v>
+        <v>4.28100232079598</v>
       </c>
       <c r="L3" t="n">
         <v>55.11790488024824</v>
       </c>
       <c r="M3" t="n">
+        <v>55.11790488024824</v>
+      </c>
+      <c r="N3" t="n">
         <v>108.0953086000985</v>
-      </c>
-      <c r="N3" t="n">
-        <v>161.0727123199487</v>
       </c>
       <c r="O3" t="n">
         <v>161.0727123199487</v>
@@ -4433,28 +4433,28 @@
         <v>214.050116039799</v>
       </c>
       <c r="R3" t="n">
-        <v>159.9970564337892</v>
+        <v>214.050116039799</v>
       </c>
       <c r="S3" t="n">
-        <v>159.9970564337892</v>
+        <v>214.050116039799</v>
       </c>
       <c r="T3" t="n">
-        <v>159.9970564337892</v>
+        <v>214.050116039799</v>
       </c>
       <c r="U3" t="n">
-        <v>159.9970564337892</v>
+        <v>214.050116039799</v>
       </c>
       <c r="V3" t="n">
-        <v>159.9970564337892</v>
+        <v>214.050116039799</v>
       </c>
       <c r="W3" t="n">
-        <v>159.9970564337892</v>
+        <v>214.050116039799</v>
       </c>
       <c r="X3" t="n">
-        <v>159.9970564337892</v>
+        <v>214.050116039799</v>
       </c>
       <c r="Y3" t="n">
-        <v>159.9970564337892</v>
+        <v>214.050116039799</v>
       </c>
     </row>
     <row r="4">
@@ -4464,22 +4464,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>58.33406192680583</v>
+        <v>30.70717359904702</v>
       </c>
       <c r="C4" t="n">
-        <v>58.33406192680583</v>
+        <v>30.70717359904702</v>
       </c>
       <c r="D4" t="n">
-        <v>58.33406192680583</v>
+        <v>30.70717359904702</v>
       </c>
       <c r="E4" t="n">
-        <v>58.33406192680583</v>
+        <v>30.70717359904702</v>
       </c>
       <c r="F4" t="n">
-        <v>4.28100232079598</v>
+        <v>30.70717359904702</v>
       </c>
       <c r="G4" t="n">
-        <v>4.28100232079598</v>
+        <v>30.70717359904702</v>
       </c>
       <c r="H4" t="n">
         <v>4.28100232079598</v>
@@ -4515,25 +4515,25 @@
         <v>138.8132928110667</v>
       </c>
       <c r="S4" t="n">
-        <v>138.8132928110667</v>
+        <v>84.76023320505688</v>
       </c>
       <c r="T4" t="n">
-        <v>138.8132928110667</v>
+        <v>30.70717359904702</v>
       </c>
       <c r="U4" t="n">
-        <v>138.8132928110667</v>
+        <v>30.70717359904702</v>
       </c>
       <c r="V4" t="n">
-        <v>84.76023320505688</v>
+        <v>30.70717359904702</v>
       </c>
       <c r="W4" t="n">
-        <v>84.76023320505688</v>
+        <v>30.70717359904702</v>
       </c>
       <c r="X4" t="n">
-        <v>58.33406192680583</v>
+        <v>30.70717359904702</v>
       </c>
       <c r="Y4" t="n">
-        <v>58.33406192680583</v>
+        <v>30.70717359904702</v>
       </c>
     </row>
     <row r="5">
@@ -4543,16 +4543,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>720.6083788665362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="C5" t="n">
-        <v>720.6083788665362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="D5" t="n">
-        <v>477.1596022224361</v>
+        <v>761.6974622895962</v>
       </c>
       <c r="E5" t="n">
-        <v>281.7454097505996</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="F5" t="n">
         <v>274.7999090013961</v>
@@ -4588,31 +4588,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q5" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R5" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S5" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="T5" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="U5" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="V5" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="W5" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="X5" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="Y5" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
     </row>
     <row r="6">
@@ -4622,49 +4622,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>304.5465265007123</v>
+        <v>318.0035561858384</v>
       </c>
       <c r="C6" t="n">
-        <v>304.5465265007123</v>
+        <v>318.0035561858384</v>
       </c>
       <c r="D6" t="n">
-        <v>304.5465265007123</v>
+        <v>318.0035561858384</v>
       </c>
       <c r="E6" t="n">
-        <v>304.5465265007123</v>
+        <v>158.7661011803829</v>
       </c>
       <c r="F6" t="n">
-        <v>158.0119685275972</v>
+        <v>158.7661011803829</v>
       </c>
       <c r="G6" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H6" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I6" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J6" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K6" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L6" t="n">
-        <v>374.6018090363993</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="M6" t="n">
-        <v>613.2059550252818</v>
+        <v>257.8852890990952</v>
       </c>
       <c r="N6" t="n">
-        <v>851.8101010141643</v>
+        <v>496.4894350879777</v>
       </c>
       <c r="O6" t="n">
-        <v>851.8101010141643</v>
+        <v>735.0935810768601</v>
       </c>
       <c r="P6" t="n">
-        <v>894.6625969973069</v>
+        <v>917.7370586902109</v>
       </c>
       <c r="Q6" t="n">
         <v>964.0571555106362</v>
@@ -4676,22 +4676,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T6" t="n">
-        <v>761.8705608694022</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U6" t="n">
-        <v>533.6469426057913</v>
+        <v>796.6044410616812</v>
       </c>
       <c r="V6" t="n">
-        <v>533.6469426057913</v>
+        <v>561.4523328299385</v>
       </c>
       <c r="W6" t="n">
-        <v>472.7618635207803</v>
+        <v>318.0035561858384</v>
       </c>
       <c r="X6" t="n">
-        <v>472.7618635207803</v>
+        <v>318.0035561858384</v>
       </c>
       <c r="Y6" t="n">
-        <v>472.7618635207803</v>
+        <v>318.0035561858384</v>
       </c>
     </row>
     <row r="7">
@@ -4746,28 +4746,28 @@
         <v>153.8134336004835</v>
       </c>
       <c r="Q7" t="n">
-        <v>153.8134336004835</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="R7" t="n">
-        <v>153.8134336004835</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="S7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y7" t="n">
         <v>19.28114311021272</v>
@@ -4786,22 +4786,22 @@
         <v>720.6083788665362</v>
       </c>
       <c r="D8" t="n">
-        <v>720.6083788665362</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="E8" t="n">
-        <v>477.1596022224361</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="F8" t="n">
-        <v>470.2141014732327</v>
+        <v>226.7653248291326</v>
       </c>
       <c r="G8" t="n">
-        <v>226.7653248291326</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="H8" t="n">
-        <v>226.7653248291326</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I8" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J8" t="n">
         <v>19.28114311021272</v>
@@ -4859,28 +4859,28 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>324.1694235828572</v>
+        <v>272.1352367728036</v>
       </c>
       <c r="C9" t="n">
-        <v>165.8157010833278</v>
+        <v>272.1352367728036</v>
       </c>
       <c r="D9" t="n">
-        <v>165.8157010833278</v>
+        <v>272.1352367728036</v>
       </c>
       <c r="E9" t="n">
-        <v>165.8157010833278</v>
+        <v>272.1352367728036</v>
       </c>
       <c r="F9" t="n">
-        <v>19.28114311021272</v>
+        <v>272.1352367728036</v>
       </c>
       <c r="G9" t="n">
-        <v>19.28114311021272</v>
+        <v>133.4044113554191</v>
       </c>
       <c r="H9" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I9" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J9" t="n">
         <v>19.28114311021272</v>
@@ -4895,10 +4895,10 @@
         <v>613.2059550252818</v>
       </c>
       <c r="N9" t="n">
-        <v>851.8101010141643</v>
+        <v>712.019119383956</v>
       </c>
       <c r="O9" t="n">
-        <v>851.8101010141643</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P9" t="n">
         <v>894.6625969973069</v>
@@ -4910,25 +4910,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S9" t="n">
-        <v>964.0571555106362</v>
+        <v>952.9227162898803</v>
       </c>
       <c r="T9" t="n">
-        <v>964.0571555106362</v>
+        <v>750.7361216486463</v>
       </c>
       <c r="U9" t="n">
-        <v>735.8335372470253</v>
+        <v>750.7361216486463</v>
       </c>
       <c r="V9" t="n">
-        <v>735.8335372470253</v>
+        <v>515.5840134169036</v>
       </c>
       <c r="W9" t="n">
-        <v>492.3847606029253</v>
+        <v>272.1352367728036</v>
       </c>
       <c r="X9" t="n">
-        <v>492.3847606029253</v>
+        <v>272.1352367728036</v>
       </c>
       <c r="Y9" t="n">
-        <v>492.3847606029253</v>
+        <v>272.1352367728036</v>
       </c>
     </row>
     <row r="10">
@@ -4938,31 +4938,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="C10" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="D10" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="E10" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="F10" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="G10" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="H10" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="I10" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="J10" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="K10" t="n">
         <v>19.28114311021272</v>
@@ -4980,34 +4980,34 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P10" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Q10" t="n">
-        <v>153.8134336004835</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="R10" t="n">
-        <v>153.8134336004835</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="S10" t="n">
-        <v>153.8134336004835</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="T10" t="n">
-        <v>153.8134336004835</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="U10" t="n">
-        <v>153.8134336004835</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="V10" t="n">
-        <v>153.8134336004835</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="W10" t="n">
-        <v>153.8134336004835</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="X10" t="n">
-        <v>153.8134336004835</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="Y10" t="n">
-        <v>153.8134336004835</v>
+        <v>41.77557929797318</v>
       </c>
     </row>
     <row r="11">
@@ -5017,28 +5017,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>243.9530410142718</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="C11" t="n">
-        <v>243.9530410142718</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="D11" t="n">
-        <v>243.9530410142718</v>
+        <v>749.627473042513</v>
       </c>
       <c r="E11" t="n">
-        <v>243.9530410142718</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="F11" t="n">
-        <v>243.9530410142718</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="G11" t="n">
-        <v>243.9530410142718</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="H11" t="n">
-        <v>243.9530410142718</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I11" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J11" t="n">
         <v>19.28114311021272</v>
@@ -5062,31 +5062,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q11" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R11" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S11" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T11" t="n">
-        <v>738.7078125165641</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U11" t="n">
-        <v>495.259035872464</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="V11" t="n">
-        <v>495.259035872464</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="W11" t="n">
-        <v>251.810259228364</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="X11" t="n">
-        <v>251.810259228364</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="Y11" t="n">
-        <v>251.810259228364</v>
+        <v>953.9655401424092</v>
       </c>
     </row>
     <row r="12">
@@ -5096,22 +5096,22 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>19.28114311021272</v>
+        <v>619.4388494194218</v>
       </c>
       <c r="C12" t="n">
-        <v>19.28114311021272</v>
+        <v>619.4388494194218</v>
       </c>
       <c r="D12" t="n">
-        <v>19.28114311021272</v>
+        <v>470.5044397581705</v>
       </c>
       <c r="E12" t="n">
-        <v>19.28114311021272</v>
+        <v>417.9156620931329</v>
       </c>
       <c r="F12" t="n">
-        <v>19.28114311021272</v>
+        <v>271.3811041200179</v>
       </c>
       <c r="G12" t="n">
-        <v>19.28114311021272</v>
+        <v>132.6502787026334</v>
       </c>
       <c r="H12" t="n">
         <v>19.28114311021272</v>
@@ -5123,19 +5123,19 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K12" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L12" t="n">
-        <v>304.2053859195205</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M12" t="n">
-        <v>542.809531908403</v>
+        <v>486.8488635328713</v>
       </c>
       <c r="N12" t="n">
-        <v>781.4136778972854</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O12" t="n">
-        <v>781.4136778972854</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P12" t="n">
         <v>964.0571555106362</v>
@@ -5144,28 +5144,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R12" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S12" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T12" t="n">
-        <v>761.8705608694022</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="U12" t="n">
-        <v>705.7335281915883</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="V12" t="n">
-        <v>470.5814199598456</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="W12" t="n">
-        <v>227.1326433157456</v>
+        <v>619.4388494194218</v>
       </c>
       <c r="X12" t="n">
-        <v>19.28114311021272</v>
+        <v>619.4388494194218</v>
       </c>
       <c r="Y12" t="n">
-        <v>19.28114311021272</v>
+        <v>619.4388494194218</v>
       </c>
     </row>
     <row r="13">
@@ -5223,13 +5223,13 @@
         <v>153.8134336004835</v>
       </c>
       <c r="R13" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S13" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T13" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U13" t="n">
         <v>19.28114311021272</v>
@@ -5254,7 +5254,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>718.7806050553886</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="C14" t="n">
         <v>475.3318284112885</v>
@@ -5263,13 +5263,13 @@
         <v>475.3318284112885</v>
       </c>
       <c r="E14" t="n">
-        <v>231.8830517671884</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="F14" t="n">
-        <v>231.8830517671884</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="G14" t="n">
-        <v>231.8830517671884</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="H14" t="n">
         <v>231.8830517671884</v>
@@ -5299,31 +5299,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q14" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R14" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S14" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T14" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U14" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="V14" t="n">
-        <v>964.0571555106362</v>
+        <v>710.516763498309</v>
       </c>
       <c r="W14" t="n">
-        <v>964.0571555106362</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="X14" t="n">
-        <v>964.0571555106362</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="Y14" t="n">
-        <v>962.2293816994886</v>
+        <v>475.3318284112885</v>
       </c>
     </row>
     <row r="15">
@@ -5333,28 +5333,28 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>281.5846883638847</v>
+        <v>466.9379658470897</v>
       </c>
       <c r="C15" t="n">
-        <v>281.5846883638847</v>
+        <v>466.9379658470897</v>
       </c>
       <c r="D15" t="n">
-        <v>132.6502787026334</v>
+        <v>318.0035561858384</v>
       </c>
       <c r="E15" t="n">
-        <v>132.6502787026334</v>
+        <v>158.7661011803829</v>
       </c>
       <c r="F15" t="n">
-        <v>132.6502787026334</v>
+        <v>158.7661011803829</v>
       </c>
       <c r="G15" t="n">
-        <v>132.6502787026334</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H15" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I15" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J15" t="n">
         <v>19.28114311021272</v>
@@ -5366,16 +5366,16 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M15" t="n">
-        <v>613.2059550252818</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="N15" t="n">
-        <v>725.4530095217538</v>
+        <v>712.019119383956</v>
       </c>
       <c r="O15" t="n">
-        <v>964.0571555106362</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P15" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q15" t="n">
         <v>964.0571555106362</v>
@@ -5387,22 +5387,22 @@
         <v>862.8876260635219</v>
       </c>
       <c r="T15" t="n">
-        <v>717.6598068330284</v>
+        <v>660.701031422288</v>
       </c>
       <c r="U15" t="n">
-        <v>489.4361885694175</v>
+        <v>660.701031422288</v>
       </c>
       <c r="V15" t="n">
-        <v>489.4361885694175</v>
+        <v>660.701031422288</v>
       </c>
       <c r="W15" t="n">
-        <v>489.4361885694175</v>
+        <v>660.701031422288</v>
       </c>
       <c r="X15" t="n">
-        <v>281.5846883638847</v>
+        <v>635.1533028671577</v>
       </c>
       <c r="Y15" t="n">
-        <v>281.5846883638847</v>
+        <v>635.1533028671577</v>
       </c>
     </row>
     <row r="16">
@@ -5475,10 +5475,10 @@
         <v>153.8134336004835</v>
       </c>
       <c r="W16" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X16" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y16" t="n">
         <v>19.28114311021272</v>
@@ -5491,31 +5491,31 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>730.8505943024719</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C17" t="n">
-        <v>730.8505943024719</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D17" t="n">
-        <v>730.8505943024719</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E17" t="n">
-        <v>730.8505943024719</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F17" t="n">
-        <v>487.4018176583718</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G17" t="n">
-        <v>243.9530410142718</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H17" t="n">
-        <v>243.9530410142718</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I17" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J17" t="n">
-        <v>19.28114311021272</v>
+        <v>19.28114311021275</v>
       </c>
       <c r="K17" t="n">
         <v>122.2961490211351</v>
@@ -5536,31 +5536,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q17" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R17" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S17" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T17" t="n">
-        <v>802.5825927271064</v>
+        <v>749.627473042513</v>
       </c>
       <c r="U17" t="n">
-        <v>802.5825927271064</v>
+        <v>749.627473042513</v>
       </c>
       <c r="V17" t="n">
-        <v>730.8505943024719</v>
+        <v>749.627473042513</v>
       </c>
       <c r="W17" t="n">
-        <v>730.8505943024719</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="X17" t="n">
-        <v>730.8505943024719</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="Y17" t="n">
-        <v>730.8505943024719</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="18">
@@ -5570,28 +5570,28 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>217.6974229850125</v>
+        <v>648.4405950311615</v>
       </c>
       <c r="C18" t="n">
-        <v>43.24439370388544</v>
+        <v>473.9875657500345</v>
       </c>
       <c r="D18" t="n">
-        <v>43.24439370388544</v>
+        <v>325.0531560887832</v>
       </c>
       <c r="E18" t="n">
-        <v>43.24439370388544</v>
+        <v>165.8157010833278</v>
       </c>
       <c r="F18" t="n">
-        <v>43.24439370388544</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G18" t="n">
-        <v>43.24439370388544</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H18" t="n">
-        <v>43.24439370388544</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I18" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J18" t="n">
         <v>19.28114311021272</v>
@@ -5606,40 +5606,40 @@
         <v>613.2059550252818</v>
       </c>
       <c r="N18" t="n">
-        <v>613.2059550252818</v>
+        <v>851.8101010141643</v>
       </c>
       <c r="O18" t="n">
-        <v>781.4136778972854</v>
+        <v>851.8101010141643</v>
       </c>
       <c r="P18" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q18" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R18" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S18" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T18" t="n">
-        <v>660.701031422288</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U18" t="n">
-        <v>660.701031422288</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V18" t="n">
-        <v>425.5489231905453</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W18" t="n">
-        <v>425.5489231905453</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X18" t="n">
-        <v>217.6974229850125</v>
+        <v>816.6559320512295</v>
       </c>
       <c r="Y18" t="n">
-        <v>217.6974229850125</v>
+        <v>816.6559320512295</v>
       </c>
     </row>
     <row r="19">
@@ -5694,19 +5694,19 @@
         <v>153.8134336004835</v>
       </c>
       <c r="Q19" t="n">
-        <v>66.78106667958005</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R19" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S19" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T19" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U19" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V19" t="n">
         <v>19.28114311021272</v>
@@ -5728,19 +5728,19 @@
         </is>
       </c>
       <c r="B20" t="n">
+        <v>477.1596022224361</v>
+      </c>
+      <c r="C20" t="n">
+        <v>477.1596022224361</v>
+      </c>
+      <c r="D20" t="n">
+        <v>477.1596022224361</v>
+      </c>
+      <c r="E20" t="n">
+        <v>477.1596022224361</v>
+      </c>
+      <c r="F20" t="n">
         <v>262.7299197543128</v>
-      </c>
-      <c r="C20" t="n">
-        <v>19.28114311021272</v>
-      </c>
-      <c r="D20" t="n">
-        <v>19.28114311021272</v>
-      </c>
-      <c r="E20" t="n">
-        <v>19.28114311021272</v>
-      </c>
-      <c r="F20" t="n">
-        <v>19.28114311021272</v>
       </c>
       <c r="G20" t="n">
         <v>19.28114311021272</v>
@@ -5773,31 +5773,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q20" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R20" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S20" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T20" t="n">
-        <v>577.2332497330343</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U20" t="n">
-        <v>333.7844730889342</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V20" t="n">
-        <v>333.7844730889342</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W20" t="n">
-        <v>262.7299197543128</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X20" t="n">
-        <v>262.7299197543128</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y20" t="n">
-        <v>262.7299197543128</v>
+        <v>720.6083788665362</v>
       </c>
     </row>
     <row r="21">
@@ -5807,28 +5807,28 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>193.7341723913397</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="C21" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="D21" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="E21" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F21" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G21" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H21" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I21" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J21" t="n">
         <v>19.28114311021272</v>
@@ -5843,7 +5843,7 @@
         <v>374.6018090363993</v>
       </c>
       <c r="N21" t="n">
-        <v>542.809531908403</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="O21" t="n">
         <v>781.4136778972854</v>
@@ -5855,28 +5855,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R21" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S21" t="n">
-        <v>689.4702815141908</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T21" t="n">
-        <v>487.2836868729568</v>
+        <v>663.8706929970961</v>
       </c>
       <c r="U21" t="n">
-        <v>487.2836868729568</v>
+        <v>435.6470747334852</v>
       </c>
       <c r="V21" t="n">
-        <v>401.5856725968725</v>
+        <v>435.6470747334852</v>
       </c>
       <c r="W21" t="n">
-        <v>401.5856725968725</v>
+        <v>435.6470747334852</v>
       </c>
       <c r="X21" t="n">
-        <v>193.7341723913397</v>
+        <v>227.7955745279523</v>
       </c>
       <c r="Y21" t="n">
-        <v>193.7341723913397</v>
+        <v>20.03527576299844</v>
       </c>
     </row>
     <row r="22">
@@ -5886,19 +5886,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C22" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D22" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E22" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="F22" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="G22" t="n">
         <v>19.28114311021272</v>
@@ -5931,31 +5931,31 @@
         <v>153.8134336004835</v>
       </c>
       <c r="Q22" t="n">
-        <v>66.78106667958005</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R22" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S22" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T22" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U22" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V22" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W22" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X22" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y22" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="23">
@@ -5965,28 +5965,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>19.28114311021272</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="C23" t="n">
-        <v>19.28114311021272</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="D23" t="n">
-        <v>19.28114311021272</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="E23" t="n">
-        <v>19.28114311021272</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="F23" t="n">
-        <v>19.28114311021272</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="G23" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="H23" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I23" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J23" t="n">
         <v>19.28114311021272</v>
@@ -6013,28 +6013,28 @@
         <v>953.9655401424092</v>
       </c>
       <c r="R23" t="n">
-        <v>953.9655401424092</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S23" t="n">
-        <v>953.9655401424092</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="T23" t="n">
-        <v>728.6161971483371</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="U23" t="n">
-        <v>485.167420504237</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="V23" t="n">
-        <v>262.7299197543128</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="W23" t="n">
-        <v>262.7299197543128</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="X23" t="n">
-        <v>262.7299197543128</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="Y23" t="n">
-        <v>19.28114311021272</v>
+        <v>518.2486856454962</v>
       </c>
     </row>
     <row r="24">
@@ -6044,46 +6044,46 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>246.4666730769152</v>
+        <v>194.4883050441255</v>
       </c>
       <c r="C24" t="n">
-        <v>246.4666730769152</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="D24" t="n">
-        <v>97.53226341566398</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="E24" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F24" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G24" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H24" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I24" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J24" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K24" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L24" t="n">
-        <v>144.6387031680501</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M24" t="n">
-        <v>383.2428491569326</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="N24" t="n">
-        <v>621.8469951458151</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="O24" t="n">
-        <v>860.4511411346975</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P24" t="n">
         <v>894.6625969973069</v>
@@ -6092,28 +6092,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R24" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S24" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T24" t="n">
-        <v>689.4702815141908</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="U24" t="n">
-        <v>689.4702815141908</v>
+        <v>533.6469426057913</v>
       </c>
       <c r="V24" t="n">
-        <v>454.3181732824481</v>
+        <v>533.6469426057913</v>
       </c>
       <c r="W24" t="n">
-        <v>454.3181732824481</v>
+        <v>533.6469426057913</v>
       </c>
       <c r="X24" t="n">
-        <v>246.4666730769152</v>
+        <v>402.2486038090794</v>
       </c>
       <c r="Y24" t="n">
-        <v>246.4666730769152</v>
+        <v>194.4883050441255</v>
       </c>
     </row>
     <row r="25">
@@ -6165,25 +6165,25 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P25" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q25" t="n">
-        <v>64.03213664411894</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R25" t="n">
-        <v>64.03213664411894</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S25" t="n">
-        <v>64.03213664411894</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T25" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U25" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V25" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W25" t="n">
         <v>19.28114311021272</v>
@@ -6202,19 +6202,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>262.7299197543128</v>
+        <v>559.1338160830064</v>
       </c>
       <c r="C26" t="n">
-        <v>19.28114311021272</v>
+        <v>559.1338160830064</v>
       </c>
       <c r="D26" t="n">
-        <v>19.28114311021272</v>
+        <v>315.6850394389064</v>
       </c>
       <c r="E26" t="n">
-        <v>19.28114311021272</v>
+        <v>72.23626279480629</v>
       </c>
       <c r="F26" t="n">
-        <v>19.28114311021272</v>
+        <v>72.23626279480629</v>
       </c>
       <c r="G26" t="n">
         <v>19.28114311021272</v>
@@ -6250,28 +6250,28 @@
         <v>953.9655401424092</v>
       </c>
       <c r="R26" t="n">
-        <v>953.9655401424092</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S26" t="n">
-        <v>953.9655401424092</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="T26" t="n">
-        <v>953.9655401424092</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="U26" t="n">
-        <v>953.9655401424092</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="V26" t="n">
-        <v>710.516763498309</v>
+        <v>559.1338160830064</v>
       </c>
       <c r="W26" t="n">
-        <v>710.516763498309</v>
+        <v>559.1338160830064</v>
       </c>
       <c r="X26" t="n">
-        <v>710.516763498309</v>
+        <v>559.1338160830064</v>
       </c>
       <c r="Y26" t="n">
-        <v>467.067986854209</v>
+        <v>559.1338160830064</v>
       </c>
     </row>
     <row r="27">
@@ -6281,22 +6281,22 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>19.28114311021272</v>
+        <v>132.6502787026334</v>
       </c>
       <c r="C27" t="n">
-        <v>19.28114311021272</v>
+        <v>132.6502787026334</v>
       </c>
       <c r="D27" t="n">
-        <v>19.28114311021272</v>
+        <v>132.6502787026334</v>
       </c>
       <c r="E27" t="n">
-        <v>19.28114311021272</v>
+        <v>132.6502787026334</v>
       </c>
       <c r="F27" t="n">
-        <v>19.28114311021272</v>
+        <v>132.6502787026334</v>
       </c>
       <c r="G27" t="n">
-        <v>19.28114311021272</v>
+        <v>132.6502787026334</v>
       </c>
       <c r="H27" t="n">
         <v>19.28114311021272</v>
@@ -6308,16 +6308,16 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K27" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L27" t="n">
-        <v>374.6018090363993</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M27" t="n">
-        <v>613.2059550252818</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="N27" t="n">
-        <v>781.4136778972854</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O27" t="n">
         <v>781.4136778972854</v>
@@ -6329,28 +6329,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R27" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S27" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T27" t="n">
-        <v>487.2836868729568</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="U27" t="n">
-        <v>487.2836868729568</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="V27" t="n">
-        <v>487.2836868729568</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="W27" t="n">
-        <v>243.8349102288568</v>
+        <v>548.2620776731201</v>
       </c>
       <c r="X27" t="n">
-        <v>35.98341002332393</v>
+        <v>340.4105774675873</v>
       </c>
       <c r="Y27" t="n">
-        <v>19.28114311021272</v>
+        <v>132.6502787026334</v>
       </c>
     </row>
     <row r="28">
@@ -6402,13 +6402,13 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P28" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q28" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R28" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S28" t="n">
         <v>19.28114311021272</v>
@@ -6439,22 +6439,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>223.6192102101089</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="C29" t="n">
-        <v>19.28114311021272</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="D29" t="n">
-        <v>19.28114311021272</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="E29" t="n">
-        <v>19.28114311021272</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="F29" t="n">
-        <v>19.28114311021272</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="G29" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="H29" t="n">
         <v>19.28114311021272</v>
@@ -6484,31 +6484,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q29" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R29" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S29" t="n">
-        <v>953.9655401424092</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="T29" t="n">
-        <v>953.9655401424092</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="U29" t="n">
-        <v>710.516763498309</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="V29" t="n">
-        <v>467.067986854209</v>
+        <v>509.4769954460863</v>
       </c>
       <c r="W29" t="n">
-        <v>223.6192102101089</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="X29" t="n">
-        <v>223.6192102101089</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="Y29" t="n">
-        <v>223.6192102101089</v>
+        <v>506.1786963984129</v>
       </c>
     </row>
     <row r="30">
@@ -6518,25 +6518,25 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>19.28114311021272</v>
+        <v>319.0683498528888</v>
       </c>
       <c r="C30" t="n">
-        <v>19.28114311021272</v>
+        <v>319.0683498528888</v>
       </c>
       <c r="D30" t="n">
-        <v>19.28114311021272</v>
+        <v>319.0683498528888</v>
       </c>
       <c r="E30" t="n">
-        <v>19.28114311021272</v>
+        <v>159.8308948474333</v>
       </c>
       <c r="F30" t="n">
-        <v>19.28114311021272</v>
+        <v>159.8308948474333</v>
       </c>
       <c r="G30" t="n">
-        <v>19.28114311021272</v>
+        <v>21.10006943004879</v>
       </c>
       <c r="H30" t="n">
-        <v>19.28114311021272</v>
+        <v>21.10006943004879</v>
       </c>
       <c r="I30" t="n">
         <v>19.28114311021272</v>
@@ -6545,13 +6545,13 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K30" t="n">
-        <v>65.60123993063803</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L30" t="n">
-        <v>65.60123993063803</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M30" t="n">
-        <v>304.2053859195205</v>
+        <v>542.809531908403</v>
       </c>
       <c r="N30" t="n">
         <v>542.809531908403</v>
@@ -6581,13 +6581,13 @@
         <v>487.2836868729568</v>
       </c>
       <c r="W30" t="n">
-        <v>243.8349102288568</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="X30" t="n">
-        <v>243.8349102288568</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="Y30" t="n">
-        <v>36.07461146390284</v>
+        <v>487.2836868729568</v>
       </c>
     </row>
     <row r="31">
@@ -6597,7 +6597,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C31" t="n">
         <v>19.28114311021272</v>
@@ -6639,34 +6639,34 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P31" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q31" t="n">
-        <v>64.03213664411894</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R31" t="n">
-        <v>64.03213664411894</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S31" t="n">
-        <v>64.03213664411894</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T31" t="n">
-        <v>64.03213664411894</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U31" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V31" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W31" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X31" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y31" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="32">
@@ -6676,25 +6676,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>475.3318284112885</v>
+        <v>467.067986854209</v>
       </c>
       <c r="C32" t="n">
-        <v>475.3318284112885</v>
+        <v>467.067986854209</v>
       </c>
       <c r="D32" t="n">
-        <v>231.8830517671884</v>
+        <v>467.067986854209</v>
       </c>
       <c r="E32" t="n">
-        <v>231.8830517671884</v>
+        <v>467.067986854209</v>
       </c>
       <c r="F32" t="n">
-        <v>231.8830517671884</v>
+        <v>223.6192102101089</v>
       </c>
       <c r="G32" t="n">
-        <v>231.8830517671884</v>
+        <v>223.6192102101089</v>
       </c>
       <c r="H32" t="n">
-        <v>231.8830517671884</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I32" t="n">
         <v>19.28114311021272</v>
@@ -6727,25 +6727,25 @@
         <v>953.9655401424092</v>
       </c>
       <c r="S32" t="n">
-        <v>742.8341567219593</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T32" t="n">
-        <v>718.7806050553886</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U32" t="n">
-        <v>718.7806050553886</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="V32" t="n">
-        <v>475.3318284112885</v>
+        <v>710.516763498309</v>
       </c>
       <c r="W32" t="n">
-        <v>475.3318284112885</v>
+        <v>710.516763498309</v>
       </c>
       <c r="X32" t="n">
-        <v>475.3318284112885</v>
+        <v>710.516763498309</v>
       </c>
       <c r="Y32" t="n">
-        <v>475.3318284112885</v>
+        <v>710.516763498309</v>
       </c>
     </row>
     <row r="33">
@@ -6755,25 +6755,25 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>19.28114311021272</v>
+        <v>481.618781308658</v>
       </c>
       <c r="C33" t="n">
-        <v>19.28114311021272</v>
+        <v>481.618781308658</v>
       </c>
       <c r="D33" t="n">
-        <v>19.28114311021272</v>
+        <v>481.618781308658</v>
       </c>
       <c r="E33" t="n">
-        <v>19.28114311021272</v>
+        <v>322.3813263032025</v>
       </c>
       <c r="F33" t="n">
-        <v>19.28114311021272</v>
+        <v>175.8467683300874</v>
       </c>
       <c r="G33" t="n">
-        <v>19.28114311021272</v>
+        <v>37.11594291270293</v>
       </c>
       <c r="H33" t="n">
-        <v>19.28114311021272</v>
+        <v>37.11594291270293</v>
       </c>
       <c r="I33" t="n">
         <v>19.28114311021272</v>
@@ -6788,16 +6788,16 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M33" t="n">
-        <v>613.2059550252818</v>
+        <v>542.809531908403</v>
       </c>
       <c r="N33" t="n">
-        <v>656.0584510084244</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O33" t="n">
-        <v>894.6625969973069</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P33" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q33" t="n">
         <v>964.0571555106362</v>
@@ -6806,25 +6806,25 @@
         <v>862.8876260635219</v>
       </c>
       <c r="S33" t="n">
-        <v>862.8876260635219</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T33" t="n">
-        <v>660.701031422288</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="U33" t="n">
-        <v>660.701031422288</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="V33" t="n">
-        <v>425.5489231905453</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="W33" t="n">
-        <v>395.2567788952347</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="X33" t="n">
-        <v>395.2567788952347</v>
+        <v>481.618781308658</v>
       </c>
       <c r="Y33" t="n">
-        <v>187.4964801302808</v>
+        <v>481.618781308658</v>
       </c>
     </row>
     <row r="34">
@@ -6834,19 +6834,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C34" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D34" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E34" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="F34" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="G34" t="n">
         <v>19.28114311021272</v>
@@ -6876,34 +6876,34 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P34" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q34" t="n">
-        <v>64.03213664411894</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R34" t="n">
-        <v>64.03213664411894</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S34" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T34" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U34" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V34" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W34" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X34" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y34" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="35">
@@ -6913,7 +6913,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>132.7447050367114</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C35" t="n">
         <v>19.28114311021272</v>
@@ -6958,31 +6958,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q35" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R35" t="n">
-        <v>812.6742080953335</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S35" t="n">
-        <v>601.5428246748836</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="T35" t="n">
-        <v>376.1934816808115</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="U35" t="n">
-        <v>132.7447050367114</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="V35" t="n">
-        <v>132.7447050367114</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="W35" t="n">
-        <v>132.7447050367114</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X35" t="n">
-        <v>132.7447050367114</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y35" t="n">
-        <v>132.7447050367114</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="36">
@@ -6992,22 +6992,22 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>19.28114311021272</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="C36" t="n">
-        <v>19.28114311021272</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="D36" t="n">
-        <v>19.28114311021272</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="E36" t="n">
-        <v>19.28114311021272</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="F36" t="n">
-        <v>19.28114311021272</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="G36" t="n">
-        <v>19.28114311021272</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="H36" t="n">
         <v>19.28114311021272</v>
@@ -7019,16 +7019,16 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K36" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L36" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M36" t="n">
+        <v>374.6018090363993</v>
+      </c>
+      <c r="N36" t="n">
         <v>473.4149733950735</v>
-      </c>
-      <c r="N36" t="n">
-        <v>712.019119383956</v>
       </c>
       <c r="O36" t="n">
         <v>712.019119383956</v>
@@ -7043,25 +7043,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S36" t="n">
-        <v>790.6398109613051</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T36" t="n">
-        <v>670.0450503124422</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U36" t="n">
-        <v>670.0450503124422</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="V36" t="n">
-        <v>434.8929420806995</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="W36" t="n">
-        <v>434.8929420806995</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="X36" t="n">
-        <v>227.0414418751666</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="Y36" t="n">
-        <v>19.28114311021272</v>
+        <v>49.38115216564972</v>
       </c>
     </row>
     <row r="37">
@@ -7116,25 +7116,25 @@
         <v>153.8134336004835</v>
       </c>
       <c r="Q37" t="n">
-        <v>66.78106667958005</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R37" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S37" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T37" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U37" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V37" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W37" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X37" t="n">
         <v>19.28114311021272</v>
@@ -7204,13 +7204,13 @@
         <v>953.9655401424092</v>
       </c>
       <c r="T38" t="n">
-        <v>728.6161971483371</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U38" t="n">
-        <v>728.6161971483371</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="V38" t="n">
-        <v>518.2486856454962</v>
+        <v>761.6974622895962</v>
       </c>
       <c r="W38" t="n">
         <v>518.2486856454962</v>
@@ -7219,7 +7219,7 @@
         <v>274.7999090013961</v>
       </c>
       <c r="Y38" t="n">
-        <v>274.7999090013961</v>
+        <v>31.35113235729608</v>
       </c>
     </row>
     <row r="39">
@@ -7229,28 +7229,28 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>19.28114311021272</v>
+        <v>168.9696854242497</v>
       </c>
       <c r="C39" t="n">
-        <v>19.28114311021272</v>
+        <v>168.9696854242497</v>
       </c>
       <c r="D39" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="E39" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F39" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G39" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H39" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I39" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J39" t="n">
         <v>19.28114311021272</v>
@@ -7259,46 +7259,46 @@
         <v>19.28114311021272</v>
       </c>
       <c r="L39" t="n">
-        <v>65.60123993063803</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="M39" t="n">
-        <v>304.2053859195205</v>
+        <v>257.8852890990952</v>
       </c>
       <c r="N39" t="n">
-        <v>542.809531908403</v>
+        <v>496.4894350879777</v>
       </c>
       <c r="O39" t="n">
-        <v>781.4136778972854</v>
+        <v>735.0935810768601</v>
       </c>
       <c r="P39" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q39" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R39" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S39" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T39" t="n">
-        <v>487.2836868729568</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="U39" t="n">
-        <v>487.2836868729568</v>
+        <v>584.5814843947364</v>
       </c>
       <c r="V39" t="n">
-        <v>262.7299197543128</v>
+        <v>584.5814843947364</v>
       </c>
       <c r="W39" t="n">
-        <v>19.28114311021272</v>
+        <v>584.5814843947364</v>
       </c>
       <c r="X39" t="n">
-        <v>19.28114311021272</v>
+        <v>376.7299841892036</v>
       </c>
       <c r="Y39" t="n">
-        <v>19.28114311021272</v>
+        <v>168.9696854242497</v>
       </c>
     </row>
     <row r="40">
@@ -7308,28 +7308,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C40" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D40" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E40" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="F40" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="G40" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="H40" t="n">
-        <v>19.28114311021272</v>
+        <v>113.583345248266</v>
       </c>
       <c r="I40" t="n">
-        <v>19.28114311021272</v>
+        <v>113.583345248266</v>
       </c>
       <c r="J40" t="n">
         <v>19.28114311021272</v>
@@ -7353,31 +7353,31 @@
         <v>153.8134336004835</v>
       </c>
       <c r="Q40" t="n">
-        <v>66.78106667958005</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R40" t="n">
-        <v>66.78106667958005</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S40" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T40" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U40" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V40" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W40" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X40" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y40" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="41">
@@ -7387,28 +7387,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>487.4018176583718</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C41" t="n">
-        <v>487.4018176583718</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D41" t="n">
-        <v>487.4018176583718</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E41" t="n">
-        <v>487.4018176583718</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F41" t="n">
-        <v>487.4018176583718</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G41" t="n">
-        <v>487.4018176583718</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H41" t="n">
-        <v>243.9530410142718</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I41" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J41" t="n">
         <v>19.28114311021272</v>
@@ -7447,16 +7447,16 @@
         <v>964.0571555106362</v>
       </c>
       <c r="V41" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="W41" t="n">
-        <v>720.6083788665362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="X41" t="n">
-        <v>487.4018176583718</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="Y41" t="n">
-        <v>487.4018176583718</v>
+        <v>506.1786963984129</v>
       </c>
     </row>
     <row r="42">
@@ -7466,25 +7466,25 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>439.1764243339896</v>
+        <v>110.334904905842</v>
       </c>
       <c r="C42" t="n">
-        <v>439.1764243339896</v>
+        <v>110.334904905842</v>
       </c>
       <c r="D42" t="n">
-        <v>439.1764243339896</v>
+        <v>110.334904905842</v>
       </c>
       <c r="E42" t="n">
-        <v>279.9389693285341</v>
+        <v>110.334904905842</v>
       </c>
       <c r="F42" t="n">
-        <v>133.4044113554191</v>
+        <v>110.334904905842</v>
       </c>
       <c r="G42" t="n">
-        <v>133.4044113554191</v>
+        <v>110.334904905842</v>
       </c>
       <c r="H42" t="n">
-        <v>20.03527576299844</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I42" t="n">
         <v>20.03527576299844</v>
@@ -7499,7 +7499,7 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M42" t="n">
-        <v>374.6018090363993</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="N42" t="n">
         <v>473.4149733950735</v>
@@ -7517,25 +7517,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S42" t="n">
-        <v>790.6398109613051</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T42" t="n">
-        <v>674.3285325657323</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U42" t="n">
-        <v>674.3285325657323</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="V42" t="n">
-        <v>439.1764243339896</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="W42" t="n">
-        <v>439.1764243339896</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="X42" t="n">
-        <v>439.1764243339896</v>
+        <v>110.334904905842</v>
       </c>
       <c r="Y42" t="n">
-        <v>439.1764243339896</v>
+        <v>110.334904905842</v>
       </c>
     </row>
     <row r="43">
@@ -7587,25 +7587,25 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P43" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q43" t="n">
-        <v>64.03213664411894</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R43" t="n">
-        <v>64.03213664411894</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S43" t="n">
-        <v>64.03213664411894</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T43" t="n">
-        <v>64.03213664411894</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U43" t="n">
-        <v>64.03213664411894</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V43" t="n">
-        <v>64.03213664411894</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W43" t="n">
         <v>19.28114311021272</v>
@@ -7624,22 +7624,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C44" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D44" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E44" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F44" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G44" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H44" t="n">
         <v>19.28114311021272</v>
@@ -7672,28 +7672,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R44" t="n">
-        <v>964.0571555106362</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="S44" t="n">
-        <v>964.0571555106362</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="T44" t="n">
-        <v>738.7078125165641</v>
+        <v>376.1934816808115</v>
       </c>
       <c r="U44" t="n">
-        <v>738.7078125165641</v>
+        <v>132.7447050367114</v>
       </c>
       <c r="V44" t="n">
-        <v>738.7078125165641</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W44" t="n">
-        <v>738.7078125165641</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X44" t="n">
-        <v>738.7078125165641</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y44" t="n">
-        <v>506.1786963984129</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="45">
@@ -7703,28 +7703,28 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>447.2758270930352</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C45" t="n">
-        <v>272.8227978119081</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D45" t="n">
-        <v>272.8227978119081</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E45" t="n">
-        <v>272.1352367728036</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F45" t="n">
-        <v>272.1352367728036</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G45" t="n">
-        <v>133.4044113554191</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H45" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I45" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J45" t="n">
         <v>19.28114311021272</v>
@@ -7736,43 +7736,43 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M45" t="n">
-        <v>417.4543050195419</v>
+        <v>542.809531908403</v>
       </c>
       <c r="N45" t="n">
-        <v>656.0584510084244</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O45" t="n">
-        <v>894.6625969973069</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P45" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q45" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R45" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S45" t="n">
-        <v>862.8876260635219</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T45" t="n">
-        <v>862.8876260635219</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="U45" t="n">
-        <v>862.8876260635219</v>
+        <v>430.9452567743808</v>
       </c>
       <c r="V45" t="n">
-        <v>862.8876260635219</v>
+        <v>430.9452567743808</v>
       </c>
       <c r="W45" t="n">
-        <v>862.8876260635219</v>
+        <v>187.4964801302808</v>
       </c>
       <c r="X45" t="n">
-        <v>655.0361258579891</v>
+        <v>187.4964801302808</v>
       </c>
       <c r="Y45" t="n">
-        <v>447.2758270930352</v>
+        <v>187.4964801302808</v>
       </c>
     </row>
     <row r="46">
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C46" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D46" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E46" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="F46" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="G46" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H46" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I46" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J46" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K46" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L46" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M46" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N46" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O46" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P46" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q46" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R46" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S46" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T46" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U46" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V46" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W46" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X46" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y46" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
   </sheetData>
@@ -7981,19 +7981,19 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K2" t="n">
-        <v>220.0898510449805</v>
+        <v>273.6023800549303</v>
       </c>
       <c r="L2" t="n">
         <v>235.7664149699872</v>
       </c>
       <c r="M2" t="n">
-        <v>283.8587622372225</v>
+        <v>230.3462332272727</v>
       </c>
       <c r="N2" t="n">
-        <v>282.9255926065406</v>
+        <v>280.7634702223003</v>
       </c>
       <c r="O2" t="n">
-        <v>281.4486180473961</v>
+        <v>283.6107404316365</v>
       </c>
       <c r="P2" t="n">
         <v>284.7455247652193</v>
@@ -8060,19 +8060,19 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>189.1918456000683</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L3" t="n">
-        <v>138.5543797798742</v>
+        <v>189.9047864055835</v>
       </c>
       <c r="M3" t="n">
-        <v>195.6465629319681</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N3" t="n">
         <v>184.8542410932831</v>
       </c>
       <c r="O3" t="n">
-        <v>142.5962444444444</v>
+        <v>196.1087734543942</v>
       </c>
       <c r="P3" t="n">
         <v>187.48693642428</v>
@@ -8297,10 +8297,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L6" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M6" t="n">
         <v>383.1483227996774</v>
@@ -8309,13 +8309,13 @@
         <v>372.3560009609923</v>
       </c>
       <c r="O6" t="n">
-        <v>142.5962444444444</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P6" t="n">
-        <v>177.2597568922521</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>186.7697506723097</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8455,7 +8455,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K8" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711648</v>
       </c>
       <c r="L8" t="n">
         <v>417.6612145504504</v>
@@ -8543,13 +8543,13 @@
         <v>383.1483227996774</v>
       </c>
       <c r="N9" t="n">
-        <v>372.3560009609923</v>
+        <v>231.1529892133072</v>
       </c>
       <c r="O9" t="n">
         <v>142.5962444444444</v>
       </c>
       <c r="P9" t="n">
-        <v>177.2597568922521</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
         <v>210.0772877358491</v>
@@ -8695,7 +8695,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L11" t="n">
-        <v>417.6612145504505</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M11" t="n">
         <v>449.5135334928325</v>
@@ -8771,22 +8771,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
-        <v>299.7328472056018</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M12" t="n">
-        <v>383.1483227996774</v>
+        <v>382.1386950879875</v>
       </c>
       <c r="N12" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O12" t="n">
-        <v>142.5962444444444</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P12" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
         <v>139.9817740860215</v>
@@ -8932,7 +8932,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L14" t="n">
-        <v>417.6612145504504</v>
+        <v>417.6612145504505</v>
       </c>
       <c r="M14" t="n">
         <v>449.5135334928325</v>
@@ -9014,19 +9014,19 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M15" t="n">
-        <v>383.1483227996774</v>
+        <v>241.9453110519923</v>
       </c>
       <c r="N15" t="n">
-        <v>244.7225752110828</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O15" t="n">
-        <v>383.6105333221035</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P15" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9254,16 +9254,16 @@
         <v>383.1483227996774</v>
       </c>
       <c r="N18" t="n">
-        <v>131.3417120833333</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O18" t="n">
-        <v>312.5030352242461</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P18" t="n">
-        <v>318.4627686399372</v>
+        <v>177.2597568922521</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9491,10 +9491,10 @@
         <v>142.1340339220183</v>
       </c>
       <c r="N21" t="n">
-        <v>301.248502863135</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O21" t="n">
-        <v>383.6105333221035</v>
+        <v>312.5030352242461</v>
       </c>
       <c r="P21" t="n">
         <v>318.4627686399372</v>
@@ -9719,22 +9719,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
-        <v>383.1483227996774</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N24" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O24" t="n">
-        <v>383.6105333221035</v>
+        <v>369.031319612638</v>
       </c>
       <c r="P24" t="n">
-        <v>168.5314335381781</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
         <v>210.0772877358491</v>
@@ -9956,19 +9956,19 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
-        <v>383.1483227996774</v>
+        <v>197.6503338623806</v>
       </c>
       <c r="N27" t="n">
-        <v>301.2485028631349</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O27" t="n">
-        <v>142.5962444444444</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P27" t="n">
         <v>318.4627686399372</v>
@@ -10193,16 +10193,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>184.6294155606472</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M30" t="n">
-        <v>383.1483227996774</v>
+        <v>312.04082470182</v>
       </c>
       <c r="N30" t="n">
-        <v>372.3560009609923</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O30" t="n">
         <v>383.6105333221035</v>
@@ -10436,19 +10436,19 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M33" t="n">
-        <v>383.1483227996774</v>
+        <v>312.04082470182</v>
       </c>
       <c r="N33" t="n">
-        <v>174.6270615612551</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O33" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P33" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10588,7 +10588,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K35" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711648</v>
       </c>
       <c r="L35" t="n">
         <v>417.6612145504504</v>
@@ -10667,19 +10667,19 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
-        <v>368.5691090902119</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N36" t="n">
-        <v>372.3560009609923</v>
+        <v>231.1529892133073</v>
       </c>
       <c r="O36" t="n">
-        <v>142.5962444444444</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P36" t="n">
         <v>318.4627686399372</v>
@@ -10907,7 +10907,7 @@
         <v>137.841438974359</v>
       </c>
       <c r="L39" t="n">
-        <v>185.3423563661624</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M39" t="n">
         <v>383.1483227996774</v>
@@ -10919,10 +10919,10 @@
         <v>383.6105333221035</v>
       </c>
       <c r="P39" t="n">
-        <v>318.4627686399372</v>
+        <v>295.1552315763977</v>
       </c>
       <c r="Q39" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11065,7 +11065,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L41" t="n">
-        <v>417.6612145504505</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M41" t="n">
         <v>449.5135334928325</v>
@@ -11147,10 +11147,10 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M42" t="n">
-        <v>142.1340339220183</v>
+        <v>241.9453110519923</v>
       </c>
       <c r="N42" t="n">
-        <v>231.1529892133073</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O42" t="n">
         <v>383.6105333221035</v>
@@ -11302,7 +11302,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L44" t="n">
-        <v>417.6612145504505</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
         <v>449.5135334928325</v>
@@ -11384,19 +11384,19 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M45" t="n">
-        <v>185.4193833999402</v>
+        <v>312.04082470182</v>
       </c>
       <c r="N45" t="n">
-        <v>372.3560009609923</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O45" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P45" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -23257,31 +23257,31 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>374.9551956315293</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>152.3883551917857</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H11" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -23302,7 +23302,7 @@
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
         <v>149.8691179411497</v>
@@ -23311,16 +23311,16 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U11" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
         <v>369.731100678469</v>
@@ -23342,19 +23342,19 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D12" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>157.6450804554009</v>
+        <v>105.5821905670137</v>
       </c>
       <c r="F12" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
         <v>89.39663285141508</v>
@@ -23384,25 +23384,25 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T12" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U12" t="n">
-        <v>170.3657197299391</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V12" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W12" t="n">
         <v>10.68069428326055</v>
       </c>
       <c r="X12" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y12" t="n">
         <v>205.6826957773044</v>
@@ -23463,7 +23463,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R13" t="n">
-        <v>44.10642379180146</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S13" t="n">
         <v>224.0165980369723</v>
@@ -23472,7 +23472,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U13" t="n">
-        <v>286.3190293564909</v>
+        <v>153.1320617711229</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -23494,16 +23494,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
         <v>406.8760457417114</v>
@@ -23512,7 +23512,7 @@
         <v>415.302737515135</v>
       </c>
       <c r="H14" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23539,7 +23539,7 @@
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
         <v>149.8691179411497</v>
@@ -23554,16 +23554,16 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>116.4078829812627</v>
       </c>
       <c r="X14" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>384.4284425830174</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -23573,7 +23573,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C15" t="n">
         <v>172.7084989883157</v>
@@ -23582,22 +23582,22 @@
         <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I15" t="n">
         <v>89.39663285141508</v>
       </c>
       <c r="J15" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -23627,10 +23627,10 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T15" t="n">
-        <v>56.389187656633</v>
+        <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V15" t="n">
         <v>232.8005871494253</v>
@@ -23639,7 +23639,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X15" t="n">
-        <v>0</v>
+        <v>180.4807339338984</v>
       </c>
       <c r="Y15" t="n">
         <v>205.6826957773044</v>
@@ -23715,13 +23715,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>153.336030751223</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>85.39768576672677</v>
       </c>
     </row>
     <row r="17">
@@ -23743,19 +23743,19 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H17" t="n">
         <v>339.4748021157671</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -23776,31 +23776,31 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S17" t="n">
         <v>209.0200695862453</v>
       </c>
       <c r="T17" t="n">
-        <v>223.0958495641314</v>
+        <v>10.81046392068936</v>
       </c>
       <c r="U17" t="n">
         <v>251.3456529078365</v>
       </c>
       <c r="V17" t="n">
-        <v>256.7375800297467</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X17" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="18">
@@ -23810,19 +23810,19 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C18" t="n">
         <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
         <v>137.3435171632106</v>
@@ -23831,10 +23831,10 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I18" t="n">
-        <v>66.41960608993695</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -23858,25 +23858,25 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S18" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T18" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U18" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V18" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W18" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X18" t="n">
-        <v>0</v>
+        <v>59.84577397866479</v>
       </c>
       <c r="Y18" t="n">
         <v>205.6826957773044</v>
@@ -23934,10 +23934,10 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q19" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R19" t="n">
-        <v>130.2684670434958</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S19" t="n">
         <v>224.0165980369723</v>
@@ -23949,7 +23949,7 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>118.95067573846</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -23968,10 +23968,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C20" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
         <v>354.683041620683</v>
@@ -23980,10 +23980,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417114</v>
+        <v>194.5906600982693</v>
       </c>
       <c r="G20" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H20" t="n">
         <v>339.4748021157671</v>
@@ -24013,31 +24013,31 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S20" t="n">
         <v>209.0200695862453</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U20" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>278.8969609161378</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="21">
@@ -24050,7 +24050,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D21" t="n">
         <v>147.4450655646388</v>
@@ -24071,7 +24071,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J21" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -24095,19 +24095,19 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>0</v>
+        <v>74.66330191025466</v>
       </c>
       <c r="U21" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>147.9595530161018</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W21" t="n">
         <v>251.6949831609196</v>
@@ -24116,7 +24116,7 @@
         <v>0</v>
       </c>
       <c r="Y21" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -24141,7 +24141,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>167.9909793584588</v>
+        <v>34.80401177309074</v>
       </c>
       <c r="H22" t="n">
         <v>162.2271725074396</v>
@@ -24171,10 +24171,10 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q22" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R22" t="n">
-        <v>130.2684670434958</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S22" t="n">
         <v>224.0165980369723</v>
@@ -24217,10 +24217,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G23" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H23" t="n">
         <v>339.4748021157671</v>
@@ -24229,7 +24229,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J23" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -24253,19 +24253,19 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>150.6253511395826</v>
       </c>
       <c r="U23" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V23" t="n">
-        <v>107.53913272771</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
         <v>349.240968717413</v>
@@ -24274,7 +24274,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="24">
@@ -24287,13 +24287,13 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C24" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E24" t="n">
-        <v>80.1764713530042</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F24" t="n">
         <v>145.0692123933839</v>
@@ -24308,7 +24308,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J24" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -24332,28 +24332,28 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S24" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T24" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U24" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V24" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W24" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X24" t="n">
-        <v>0</v>
+        <v>75.68862979473269</v>
       </c>
       <c r="Y24" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -24405,10 +24405,10 @@
         <v>0</v>
       </c>
       <c r="P25" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q25" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R25" t="n">
         <v>177.2933913771695</v>
@@ -24417,7 +24417,7 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T25" t="n">
-        <v>183.6421058297144</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U25" t="n">
         <v>286.3190293564909</v>
@@ -24426,7 +24426,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -24442,22 +24442,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>180.4391552345834</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F26" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>415.302737515135</v>
+        <v>362.8771690273874</v>
       </c>
       <c r="H26" t="n">
         <v>339.4748021157671</v>
@@ -24490,7 +24490,7 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>209.0200695862453</v>
@@ -24511,7 +24511,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="27">
@@ -24539,7 +24539,7 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H27" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
         <v>89.39663285141508</v>
@@ -24569,10 +24569,10 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S27" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T27" t="n">
         <v>0</v>
@@ -24584,13 +24584,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W27" t="n">
-        <v>10.68069428326055</v>
+        <v>40.22258479660033</v>
       </c>
       <c r="X27" t="n">
         <v>0</v>
       </c>
       <c r="Y27" t="n">
-        <v>189.1474515333243</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -24642,16 +24642,16 @@
         <v>0</v>
       </c>
       <c r="P28" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q28" t="n">
         <v>86.16204325169439</v>
       </c>
       <c r="R28" t="n">
-        <v>46.82786452690794</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S28" t="n">
-        <v>224.0165980369723</v>
+        <v>90.82963045160423</v>
       </c>
       <c r="T28" t="n">
         <v>227.9455894282815</v>
@@ -24682,7 +24682,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>162.9782053421103</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
         <v>354.683041620683</v>
@@ -24694,10 +24694,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H29" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I29" t="n">
         <v>210.4758895704059</v>
@@ -24724,25 +24724,25 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R29" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S29" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
         <v>223.0958495641314</v>
       </c>
       <c r="U29" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V29" t="n">
         <v>86.73796959247585</v>
       </c>
       <c r="W29" t="n">
-        <v>108.226679839754</v>
+        <v>345.9756526602163</v>
       </c>
       <c r="X29" t="n">
         <v>369.731100678469</v>
@@ -24758,7 +24758,7 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>149.9076499797141</v>
+        <v>0</v>
       </c>
       <c r="C30" t="n">
         <v>172.7084989883157</v>
@@ -24767,19 +24767,19 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E30" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F30" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G30" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H30" t="n">
         <v>112.2354442364965</v>
       </c>
       <c r="I30" t="n">
-        <v>89.39663285141508</v>
+        <v>87.59589579477738</v>
       </c>
       <c r="J30" t="n">
         <v>0.7465913262578567</v>
@@ -24821,13 +24821,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W30" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X30" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y30" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="31">
@@ -24840,7 +24840,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>34.05985351325981</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
@@ -24879,10 +24879,10 @@
         <v>0</v>
       </c>
       <c r="P31" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q31" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R31" t="n">
         <v>177.2933913771695</v>
@@ -24894,7 +24894,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U31" t="n">
-        <v>242.0155457579237</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -24916,28 +24916,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C32" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G32" t="n">
         <v>415.302737515135</v>
       </c>
       <c r="H32" t="n">
-        <v>339.4748021157671</v>
+        <v>137.1801156868699</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J32" t="n">
         <v>11.94928935461252</v>
@@ -24967,10 +24967,10 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T32" t="n">
-        <v>199.2828334142264</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U32" t="n">
         <v>251.3456529078365</v>
@@ -24995,7 +24995,7 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C33" t="n">
         <v>172.7084989883157</v>
@@ -25004,19 +25004,19 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E33" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H33" t="n">
         <v>112.2354442364965</v>
       </c>
       <c r="I33" t="n">
-        <v>89.39663285141508</v>
+        <v>71.74018104694977</v>
       </c>
       <c r="J33" t="n">
         <v>0.7465913262578567</v>
@@ -25046,25 +25046,25 @@
         <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U33" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V33" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W33" t="n">
-        <v>221.7057603085621</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X33" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y33" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="34">
@@ -25089,7 +25089,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>167.9909793584588</v>
+        <v>34.80401177309074</v>
       </c>
       <c r="H34" t="n">
         <v>162.2271725074396</v>
@@ -25116,16 +25116,16 @@
         <v>0</v>
       </c>
       <c r="P34" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q34" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R34" t="n">
         <v>177.2933913771695</v>
       </c>
       <c r="S34" t="n">
-        <v>179.7131144384051</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T34" t="n">
         <v>227.9455894282815</v>
@@ -25156,7 +25156,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>252.9439654637738</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
         <v>354.683041620683</v>
@@ -25198,7 +25198,7 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
@@ -25216,7 +25216,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>349.240968717413</v>
+        <v>246.9027416247241</v>
       </c>
       <c r="X35" t="n">
         <v>369.731100678469</v>
@@ -25250,7 +25250,7 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H36" t="n">
-        <v>112.2354442364965</v>
+        <v>82.43643527161383</v>
       </c>
       <c r="I36" t="n">
         <v>89.39663285141508</v>
@@ -25283,25 +25283,25 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T36" t="n">
-        <v>80.77591565244732</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U36" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
       </c>
       <c r="W36" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X36" t="n">
         <v>0</v>
       </c>
       <c r="Y36" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="37">
@@ -25356,10 +25356,10 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q37" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R37" t="n">
-        <v>130.2684670434958</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S37" t="n">
         <v>224.0165980369723</v>
@@ -25377,7 +25377,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>92.52268780366913</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -25390,7 +25390,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
@@ -25444,22 +25444,22 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U38" t="n">
         <v>251.3456529078365</v>
       </c>
       <c r="V38" t="n">
-        <v>119.4884220823224</v>
+        <v>137.40686139585</v>
       </c>
       <c r="W38" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X38" t="n">
         <v>128.71681180081</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="39">
@@ -25475,7 +25475,7 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D39" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E39" t="n">
         <v>157.6450804554009</v>
@@ -25493,7 +25493,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J39" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -25517,28 +25517,28 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S39" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T39" t="n">
         <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>225.9413820809748</v>
+        <v>50.42519637105573</v>
       </c>
       <c r="V39" t="n">
-        <v>10.49235770196771</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W39" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X39" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y39" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -25566,13 +25566,13 @@
         <v>167.9909793584588</v>
       </c>
       <c r="H40" t="n">
-        <v>162.2271725074396</v>
+        <v>122.3993850387443</v>
       </c>
       <c r="I40" t="n">
         <v>155.4504749272583</v>
       </c>
       <c r="J40" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K40" t="n">
         <v>22.26949182588285</v>
@@ -25593,13 +25593,13 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q40" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R40" t="n">
         <v>177.2933913771695</v>
       </c>
       <c r="S40" t="n">
-        <v>176.9916737032986</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T40" t="n">
         <v>227.9455894282815</v>
@@ -25627,10 +25627,10 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D41" t="n">
         <v>354.683041620683</v>
@@ -25645,13 +25645,13 @@
         <v>415.302737515135</v>
       </c>
       <c r="H41" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
@@ -25687,13 +25687,13 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V41" t="n">
-        <v>327.7522584701349</v>
+        <v>115.4668728266929</v>
       </c>
       <c r="W41" t="n">
         <v>108.226679839754</v>
       </c>
       <c r="X41" t="n">
-        <v>138.8566050823863</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
         <v>386.2379386560536</v>
@@ -25715,19 +25715,19 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E42" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F42" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G42" t="n">
         <v>137.3435171632106</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I42" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -25757,22 +25757,22 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S42" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T42" t="n">
-        <v>85.01656308320455</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U42" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
       </c>
       <c r="W42" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X42" t="n">
-        <v>205.7729852034775</v>
+        <v>60.34421521279029</v>
       </c>
       <c r="Y42" t="n">
         <v>205.6826957773044</v>
@@ -25827,10 +25827,10 @@
         <v>0</v>
       </c>
       <c r="P43" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q43" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R43" t="n">
         <v>177.2933913771695</v>
@@ -25848,7 +25848,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>242.2195147380239</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
@@ -25864,7 +25864,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
         <v>365.2728917710076</v>
@@ -25882,7 +25882,7 @@
         <v>415.302737515135</v>
       </c>
       <c r="H44" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I44" t="n">
         <v>210.4758895704059</v>
@@ -25912,19 +25912,19 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R44" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V44" t="n">
-        <v>327.7522584701349</v>
+        <v>215.4233321629012</v>
       </c>
       <c r="W44" t="n">
         <v>349.240968717413</v>
@@ -25933,7 +25933,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>156.0341136990839</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="45">
@@ -25943,31 +25943,31 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C45" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D45" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E45" t="n">
-        <v>156.9643950266875</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F45" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I45" t="n">
         <v>89.39663285141508</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -25991,28 +25991,28 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S45" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T45" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>225.9413820809748</v>
+        <v>70.00850213074148</v>
       </c>
       <c r="V45" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W45" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X45" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y45" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="46">
@@ -26037,7 +26037,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>167.9909793584588</v>
+        <v>34.80401177309074</v>
       </c>
       <c r="H46" t="n">
         <v>162.2271725074396</v>
@@ -26079,7 +26079,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U46" t="n">
-        <v>153.1320617711229</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>357364.5358325085</v>
+        <v>357364.5358325084</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>357364.5358325084</v>
+        <v>357364.5358325085</v>
       </c>
     </row>
     <row r="7">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>357364.5358325086</v>
+        <v>357364.5358325085</v>
       </c>
     </row>
     <row r="9">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>357364.5358325085</v>
+        <v>357364.5358325084</v>
       </c>
     </row>
     <row r="14">
@@ -26313,34 +26313,34 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>595255.2831516053</v>
+        <v>595255.2831516052</v>
       </c>
       <c r="C2" t="n">
-        <v>595255.2831516053</v>
+        <v>595255.2831516051</v>
       </c>
       <c r="D2" t="n">
-        <v>595255.2831516053</v>
+        <v>595255.2831516052</v>
       </c>
       <c r="E2" t="n">
         <v>240932.9751704318</v>
       </c>
       <c r="F2" t="n">
+        <v>240932.9751704318</v>
+      </c>
+      <c r="G2" t="n">
+        <v>240932.9751704318</v>
+      </c>
+      <c r="H2" t="n">
         <v>240932.9751704319</v>
       </c>
-      <c r="G2" t="n">
-        <v>240932.9751704319</v>
-      </c>
-      <c r="H2" t="n">
+      <c r="I2" t="n">
         <v>240932.9751704318</v>
-      </c>
-      <c r="I2" t="n">
-        <v>240932.9751704319</v>
       </c>
       <c r="J2" t="n">
         <v>240932.9751704319</v>
       </c>
       <c r="K2" t="n">
-        <v>240932.9751704319</v>
+        <v>240932.9751704318</v>
       </c>
       <c r="L2" t="n">
         <v>240932.9751704318</v>
@@ -26352,10 +26352,10 @@
         <v>240932.9751704319</v>
       </c>
       <c r="O2" t="n">
+        <v>240932.9751704318</v>
+      </c>
+      <c r="P2" t="n">
         <v>240932.9751704319</v>
-      </c>
-      <c r="P2" t="n">
-        <v>240932.9751704318</v>
       </c>
     </row>
     <row r="3">
@@ -26417,7 +26417,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>341864.8743836955</v>
+        <v>341864.8743836956</v>
       </c>
       <c r="C4" t="n">
         <v>295860.2172754402</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>198575.9677447034</v>
+        <v>198575.9677447033</v>
       </c>
       <c r="C6" t="n">
-        <v>190537.4749257353</v>
+        <v>190537.4749257351</v>
       </c>
       <c r="D6" t="n">
-        <v>251113.7971124034</v>
+        <v>251113.7971124033</v>
       </c>
       <c r="E6" t="n">
-        <v>209364.6167656893</v>
+        <v>197146.6061456488</v>
       </c>
       <c r="F6" t="n">
-        <v>209364.6167656894</v>
+        <v>197146.6061456489</v>
       </c>
       <c r="G6" t="n">
-        <v>209364.6167656894</v>
+        <v>197146.6061456488</v>
       </c>
       <c r="H6" t="n">
-        <v>209364.6167656893</v>
+        <v>197146.6061456489</v>
       </c>
       <c r="I6" t="n">
-        <v>209364.6167656894</v>
+        <v>197146.6061456488</v>
       </c>
       <c r="J6" t="n">
-        <v>195363.3846254101</v>
+        <v>183145.3740053696</v>
       </c>
       <c r="K6" t="n">
-        <v>161107.6638320568</v>
+        <v>148889.6532120162</v>
       </c>
       <c r="L6" t="n">
-        <v>209364.6167656893</v>
+        <v>197146.6061456488</v>
       </c>
       <c r="M6" t="n">
-        <v>209364.6167656894</v>
+        <v>197146.6061456489</v>
       </c>
       <c r="N6" t="n">
-        <v>209364.6167656894</v>
+        <v>197146.6061456489</v>
       </c>
       <c r="O6" t="n">
-        <v>209364.6167656894</v>
+        <v>197146.6061456488</v>
       </c>
       <c r="P6" t="n">
-        <v>209364.6167656893</v>
+        <v>197146.6061456489</v>
       </c>
     </row>
   </sheetData>
@@ -27381,16 +27381,16 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>311.7603627610578</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>301.1705126107332</v>
+        <v>319.4984954233317</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>328.417841062312</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>353.3635167317617</v>
       </c>
       <c r="G2" t="n">
         <v>361.7902085051853</v>
@@ -27402,7 +27402,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J2" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27447,7 +27447,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>345.9801488458013</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27457,28 +27457,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>113.0206546399176</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>93.93253655468899</v>
       </c>
       <c r="E3" t="n">
         <v>104.1325514454512</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>91.55668338343412</v>
       </c>
       <c r="G3" t="n">
         <v>137.3435171632106</v>
       </c>
       <c r="H3" t="n">
-        <v>65.84820001079058</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I3" t="n">
-        <v>89.39663285141508</v>
+        <v>43.00938862570919</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27505,7 +27505,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>46.64530514269338</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S3" t="n">
         <v>171.6831711038378</v>
@@ -27548,13 +27548,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>91.90851901298149</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>167.9909793584588</v>
       </c>
       <c r="H4" t="n">
-        <v>162.2271725074396</v>
+        <v>136.065262941971</v>
       </c>
       <c r="I4" t="n">
         <v>155.4504749272583</v>
@@ -27587,22 +27587,22 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S4" t="n">
-        <v>224.0165980369723</v>
+        <v>170.5040690270225</v>
       </c>
       <c r="T4" t="n">
-        <v>227.9455894282815</v>
+        <v>174.4330604183317</v>
       </c>
       <c r="U4" t="n">
         <v>286.3190293564909</v>
       </c>
       <c r="V4" t="n">
-        <v>198.6251143138782</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>199.5477458235686</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27615,19 +27615,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>113.6687527430239</v>
+        <v>314.2067624875478</v>
       </c>
       <c r="E5" t="n">
-        <v>188.4703195251436</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G5" t="n">
         <v>174.288448637476</v>
@@ -27660,10 +27660,10 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>209.0200695862453</v>
@@ -27694,7 +27694,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
         <v>172.7084989883157</v>
@@ -27703,10 +27703,10 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -27718,7 +27718,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J6" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -27748,16 +27748,16 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>60.16319477650936</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>191.4187548667587</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X6" t="n">
         <v>205.7729852034775</v>
@@ -27818,13 +27818,13 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q7" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>177.2933913771695</v>
       </c>
       <c r="S7" t="n">
-        <v>224.0165980369723</v>
+        <v>176.9916737032986</v>
       </c>
       <c r="T7" t="n">
         <v>227.9455894282815</v>
@@ -27842,7 +27842,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>85.39768576672677</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27858,7 +27858,7 @@
         <v>124.2586028933485</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E8" t="n">
         <v>140.9160811946027</v>
@@ -27867,16 +27867,16 @@
         <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>174.288448637476</v>
+        <v>221.8426869680169</v>
       </c>
       <c r="H8" t="n">
         <v>339.4748021157671</v>
       </c>
       <c r="I8" t="n">
-        <v>5.066549668675236</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J8" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -27931,10 +27931,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
-        <v>15.93831371378155</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
         <v>147.4450655646388</v>
@@ -27943,19 +27943,19 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
         <v>89.39663285141508</v>
       </c>
       <c r="J9" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -27982,16 +27982,16 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S9" t="n">
-        <v>171.6831711038378</v>
+        <v>160.6600762752895</v>
       </c>
       <c r="T9" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V9" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W9" t="n">
         <v>10.68069428326055</v>
@@ -28010,7 +28010,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>46.64501259656927</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
@@ -28037,7 +28037,7 @@
         <v>93.35918011667277</v>
       </c>
       <c r="K10" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -28052,13 +28052,13 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>177.2933913771695</v>
+        <v>155.2593996044852</v>
       </c>
       <c r="S10" t="n">
         <v>224.0165980369723</v>
@@ -34701,19 +34701,19 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
       </c>
       <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>51.35040662570935</v>
+      </c>
+      <c r="O2" t="n">
         <v>53.51252900994975</v>
-      </c>
-      <c r="N2" t="n">
-        <v>53.51252900994975</v>
-      </c>
-      <c r="O2" t="n">
-        <v>51.35040662570936</v>
       </c>
       <c r="P2" t="n">
         <v>53.51252900994975</v>
@@ -34780,19 +34780,19 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
         <v>51.35040662570935</v>
       </c>
-      <c r="L3" t="n">
-        <v>0</v>
-      </c>
       <c r="M3" t="n">
-        <v>53.51252900994975</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
         <v>53.51252900994975</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="P3" t="n">
         <v>53.51252900994975</v>
@@ -35017,10 +35017,10 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
         <v>241.0142888776591</v>
@@ -35029,13 +35029,13 @@
         <v>241.0142888776591</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P6" t="n">
-        <v>43.28534947792182</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q6" t="n">
-        <v>70.09551364982758</v>
+        <v>46.78797658628819</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35184,7 +35184,7 @@
         <v>219.1673002655598</v>
       </c>
       <c r="N8" t="n">
-        <v>207.9338608153933</v>
+        <v>207.9338608153932</v>
       </c>
       <c r="O8" t="n">
         <v>150.7019698410586</v>
@@ -35263,13 +35263,13 @@
         <v>241.0142888776591</v>
       </c>
       <c r="N9" t="n">
-        <v>241.0142888776591</v>
+        <v>99.8112771299739</v>
       </c>
       <c r="O9" t="n">
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>43.28534947792182</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q9" t="n">
         <v>70.09551364982758</v>
@@ -35421,7 +35421,7 @@
         <v>219.1673002655598</v>
       </c>
       <c r="N11" t="n">
-        <v>207.9338608153932</v>
+        <v>207.9338608153933</v>
       </c>
       <c r="O11" t="n">
         <v>150.7019698410586</v>
@@ -35491,22 +35491,22 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>161.1784674257276</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M12" t="n">
-        <v>241.0142888776591</v>
+        <v>240.0046611659691</v>
       </c>
       <c r="N12" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P12" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35734,19 +35734,19 @@
         <v>232.285965523585</v>
       </c>
       <c r="M15" t="n">
+        <v>99.81127712997396</v>
+      </c>
+      <c r="N15" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="N15" t="n">
-        <v>113.3808631277494</v>
-      </c>
       <c r="O15" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35974,16 +35974,16 @@
         <v>241.0142888776591</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O18" t="n">
-        <v>169.9067907798016</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>184.4883612256069</v>
+        <v>43.28534947792182</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36211,10 +36211,10 @@
         <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>169.9067907798017</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O21" t="n">
-        <v>241.0142888776591</v>
+        <v>169.9067907798016</v>
       </c>
       <c r="P21" t="n">
         <v>184.4883612256069</v>
@@ -36439,22 +36439,22 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M24" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O24" t="n">
-        <v>241.0142888776591</v>
+        <v>226.4350751681936</v>
       </c>
       <c r="P24" t="n">
-        <v>34.55702612384782</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q24" t="n">
         <v>70.09551364982758</v>
@@ -36676,19 +36676,19 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M27" t="n">
+        <v>55.51629994036225</v>
+      </c>
+      <c r="N27" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="N27" t="n">
-        <v>169.9067907798016</v>
-      </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P27" t="n">
         <v>184.4883612256069</v>
@@ -36913,16 +36913,16 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>46.78797658628819</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M30" t="n">
-        <v>241.0142888776591</v>
+        <v>169.9067907798017</v>
       </c>
       <c r="N30" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
         <v>241.0142888776591</v>
@@ -37156,19 +37156,19 @@
         <v>232.285965523585</v>
       </c>
       <c r="M33" t="n">
-        <v>241.0142888776591</v>
+        <v>169.9067907798017</v>
       </c>
       <c r="N33" t="n">
-        <v>43.28534947792182</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q33" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37387,19 +37387,19 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L36" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M36" t="n">
-        <v>226.4350751681936</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
+        <v>99.81127712997396</v>
+      </c>
+      <c r="O36" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="O36" t="n">
-        <v>0</v>
       </c>
       <c r="P36" t="n">
         <v>184.4883612256069</v>
@@ -37627,7 +37627,7 @@
         <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>46.78797658628819</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
         <v>241.0142888776591</v>
@@ -37639,10 +37639,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="P39" t="n">
-        <v>184.4883612256069</v>
+        <v>161.1808241620674</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37867,10 +37867,10 @@
         <v>232.285965523585</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>99.81127712997396</v>
       </c>
       <c r="N42" t="n">
-        <v>99.81127712997396</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
         <v>241.0142888776591</v>
@@ -38104,19 +38104,19 @@
         <v>232.285965523585</v>
       </c>
       <c r="M45" t="n">
-        <v>43.28534947792188</v>
+        <v>169.9067907798017</v>
       </c>
       <c r="N45" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q45" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
